--- a/static/Жилые_Комплексы/ЖК_Рассвет/contract_registry.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Рассвет/contract_registry.xlsx
@@ -342,10 +342,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R259"/>
+  <dimension ref="A1:R260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -7435,10 +7436,10 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E102" s="2" t="n">
         <v>453</v>
-      </c>
-      <c r="E102" s="2" t="n">
-        <v>412</v>
       </c>
       <c r="F102" s="2" t="n">
         <v>1</v>
@@ -8245,7 +8246,7 @@
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D114" s="2" t="n">
@@ -8864,13 +8865,13 @@
         <v>5</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F123" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G123" s="2" t="n">
-        <v>88.42</v>
+        <v>103.84</v>
       </c>
       <c r="H123" s="4" t="n">
         <v>587993000</v>
@@ -10373,7 +10374,7 @@
         <v>12</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F145" s="2" t="n">
         <v>1</v>
@@ -10708,7 +10709,7 @@
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D150" s="2" t="n">
@@ -10778,7 +10779,7 @@
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D151" s="2" t="n">
@@ -11872,7 +11873,7 @@
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D167" s="2" t="n">
@@ -15565,7 +15566,7 @@
         <v>7</v>
       </c>
       <c r="E221" s="2" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F221" s="2" t="n">
         <v>1</v>
@@ -15760,7 +15761,7 @@
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D224" s="2" t="n">
@@ -15900,7 +15901,7 @@
       </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D226" s="2" t="n">
@@ -16985,7 +16986,7 @@
       </c>
       <c r="C242" s="2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D242" s="2" t="n">
@@ -17676,7 +17677,7 @@
         <v>2</v>
       </c>
       <c r="E252" s="2" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F252" s="2" t="n">
         <v>2</v>
@@ -18203,6 +18204,84 @@
       <c r="R259" s="2" t="inlineStr">
         <is>
           <t>2 Отдел Продаж</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>2</v>
+      </c>
+      <c r="E260" t="n">
+        <v>174</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0</v>
+      </c>
+      <c r="G260" t="n">
+        <v>40.04</v>
+      </c>
+      <c r="H260" t="n">
+        <v>336336000</v>
+      </c>
+      <c r="I260" t="n">
+        <v>8400000</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K260" t="n">
+        <v>100900800</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>XURRAMOV NURBEK SHOMURODOVICH</t>
+        </is>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>AD1546754</t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>30706843330043</t>
+        </is>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOSHKENT VILOYATI BOSTONLIQ TUMANI IIB </t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>SAMARKAND VILOYATI NARPAY TUMANI MANGIT MFY 172 UY</t>
+        </is>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>+998950646069 +998941402828</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/static/Жилые_Комплексы/ЖК_Рассвет/contract_registry.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Рассвет/contract_registry.xlsx
@@ -342,7 +342,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R256"/>
+  <dimension ref="A1:R253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10156,10 +10156,10 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B142" s="6" t="n">
-        <v>45621</v>
+        <v>45623</v>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
@@ -10167,135 +10167,135 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G142" s="2" t="n">
-        <v>52.83</v>
+        <v>56.21</v>
       </c>
       <c r="H142" s="4" t="n">
-        <v>250425000</v>
+        <v>339125000</v>
       </c>
       <c r="I142" s="4" t="n">
-        <v>5250000</v>
+        <v>6250000</v>
       </c>
       <c r="J142" s="5" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="K142" s="4" t="n">
-        <v>250425000</v>
+        <v>67825000</v>
       </c>
       <c r="L142" s="2" t="inlineStr">
         <is>
-          <t>ABDUPATTAXOV FAYOZBEK BAXTIYAR OGLI</t>
+          <t>DAVLATBAEV BOBURJON DILSHAD OGLI</t>
         </is>
       </c>
       <c r="M142" s="2" t="inlineStr">
         <is>
-          <t>AB4087894</t>
+          <t>AD7520314</t>
         </is>
       </c>
       <c r="N142" s="2" t="n">
-        <v>32311996860024</v>
+        <v>32103986860024</v>
       </c>
       <c r="O142" s="2" t="inlineStr">
         <is>
-          <t>TASHKENT VILOYATI CHIRCHIQ SHAHAR IIB 03.06.2016</t>
+          <t>IIV 27419 15.06.2024</t>
         </is>
       </c>
       <c r="P142" s="2" t="inlineStr">
         <is>
-          <t>CHIRCHIQ SHAHRI ROZITA KOCHASI 5 UY 18 XONADON</t>
+          <t>CHIRCHIQ SHAHAR YORKIN KELAJAK 2 a</t>
         </is>
       </c>
       <c r="Q142" s="2" t="n">
-        <v>998994028213</v>
+        <v>998994042176</v>
       </c>
       <c r="R142" s="2" t="inlineStr">
         <is>
-          <t>Руоводство</t>
+          <t>1 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B143" s="6" t="n">
-        <v>45623</v>
+        <v>45625</v>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>Б</t>
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>442</v>
+        <v>120</v>
       </c>
       <c r="F143" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G143" s="2" t="n">
-        <v>56.21</v>
+        <v>68.25</v>
       </c>
       <c r="H143" s="4" t="n">
-        <v>339125000</v>
+        <v>430312500</v>
       </c>
       <c r="I143" s="4" t="n">
-        <v>6250000</v>
+        <v>6750000</v>
       </c>
       <c r="J143" s="5" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K143" s="4" t="n">
-        <v>67825000</v>
+        <v>129093750</v>
       </c>
       <c r="L143" s="2" t="inlineStr">
         <is>
-          <t>DAVLATBAEV BOBURJON DILSHAD OGLI</t>
+          <t>MINGBOEV SHERZOD AMIRKULOVICH</t>
         </is>
       </c>
       <c r="M143" s="2" t="inlineStr">
         <is>
-          <t>AD7520314</t>
+          <t>AD2337032</t>
         </is>
       </c>
       <c r="N143" s="2" t="n">
-        <v>32103986860024</v>
+        <v>30502813920016</v>
       </c>
       <c r="O143" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419 15.06.2024</t>
+          <t>IIV 27419 12.01.2023</t>
         </is>
       </c>
       <c r="P143" s="2" t="inlineStr">
         <is>
-          <t>CHIRCHIQ SHAHAR YORKIN KELAJAK 2 a</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAXAR AMUR TEMUR 67/37</t>
         </is>
       </c>
       <c r="Q143" s="2" t="n">
-        <v>998994042176</v>
+        <v>998917770282</v>
       </c>
       <c r="R143" s="2" t="inlineStr">
         <is>
-          <t>1 Отдел Продаж</t>
+          <t>Руоводство</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>149</v>
-      </c>
-      <c r="B144" s="6" t="n">
-        <v>45625</v>
+        <v>150</v>
+      </c>
+      <c r="B144" s="3" t="n">
+        <v>45640</v>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
@@ -10303,54 +10303,56 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G144" s="2" t="n">
-        <v>68.25</v>
+        <v>28.02</v>
       </c>
       <c r="H144" s="4" t="n">
-        <v>430312500</v>
+        <v>125950000</v>
       </c>
       <c r="I144" s="4" t="n">
-        <v>6750000</v>
+        <v>5725000</v>
       </c>
       <c r="J144" s="5" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K144" s="4" t="n">
-        <v>129093750</v>
+        <v>125950000</v>
       </c>
       <c r="L144" s="2" t="inlineStr">
         <is>
-          <t>MINGBOEV SHERZOD AMIRKULOVICH</t>
+          <t>DJUMABAYEVU SANJARU SOBIR O’G’LI</t>
         </is>
       </c>
       <c r="M144" s="2" t="inlineStr">
         <is>
-          <t>AD2337032</t>
+          <t>AD 0124933</t>
         </is>
       </c>
       <c r="N144" s="2" t="n">
-        <v>30502813920016</v>
+        <v>32707900241425</v>
       </c>
       <c r="O144" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419 12.01.2023</t>
+          <t>TOSHKENT SHAHAR YAKKASAROY TUMANI IIV26287 от 05.02.2021г,</t>
         </is>
       </c>
       <c r="P144" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAXAR AMUR TEMUR 67/37</t>
-        </is>
-      </c>
-      <c r="Q144" s="2" t="n">
-        <v>998917770282</v>
+          <t>TOSHKENT SHAHAR YAKKASAROY TUMANI IIB   Qushbegi MFY Qushbegi dahasi ,11-uy, 78-xonadon от 24.05.2014г</t>
+        </is>
+      </c>
+      <c r="Q144" s="2" t="inlineStr">
+        <is>
+          <t>99899 094-66-66</t>
+        </is>
       </c>
       <c r="R144" s="2" t="inlineStr">
         <is>
@@ -10360,91 +10362,91 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="B145" s="3" t="n">
-        <v>45640</v>
+        <v>151</v>
+      </c>
+      <c r="B145" s="8" t="n">
+        <v>45670</v>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="F145" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G145" s="2" t="n">
-        <v>28.02</v>
+        <v>40.8</v>
       </c>
       <c r="H145" s="4" t="n">
-        <v>125950000</v>
+        <v>236408000</v>
       </c>
       <c r="I145" s="4" t="n">
-        <v>5725000</v>
+        <v>5800000</v>
       </c>
       <c r="J145" s="5" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K145" s="4" t="n">
-        <v>125950000</v>
+        <v>140662760</v>
       </c>
       <c r="L145" s="2" t="inlineStr">
         <is>
-          <t>DJUMABAYEVU SANJARU SOBIR O’G’LI</t>
+          <t>BAZARBAYEV DAVRON MADRIMOVICH</t>
         </is>
       </c>
       <c r="M145" s="2" t="inlineStr">
         <is>
-          <t>AD 0124933</t>
+          <t>KA0953032</t>
         </is>
       </c>
       <c r="N145" s="2" t="n">
-        <v>32707900241425</v>
+        <v>312078233300196</v>
       </c>
       <c r="O145" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR YAKKASAROY TUMANI IIV26287 от 05.02.2021г,</t>
+          <t>QORAQALPOGISTON RESPUBLIKASI AMUDARYO TUMANI IIB 12/03/2027</t>
         </is>
       </c>
       <c r="P145" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR YAKKASAROY TUMANI IIB   Qushbegi MFY Qushbegi dahasi ,11-uy, 78-xonadon от 24.05.2014г</t>
+          <t>AMUDARYO TUMANI ABESTUL KOCHASI  QILICHBOY MFY</t>
         </is>
       </c>
       <c r="Q145" s="2" t="inlineStr">
         <is>
-          <t>99899 094-66-66</t>
+          <t>998997178288  998334448244</t>
         </is>
       </c>
       <c r="R145" s="2" t="inlineStr">
         <is>
-          <t>Руоводство</t>
+          <t>1 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>151</v>
-      </c>
-      <c r="B146" s="8" t="n">
+        <v>152</v>
+      </c>
+      <c r="B146" s="6" t="n">
         <v>45670</v>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D146" s="2" t="n">
         <v>11</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>74</v>
+        <v>446</v>
       </c>
       <c r="F146" s="2" t="n">
         <v>1</v>
@@ -10500,67 +10502,65 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B147" s="6" t="n">
-        <v>45670</v>
+        <v>45639</v>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E147" s="2" t="n">
-        <v>446</v>
+        <v>36</v>
       </c>
       <c r="F147" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G147" s="2" t="n">
-        <v>40.8</v>
+        <v>56.21</v>
       </c>
       <c r="H147" s="4" t="n">
-        <v>236408000</v>
+        <v>341838000</v>
       </c>
       <c r="I147" s="4" t="n">
-        <v>5800000</v>
+        <v>6300000</v>
       </c>
       <c r="J147" s="5" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K147" s="4" t="n">
-        <v>140662760</v>
+        <v>170919000</v>
       </c>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>BAZARBAYEV DAVRON MADRIMOVICH</t>
+          <t>HOMIDOV HABIBULLO HAKIMOVICH</t>
         </is>
       </c>
       <c r="M147" s="2" t="inlineStr">
         <is>
-          <t>KA0953032</t>
+          <t>AB9464665</t>
         </is>
       </c>
       <c r="N147" s="2" t="n">
-        <v>312078233300196</v>
+        <v>31602591070013</v>
       </c>
       <c r="O147" s="2" t="inlineStr">
         <is>
-          <t>QORAQALPOGISTON RESPUBLIKASI AMUDARYO TUMANI IIB 12/03/2027</t>
+          <t>BUXORO VILOYATI GIJDUVON TUMANI IIB 02.05.2018</t>
         </is>
       </c>
       <c r="P147" s="2" t="inlineStr">
         <is>
-          <t>AMUDARYO TUMANI ABESTUL KOCHASI  QILICHBOY MFY</t>
-        </is>
-      </c>
-      <c r="Q147" s="2" t="inlineStr">
-        <is>
-          <t>998997178288  998334448244</t>
-        </is>
+          <t>BUXORO VILOYATI GIJDUVON TUMANI A.NOVOIY KOCHASI 51 XONADON</t>
+        </is>
+      </c>
+      <c r="Q147" s="2" t="n">
+        <v>998912432040</v>
       </c>
       <c r="R147" s="2" t="inlineStr">
         <is>
@@ -10570,75 +10570,75 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B148" s="6" t="n">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Б</t>
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G148" s="2" t="n">
-        <v>56.21</v>
+        <v>28.02</v>
       </c>
       <c r="H148" s="4" t="n">
-        <v>341838000</v>
+        <v>134200000</v>
       </c>
       <c r="I148" s="4" t="n">
-        <v>6300000</v>
+        <v>6100000</v>
       </c>
       <c r="J148" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K148" s="4" t="n">
-        <v>170919000</v>
+        <v>0</v>
+      </c>
+      <c r="K148" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="L148" s="2" t="inlineStr">
         <is>
-          <t>HOMIDOV HABIBULLO HAKIMOVICH</t>
+          <t>TUYCHIYEV NODIR YULDOSH UGLI</t>
         </is>
       </c>
       <c r="M148" s="2" t="inlineStr">
         <is>
-          <t>AB9464665</t>
+          <t>AD2856296</t>
         </is>
       </c>
       <c r="N148" s="2" t="n">
-        <v>31602591070013</v>
+        <v>31901976720010</v>
       </c>
       <c r="O148" s="2" t="inlineStr">
         <is>
-          <t>BUXORO VILOYATI GIJDUVON TUMANI IIB 02.05.2018</t>
+          <t>IIV 60009 24.03.2023</t>
         </is>
       </c>
       <c r="P148" s="2" t="inlineStr">
         <is>
-          <t>BUXORO VILOYATI GIJDUVON TUMANI A.NOVOIY KOCHASI 51 XONADON</t>
+          <t>TOSHKENT SHAHAR SHOYHANTOUR TUMANI A. NAVOI KOCHASI 31/32</t>
         </is>
       </c>
       <c r="Q148" s="2" t="n">
-        <v>998912432040</v>
+        <v>998974629992</v>
       </c>
       <c r="R148" s="2" t="inlineStr">
         <is>
-          <t>1 Отдел Продаж</t>
+          <t>Руоводство</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B149" s="6" t="n">
         <v>45638</v>
@@ -10652,13 +10652,13 @@
         <v>11</v>
       </c>
       <c r="E149" s="2" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F149" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G149" s="2" t="n">
-        <v>28.02</v>
+        <v>28.08</v>
       </c>
       <c r="H149" s="4" t="n">
         <v>134200000</v>
@@ -10669,34 +10669,34 @@
       <c r="J149" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="K149" s="2" t="n">
+      <c r="K149" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L149" s="2" t="inlineStr">
         <is>
-          <t>TUYCHIYEV NODIR YULDOSH UGLI</t>
+          <t>ABDUMANNAPOV ILXOM RUSTAM OGLI</t>
         </is>
       </c>
       <c r="M149" s="2" t="inlineStr">
         <is>
-          <t>AD2856296</t>
+          <t>AB9917947</t>
         </is>
       </c>
       <c r="N149" s="2" t="n">
-        <v>31901976720010</v>
+        <v>52105026860016</v>
       </c>
       <c r="O149" s="2" t="inlineStr">
         <is>
-          <t>IIV 60009 24.03.2023</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
         </is>
       </c>
       <c r="P149" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR SHOYHANTOUR TUMANI A. NAVOI KOCHASI 31/32</t>
+          <t>CHIRCHIQ SHAHAR GULZOR MFY GULZOR KOCHASI 75 XONADON</t>
         </is>
       </c>
       <c r="Q149" s="2" t="n">
-        <v>998974629992</v>
+        <v>998975989017</v>
       </c>
       <c r="R149" s="2" t="inlineStr">
         <is>
@@ -10706,10 +10706,10 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B150" s="6" t="n">
-        <v>45638</v>
+        <v>45640</v>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
@@ -10717,41 +10717,41 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E150" s="2" t="n">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="F150" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G150" s="2" t="n">
-        <v>28.08</v>
+        <v>68.25</v>
       </c>
       <c r="H150" s="4" t="n">
-        <v>134200000</v>
+        <v>436687500</v>
       </c>
       <c r="I150" s="4" t="n">
-        <v>6100000</v>
+        <v>6850000</v>
       </c>
       <c r="J150" s="5" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K150" s="4" t="n">
-        <v>0</v>
+        <v>131006250</v>
       </c>
       <c r="L150" s="2" t="inlineStr">
         <is>
-          <t>ABDUMANNAPOV ILXOM RUSTAM OGLI</t>
+          <t>ISMAILOVA NAZIFE IZETOVNA</t>
         </is>
       </c>
       <c r="M150" s="2" t="inlineStr">
         <is>
-          <t>AB9917947</t>
+          <t>AD2879504</t>
         </is>
       </c>
       <c r="N150" s="2" t="n">
-        <v>52105026860016</v>
+        <v>4624125504700</v>
       </c>
       <c r="O150" s="2" t="inlineStr">
         <is>
@@ -10760,24 +10760,24 @@
       </c>
       <c r="P150" s="2" t="inlineStr">
         <is>
-          <t>CHIRCHIQ SHAHAR GULZOR MFY GULZOR KOCHASI 75 XONADON</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAXAR KVARTAL KANSTRUKTAROV DOM 8/60</t>
         </is>
       </c>
       <c r="Q150" s="2" t="n">
-        <v>998975989017</v>
+        <v>998949422913</v>
       </c>
       <c r="R150" s="2" t="inlineStr">
         <is>
-          <t>Руоводство</t>
+          <t>1 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B151" s="6" t="n">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
@@ -10785,10 +10785,10 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F151" s="2" t="n">
         <v>2</v>
@@ -10797,42 +10797,42 @@
         <v>68.25</v>
       </c>
       <c r="H151" s="4" t="n">
-        <v>436687500</v>
+        <v>408000000</v>
       </c>
       <c r="I151" s="4" t="n">
-        <v>6850000</v>
+        <v>6400000</v>
       </c>
       <c r="J151" s="5" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K151" s="4" t="n">
-        <v>131006250</v>
+        <v>204000000</v>
       </c>
       <c r="L151" s="2" t="inlineStr">
         <is>
-          <t>ISMAILOVA NAZIFE IZETOVNA</t>
+          <t>AZAMOV SALIXJON SHAVKAT OGLI</t>
         </is>
       </c>
       <c r="M151" s="2" t="inlineStr">
         <is>
-          <t>AD2879504</t>
+          <t>AD6161645</t>
         </is>
       </c>
       <c r="N151" s="2" t="n">
-        <v>4624125504700</v>
+        <v>31211926860038</v>
       </c>
       <c r="O151" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
+          <t>IIV 27419 15.02.2024</t>
         </is>
       </c>
       <c r="P151" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAXAR KVARTAL KANSTRUKTAROV DOM 8/60</t>
+          <t>CHIRCHIQ SHAHAR ULUGBEK MFY ZARGARLAR 21 UY</t>
         </is>
       </c>
       <c r="Q151" s="2" t="n">
-        <v>998949422913</v>
+        <v>998973459453</v>
       </c>
       <c r="R151" s="2" t="inlineStr">
         <is>
@@ -10842,65 +10842,65 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B152" s="6" t="n">
         <v>45641</v>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="F152" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G152" s="2" t="n">
-        <v>68.25</v>
+        <v>56.21</v>
       </c>
       <c r="H152" s="4" t="n">
-        <v>408000000</v>
+        <v>347264000</v>
       </c>
       <c r="I152" s="4" t="n">
         <v>6400000</v>
       </c>
       <c r="J152" s="5" t="n">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="K152" s="4" t="n">
-        <v>204000000</v>
+        <v>130224000</v>
       </c>
       <c r="L152" s="2" t="inlineStr">
         <is>
-          <t>AZAMOV SALIXJON SHAVKAT OGLI</t>
+          <t>ALIMOV FARXOD MAMARASULOVICH</t>
         </is>
       </c>
       <c r="M152" s="2" t="inlineStr">
         <is>
-          <t>AD6161645</t>
+          <t>AB4967078</t>
         </is>
       </c>
       <c r="N152" s="2" t="n">
-        <v>31211926860038</v>
+        <v>32007893880088</v>
       </c>
       <c r="O152" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419 15.02.2024</t>
+          <t>SAMARQAND VILOYATI OQDARRYO TUMANI IIB</t>
         </is>
       </c>
       <c r="P152" s="2" t="inlineStr">
         <is>
-          <t>CHIRCHIQ SHAHAR ULUGBEK MFY ZARGARLAR 21 UY</t>
+          <t>SAMARQAND VILOYATI OQDARRYO TUMANI UCHTEPA 126 UY</t>
         </is>
       </c>
       <c r="Q152" s="2" t="n">
-        <v>998973459453</v>
+        <v>998976898990</v>
       </c>
       <c r="R152" s="2" t="inlineStr">
         <is>
@@ -10910,21 +10910,21 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B153" s="6" t="n">
-        <v>45641</v>
+        <v>45642</v>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E153" s="2" t="n">
-        <v>57</v>
+        <v>428</v>
       </c>
       <c r="F153" s="2" t="n">
         <v>2</v>
@@ -10933,42 +10933,44 @@
         <v>56.21</v>
       </c>
       <c r="H153" s="4" t="n">
-        <v>347264000</v>
+        <v>300000013</v>
       </c>
       <c r="I153" s="4" t="n">
-        <v>6400000</v>
+        <v>5528935</v>
       </c>
       <c r="J153" s="5" t="n">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="K153" s="4" t="n">
-        <v>130224000</v>
+        <v>300000013</v>
       </c>
       <c r="L153" s="2" t="inlineStr">
         <is>
-          <t>ALIMOV FARXOD MAMARASULOVICH</t>
+          <t>ABIDOVA NARA SULEYMANOVNA</t>
         </is>
       </c>
       <c r="M153" s="2" t="inlineStr">
         <is>
-          <t>AB4967078</t>
+          <t>AD6603130</t>
         </is>
       </c>
       <c r="N153" s="2" t="n">
-        <v>32007893880088</v>
+        <v>41903650470010</v>
       </c>
       <c r="O153" s="2" t="inlineStr">
         <is>
-          <t>SAMARQAND VILOYATI OQDARRYO TUMANI IIB</t>
+          <t>IIV 27419 27.03.2024</t>
         </is>
       </c>
       <c r="P153" s="2" t="inlineStr">
         <is>
-          <t>SAMARQAND VILOYATI OQDARRYO TUMANI UCHTEPA 126 UY</t>
-        </is>
-      </c>
-      <c r="Q153" s="2" t="n">
-        <v>998976898990</v>
+          <t>CHIRCHIQ SHAHAR NAVRUZ KOCHASI 29 XONADON</t>
+        </is>
+      </c>
+      <c r="Q153" s="2" t="inlineStr">
+        <is>
+          <t>998936177774/998885444172</t>
+        </is>
       </c>
       <c r="R153" s="2" t="inlineStr">
         <is>
@@ -10978,7 +10980,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B154" s="6" t="n">
         <v>45642</v>
@@ -10989,10 +10991,10 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E154" s="2" t="n">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="F154" s="2" t="n">
         <v>2</v>
@@ -11001,16 +11003,16 @@
         <v>56.21</v>
       </c>
       <c r="H154" s="4" t="n">
-        <v>300000013</v>
+        <v>295000008</v>
       </c>
       <c r="I154" s="4" t="n">
-        <v>5528935</v>
+        <v>5436786</v>
       </c>
       <c r="J154" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K154" s="4" t="n">
-        <v>300000013</v>
+        <v>295000008</v>
       </c>
       <c r="L154" s="2" t="inlineStr">
         <is>
@@ -11048,67 +11050,65 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B155" s="6" t="n">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E155" s="2" t="n">
-        <v>435</v>
+        <v>331</v>
       </c>
       <c r="F155" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G155" s="2" t="n">
-        <v>56.21</v>
+        <v>69.38</v>
       </c>
       <c r="H155" s="4" t="n">
-        <v>295000008</v>
+        <v>466964500</v>
       </c>
       <c r="I155" s="4" t="n">
-        <v>5436786</v>
+        <v>6850000</v>
       </c>
       <c r="J155" s="5" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K155" s="4" t="n">
-        <v>295000008</v>
+        <v>140089350</v>
       </c>
       <c r="L155" s="2" t="inlineStr">
         <is>
-          <t>ABIDOVA NARA SULEYMANOVNA</t>
+          <t>ISMAILOV ASAN FARIXOVICH</t>
         </is>
       </c>
       <c r="M155" s="2" t="inlineStr">
         <is>
-          <t>AD6603130</t>
+          <t>AD2909102</t>
         </is>
       </c>
       <c r="N155" s="2" t="n">
-        <v>41903650470010</v>
+        <v>32809830470042</v>
       </c>
       <c r="O155" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419 27.03.2024</t>
+          <t>IIV 27419 30.03.2023</t>
         </is>
       </c>
       <c r="P155" s="2" t="inlineStr">
         <is>
-          <t>CHIRCHIQ SHAHAR NAVRUZ KOCHASI 29 XONADON</t>
-        </is>
-      </c>
-      <c r="Q155" s="2" t="inlineStr">
-        <is>
-          <t>998936177774/998885444172</t>
-        </is>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAXAR KVARTAL KANSTRUKTAROV DOM 8/60</t>
+        </is>
+      </c>
+      <c r="Q155" s="2" t="n">
+        <v>998973475800</v>
       </c>
       <c r="R155" s="2" t="inlineStr">
         <is>
@@ -11118,201 +11118,201 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B156" s="6" t="n">
-        <v>45643</v>
+        <v>45645</v>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E156" s="2" t="n">
-        <v>331</v>
+        <v>451</v>
       </c>
       <c r="F156" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G156" s="2" t="n">
-        <v>69.38</v>
+        <v>52.83</v>
       </c>
       <c r="H156" s="4" t="n">
-        <v>466964500</v>
+        <v>298125000</v>
       </c>
       <c r="I156" s="4" t="n">
-        <v>6850000</v>
+        <v>6250000</v>
       </c>
       <c r="J156" s="5" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K156" s="4" t="n">
-        <v>140089350</v>
+        <v>59625000</v>
       </c>
       <c r="L156" s="2" t="inlineStr">
         <is>
-          <t>ISMAILOV ASAN FARIXOVICH</t>
+          <t>DJURABAYEVA ZURA IKRAMOVNA</t>
         </is>
       </c>
       <c r="M156" s="2" t="inlineStr">
         <is>
-          <t>AD2909102</t>
+          <t>AD3322263</t>
         </is>
       </c>
       <c r="N156" s="2" t="n">
-        <v>32809830470042</v>
+        <v>42206690470068</v>
       </c>
       <c r="O156" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419 30.03.2023</t>
+          <t>IIV 27419 15.05.2023</t>
         </is>
       </c>
       <c r="P156" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAXAR KVARTAL KANSTRUKTAROV DOM 8/60</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR 20 KIMYOGAR M.F.Y YORQIN KELAJAK KO`CHASI 22-UY</t>
         </is>
       </c>
       <c r="Q156" s="2" t="n">
-        <v>998973475800</v>
+        <v>998977437457</v>
       </c>
       <c r="R156" s="2" t="inlineStr">
         <is>
-          <t>1 Отдел Продаж</t>
+          <t>2 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B157" s="6" t="n">
-        <v>45645</v>
+        <v>45647</v>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E157" s="2" t="n">
-        <v>451</v>
+        <v>334</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G157" s="2" t="n">
-        <v>52.83</v>
+        <v>66.03</v>
       </c>
       <c r="H157" s="4" t="n">
-        <v>298125000</v>
+        <v>418411500</v>
       </c>
       <c r="I157" s="4" t="n">
-        <v>6250000</v>
+        <v>6450000</v>
       </c>
       <c r="J157" s="5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K157" s="4" t="n">
-        <v>59625000</v>
+        <v>209205750</v>
       </c>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>DJURABAYEVA ZURA IKRAMOVNA</t>
+          <t>OXUNOV TOXIR TOLQINOVICH</t>
         </is>
       </c>
       <c r="M157" s="2" t="inlineStr">
         <is>
-          <t>AD3322263</t>
+          <t>AD3150388</t>
         </is>
       </c>
       <c r="N157" s="2" t="n">
-        <v>42206690470068</v>
+        <v>32205610790037</v>
       </c>
       <c r="O157" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419 15.05.2023</t>
+          <t>IIV27224 28.04.2023</t>
         </is>
       </c>
       <c r="P157" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR 20 KIMYOGAR M.F.Y YORQIN KELAJAK KO`CHASI 22-UY</t>
+          <t>BOSTONLIQ TUMANI GAZALKENT SHAHARI LUTFIY 53 XONADON</t>
         </is>
       </c>
       <c r="Q157" s="2" t="n">
-        <v>998977437457</v>
+        <v>998993709242</v>
       </c>
       <c r="R157" s="2" t="inlineStr">
         <is>
-          <t>2 Отдел Продаж</t>
+          <t>1 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B158" s="6" t="n">
-        <v>45647</v>
+        <v>45650</v>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Б</t>
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>334</v>
+        <v>141</v>
       </c>
       <c r="F158" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G158" s="2" t="n">
-        <v>66.03</v>
+        <v>68.25</v>
       </c>
       <c r="H158" s="4" t="n">
-        <v>418411500</v>
+        <v>408000000</v>
       </c>
       <c r="I158" s="4" t="n">
-        <v>6450000</v>
+        <v>6400000</v>
       </c>
       <c r="J158" s="5" t="n">
-        <v>0.5</v>
+        <v>0.18</v>
       </c>
       <c r="K158" s="4" t="n">
-        <v>209205750</v>
+        <v>72236400</v>
       </c>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>OXUNOV TOXIR TOLQINOVICH</t>
+          <t>MAVLYANOV SHOXRUX UMID OGLI</t>
         </is>
       </c>
       <c r="M158" s="2" t="inlineStr">
         <is>
-          <t>AD3150388</t>
+          <t>AD5443996</t>
         </is>
       </c>
       <c r="N158" s="2" t="n">
-        <v>32205610790037</v>
+        <v>31305960470020</v>
       </c>
       <c r="O158" s="2" t="inlineStr">
         <is>
-          <t>IIV27224 28.04.2023</t>
+          <t>IIV 27419 16.12.2023</t>
         </is>
       </c>
       <c r="P158" s="2" t="inlineStr">
         <is>
-          <t>BOSTONLIQ TUMANI GAZALKENT SHAHARI LUTFIY 53 XONADON</t>
+          <t>CHIRCHIQ SHAHAR OQ OLTIN 29A</t>
         </is>
       </c>
       <c r="Q158" s="2" t="n">
-        <v>998993709242</v>
+        <v>998909936141</v>
       </c>
       <c r="R158" s="2" t="inlineStr">
         <is>
@@ -11322,146 +11322,146 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>164</v>
-      </c>
-      <c r="B159" s="6" t="n">
-        <v>45650</v>
+        <v>165</v>
+      </c>
+      <c r="B159" s="3" t="n">
+        <v>45651</v>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" s="2" t="n">
-        <v>141</v>
+        <v>361</v>
       </c>
       <c r="F159" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G159" s="2" t="n">
-        <v>68.25</v>
+        <v>69.38</v>
       </c>
       <c r="H159" s="4" t="n">
-        <v>408000000</v>
+        <v>419245500</v>
       </c>
       <c r="I159" s="4" t="n">
-        <v>6400000</v>
+        <v>6150000</v>
       </c>
       <c r="J159" s="5" t="n">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="K159" s="4" t="n">
-        <v>72236400</v>
+        <v>125773650</v>
       </c>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>MAVLYANOV SHOXRUX UMID OGLI</t>
+          <t>RAXMONBERDIYEVA MUKADDAS JUMAVOYEVNA</t>
         </is>
       </c>
       <c r="M159" s="2" t="inlineStr">
         <is>
-          <t>AD5443996</t>
+          <t>AD9808190</t>
         </is>
       </c>
       <c r="N159" s="2" t="n">
-        <v>31305960470020</v>
+        <v>42303800590040</v>
       </c>
       <c r="O159" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419 16.12.2023</t>
+          <t>IIV 27256 13.12.24</t>
         </is>
       </c>
       <c r="P159" s="2" t="inlineStr">
         <is>
-          <t>CHIRCHIQ SHAHAR OQ OLTIN 29A</t>
+          <t>TOSHKENT VILOYATI CHINOZ TUMANI YANGI CHINOZ DO`STLIK KO`CHASI 31-UY</t>
         </is>
       </c>
       <c r="Q159" s="2" t="n">
-        <v>998909936141</v>
+        <v>79999242102</v>
       </c>
       <c r="R159" s="2" t="inlineStr">
         <is>
-          <t>1 Отдел Продаж</t>
+          <t>2 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B160" s="3" t="n">
-        <v>45651</v>
+        <v>45667</v>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>В</t>
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>361</v>
+        <v>191</v>
       </c>
       <c r="F160" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G160" s="2" t="n">
-        <v>69.38</v>
+        <v>103.84</v>
       </c>
       <c r="H160" s="4" t="n">
-        <v>419245500</v>
+        <v>654308000</v>
       </c>
       <c r="I160" s="4" t="n">
-        <v>6150000</v>
+        <v>7400000</v>
       </c>
       <c r="J160" s="5" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="K160" s="4" t="n">
-        <v>125773650</v>
+        <v>161614076</v>
       </c>
       <c r="L160" s="2" t="inlineStr">
         <is>
-          <t>RAXMONBERDIYEVA MUKADDAS JUMAVOYEVNA</t>
+          <t>TULYAYEVA SHAXNOZA RAVSHANBEKOVNA</t>
         </is>
       </c>
       <c r="M160" s="2" t="inlineStr">
         <is>
-          <t>AD9808190</t>
+          <t>AD6985389</t>
         </is>
       </c>
       <c r="N160" s="2" t="n">
-        <v>42303800590040</v>
+        <v>42909900500059</v>
       </c>
       <c r="O160" s="2" t="inlineStr">
         <is>
-          <t>IIV 27256 13.12.24</t>
+          <t>IIV 27419 29.04.2024</t>
         </is>
       </c>
       <c r="P160" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHINOZ TUMANI YANGI CHINOZ DO`STLIK KO`CHASI 31-UY</t>
+          <t>CHIRCHIQ SHAHAR 10 MIKRORAYON 51 UY 39 XONADON</t>
         </is>
       </c>
       <c r="Q160" s="2" t="n">
-        <v>79999242102</v>
+        <v>998994935957</v>
       </c>
       <c r="R160" s="2" t="inlineStr">
         <is>
-          <t>2 Отдел Продаж</t>
+          <t>1 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>166</v>
-      </c>
-      <c r="B161" s="3" t="n">
-        <v>45667</v>
+        <v>167</v>
+      </c>
+      <c r="B161" s="6" t="n">
+        <v>45661</v>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
@@ -11469,10 +11469,10 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E161" s="2" t="n">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="F161" s="2" t="n">
         <v>3</v>
@@ -11481,42 +11481,42 @@
         <v>103.84</v>
       </c>
       <c r="H161" s="4" t="n">
-        <v>654308000</v>
+        <v>490731000</v>
       </c>
       <c r="I161" s="4" t="n">
-        <v>7400000</v>
+        <v>5550000</v>
       </c>
       <c r="J161" s="5" t="n">
-        <v>0.25</v>
+        <v>0.85</v>
       </c>
       <c r="K161" s="4" t="n">
-        <v>161614076</v>
+        <v>417121350</v>
       </c>
       <c r="L161" s="2" t="inlineStr">
         <is>
-          <t>TULYAYEVA SHAXNOZA RAVSHANBEKOVNA</t>
+          <t>RAVSHANOV XASAN ELMURAT OGLI</t>
         </is>
       </c>
       <c r="M161" s="2" t="inlineStr">
         <is>
-          <t>AD6985389</t>
+          <t>AC0240184</t>
         </is>
       </c>
       <c r="N161" s="2" t="n">
-        <v>42909900500059</v>
+        <v>52807026860016</v>
       </c>
       <c r="O161" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419 29.04.2024</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB  18.11.2018</t>
         </is>
       </c>
       <c r="P161" s="2" t="inlineStr">
         <is>
-          <t>CHIRCHIQ SHAHAR 10 MIKRORAYON 51 UY 39 XONADON</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR 10 KICHIQ NOXIYA 45/24</t>
         </is>
       </c>
       <c r="Q161" s="2" t="n">
-        <v>998994935957</v>
+        <v>998917767269</v>
       </c>
       <c r="R161" s="2" t="inlineStr">
         <is>
@@ -11526,146 +11526,146 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>167</v>
-      </c>
-      <c r="B162" s="6" t="n">
-        <v>45661</v>
+        <v>168</v>
+      </c>
+      <c r="B162" s="3" t="n">
+        <v>45654</v>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>215</v>
+        <v>401</v>
       </c>
       <c r="F162" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G162" s="2" t="n">
-        <v>103.84</v>
+        <v>48.79</v>
       </c>
       <c r="H162" s="4" t="n">
-        <v>490731000</v>
+        <v>334099500</v>
       </c>
       <c r="I162" s="4" t="n">
-        <v>5550000</v>
+        <v>7050000</v>
       </c>
       <c r="J162" s="5" t="n">
-        <v>0.85</v>
+        <v>0.15</v>
       </c>
       <c r="K162" s="4" t="n">
-        <v>417121350</v>
+        <v>50114925</v>
       </c>
       <c r="L162" s="2" t="inlineStr">
         <is>
-          <t>RAVSHANOV XASAN ELMURAT OGLI</t>
+          <t>XUDAYOROVA QLARO OLIMOVNA</t>
         </is>
       </c>
       <c r="M162" s="2" t="inlineStr">
         <is>
-          <t>AC0240184</t>
+          <t>AD3284484</t>
         </is>
       </c>
       <c r="N162" s="2" t="n">
-        <v>52807026860016</v>
+        <v>41809703090074</v>
       </c>
       <c r="O162" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB  18.11.2018</t>
+          <t>IIV 27419 12.05.2023</t>
         </is>
       </c>
       <c r="P162" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR 10 KICHIQ NOXIYA 45/24</t>
+          <t>CHIRCHIQ SHAHAR BINOKOR 21 XONADON</t>
         </is>
       </c>
       <c r="Q162" s="2" t="n">
-        <v>998917767269</v>
+        <v>998990807494</v>
       </c>
       <c r="R162" s="2" t="inlineStr">
         <is>
-          <t>1 Отдел Продаж</t>
+          <t>2 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B163" s="3" t="n">
-        <v>45654</v>
+        <v>45662</v>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E163" s="2" t="n">
-        <v>401</v>
+        <v>343</v>
       </c>
       <c r="F163" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G163" s="2" t="n">
-        <v>48.79</v>
+        <v>69.38</v>
       </c>
       <c r="H163" s="4" t="n">
-        <v>334099500</v>
+        <v>466964500</v>
       </c>
       <c r="I163" s="4" t="n">
-        <v>7050000</v>
+        <v>6850000</v>
       </c>
       <c r="J163" s="5" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="K163" s="4" t="n">
-        <v>50114925</v>
+        <v>93392900</v>
       </c>
       <c r="L163" s="2" t="inlineStr">
         <is>
-          <t>XUDAYOROVA QLARO OLIMOVNA</t>
+          <t>JOROBAYEVA FERUZA ALIKULOVNA</t>
         </is>
       </c>
       <c r="M163" s="2" t="inlineStr">
         <is>
-          <t>AD3284484</t>
+          <t>AD7249243</t>
         </is>
       </c>
       <c r="N163" s="2" t="n">
-        <v>41809703090074</v>
+        <v>40503721140029</v>
       </c>
       <c r="O163" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419 12.05.2023</t>
+          <t>IIV 26296 22.05.2024</t>
         </is>
       </c>
       <c r="P163" s="2" t="inlineStr">
         <is>
-          <t>CHIRCHIQ SHAHAR BINOKOR 21 XONADON</t>
+          <t>TOSHKENT SHAHAR MIRZO-ULUGBEK FAROVON HAYOT KUCHASI 2A/74</t>
         </is>
       </c>
       <c r="Q163" s="2" t="n">
-        <v>998990807494</v>
+        <v>998909429337</v>
       </c>
       <c r="R163" s="2" t="inlineStr">
         <is>
-          <t>2 Отдел Продаж</t>
+          <t>1 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B164" s="3" t="n">
-        <v>45662</v>
+        <v>45663</v>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
@@ -11673,205 +11673,207 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E164" s="2" t="n">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="F164" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G164" s="2" t="n">
-        <v>69.38</v>
+        <v>66.03</v>
       </c>
       <c r="H164" s="4" t="n">
-        <v>466964500</v>
+        <v>389220000</v>
       </c>
       <c r="I164" s="4" t="n">
-        <v>6850000</v>
+        <v>6000000</v>
       </c>
       <c r="J164" s="5" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K164" s="4" t="n">
-        <v>93392900</v>
+        <v>116766000</v>
       </c>
       <c r="L164" s="2" t="inlineStr">
         <is>
-          <t>JOROBAYEVA FERUZA ALIKULOVNA</t>
+          <t>RAXMONBERDIYEVA MUKADDAS JUMAVOYEVNA</t>
         </is>
       </c>
       <c r="M164" s="2" t="inlineStr">
         <is>
-          <t>AD7249243</t>
+          <t>AD9808190</t>
         </is>
       </c>
       <c r="N164" s="2" t="n">
-        <v>40503721140029</v>
+        <v>42303800590040</v>
       </c>
       <c r="O164" s="2" t="inlineStr">
         <is>
-          <t>IIV 26296 22.05.2024</t>
+          <t>IIV 27256 13.12.24</t>
         </is>
       </c>
       <c r="P164" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR MIRZO-ULUGBEK FAROVON HAYOT KUCHASI 2A/74</t>
+          <t>TOSHKENT VILOYATI CHINOZ TUMANI YANGI CHINOZ DO`STLIK KO`CHASI 31-UY</t>
         </is>
       </c>
       <c r="Q164" s="2" t="n">
-        <v>998909429337</v>
+        <v>79999242102</v>
       </c>
       <c r="R164" s="2" t="inlineStr">
         <is>
-          <t>1 Отдел Продаж</t>
+          <t>2 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B165" s="3" t="n">
-        <v>45663</v>
+        <v>45674</v>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E165" s="2" t="n">
-        <v>370</v>
+        <v>439</v>
       </c>
       <c r="F165" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G165" s="2" t="n">
-        <v>66.03</v>
+        <v>40.8</v>
       </c>
       <c r="H165" s="4" t="n">
-        <v>389220000</v>
+        <v>260864000</v>
       </c>
       <c r="I165" s="4" t="n">
-        <v>6000000</v>
+        <v>6400000</v>
       </c>
       <c r="J165" s="5" t="n">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="K165" s="4" t="n">
-        <v>116766000</v>
+        <v>60129152</v>
       </c>
       <c r="L165" s="2" t="inlineStr">
         <is>
-          <t>RAXMONBERDIYEVA MUKADDAS JUMAVOYEVNA</t>
+          <t>BISENOVA KAMOLA SABURJAN QIZI</t>
         </is>
       </c>
       <c r="M165" s="2" t="inlineStr">
         <is>
-          <t>AD9808190</t>
+          <t>KA1305223</t>
         </is>
       </c>
       <c r="N165" s="2" t="n">
-        <v>42303800590040</v>
+        <v>617100073500914</v>
       </c>
       <c r="O165" s="2" t="inlineStr">
         <is>
-          <t>IIV 27256 13.12.24</t>
+          <t>QORAQALPOGISTON RESPUBLIKASI BERUNIY SHIIB</t>
         </is>
       </c>
       <c r="P165" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHINOZ TUMANI YANGI CHINOZ DO`STLIK KO`CHASI 31-UY</t>
-        </is>
-      </c>
-      <c r="Q165" s="2" t="n">
-        <v>79999242102</v>
+          <t>QORAQALPOGISTON RESPUBLIKASI BERUNIY TUMANI NIZOMIY-15</t>
+        </is>
+      </c>
+      <c r="Q165" s="2" t="inlineStr">
+        <is>
+          <t>998950047292    998952182894</t>
+        </is>
       </c>
       <c r="R165" s="2" t="inlineStr">
         <is>
-          <t>2 Отдел Продаж</t>
+          <t>1 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B166" s="3" t="n">
-        <v>45674</v>
+        <v>45676</v>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>В</t>
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>439</v>
+        <v>197</v>
       </c>
       <c r="F166" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G166" s="2" t="n">
-        <v>40.8</v>
+        <v>109.84</v>
       </c>
       <c r="H166" s="4" t="n">
-        <v>260864000</v>
+        <v>632672000</v>
       </c>
       <c r="I166" s="4" t="n">
-        <v>6400000</v>
+        <v>6800000</v>
       </c>
       <c r="J166" s="5" t="n">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
       <c r="K166" s="4" t="n">
-        <v>60129152</v>
+        <v>200019253</v>
       </c>
       <c r="L166" s="2" t="inlineStr">
         <is>
-          <t>BISENOVA KAMOLA SABURJAN QIZI</t>
+          <t>KENJAYEVA GULXAYO SHOKIROVNA</t>
         </is>
       </c>
       <c r="M166" s="2" t="inlineStr">
         <is>
-          <t>KA1305223</t>
+          <t>AB8137018</t>
         </is>
       </c>
       <c r="N166" s="2" t="n">
-        <v>617100073500914</v>
+        <v>41104910840037</v>
       </c>
       <c r="O166" s="2" t="inlineStr">
         <is>
-          <t>QORAQALPOGISTON RESPUBLIKASI BERUNIY SHIIB</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB 20.11.2017</t>
         </is>
       </c>
       <c r="P166" s="2" t="inlineStr">
         <is>
-          <t>QORAQALPOGISTON RESPUBLIKASI BERUNIY TUMANI NIZOMIY-15</t>
+          <t>CHIRCHIQ SHAHAR IBN SINO 18a-UY 15- XONADON</t>
         </is>
       </c>
       <c r="Q166" s="2" t="inlineStr">
         <is>
-          <t>998950047292    998952182894</t>
+          <t>998900299000 998977772896</t>
         </is>
       </c>
       <c r="R166" s="2" t="inlineStr">
         <is>
-          <t>1 Отдел Продаж</t>
+          <t>2 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B167" s="3" t="n">
-        <v>45676</v>
+        <v>45677</v>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
@@ -11879,69 +11881,69 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E167" s="2" t="n">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F167" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G167" s="2" t="n">
-        <v>109.84</v>
+        <v>103.84</v>
       </c>
       <c r="H167" s="4" t="n">
-        <v>632672000</v>
+        <v>651280000</v>
       </c>
       <c r="I167" s="4" t="n">
-        <v>6800000</v>
+        <v>7000000</v>
       </c>
       <c r="J167" s="5" t="n">
-        <v>0.32</v>
+        <v>0.19</v>
       </c>
       <c r="K167" s="4" t="n">
-        <v>200019253</v>
+        <v>120486800</v>
       </c>
       <c r="L167" s="2" t="inlineStr">
         <is>
-          <t>KENJAYEVA GULXAYO SHOKIROVNA</t>
+          <t>ABDUKARIMOV MUXAMMADJON RAXIMJON OGLI</t>
         </is>
       </c>
       <c r="M167" s="2" t="inlineStr">
         <is>
-          <t>AB8137018</t>
+          <t>AB7779545</t>
         </is>
       </c>
       <c r="N167" s="2" t="n">
-        <v>41104910840037</v>
+        <v>317109350900132</v>
       </c>
       <c r="O167" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB 20.11.2017</t>
+          <t>ANDIJON VILOYATI ULUGNOR TUMANI IIB</t>
         </is>
       </c>
       <c r="P167" s="2" t="inlineStr">
         <is>
-          <t>CHIRCHIQ SHAHAR IBN SINO 18a-UY 15- XONADON</t>
+          <t>ANDIJON VILOYATI YANGIOBOD MFY KAMON KOCHASI 37-UY</t>
         </is>
       </c>
       <c r="Q167" s="2" t="inlineStr">
         <is>
-          <t>998900299000 998977772896</t>
+          <t>998972744036   998935374911</t>
         </is>
       </c>
       <c r="R167" s="2" t="inlineStr">
         <is>
-          <t>2 Отдел Продаж</t>
+          <t>1 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B168" s="3" t="n">
-        <v>45677</v>
+        <v>45681</v>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
@@ -11949,55 +11951,55 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F168" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G168" s="2" t="n">
-        <v>103.84</v>
+        <v>75.98</v>
       </c>
       <c r="H168" s="4" t="n">
-        <v>651280000</v>
+        <v>535659000</v>
       </c>
       <c r="I168" s="4" t="n">
-        <v>7000000</v>
+        <v>7050000</v>
       </c>
       <c r="J168" s="5" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="K168" s="4" t="n">
-        <v>120486800</v>
+        <v>170071733</v>
       </c>
       <c r="L168" s="2" t="inlineStr">
         <is>
-          <t>ABDUKARIMOV MUXAMMADJON RAXIMJON OGLI</t>
+          <t>TURDIYEVA YULDUZ AKBAR QIZI</t>
         </is>
       </c>
       <c r="M168" s="2" t="inlineStr">
         <is>
-          <t>AB7779545</t>
+          <t>AB0572706</t>
         </is>
       </c>
       <c r="N168" s="2" t="n">
-        <v>317109350900132</v>
+        <v>411049304700450</v>
       </c>
       <c r="O168" s="2" t="inlineStr">
         <is>
-          <t>ANDIJON VILOYATI ULUGNOR TUMANI IIB</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
         </is>
       </c>
       <c r="P168" s="2" t="inlineStr">
         <is>
-          <t>ANDIJON VILOYATI YANGIOBOD MFY KAMON KOCHASI 37-UY</t>
+          <t>1-МКР 19-УЙ 61-ХОНАДОН</t>
         </is>
       </c>
       <c r="Q168" s="2" t="inlineStr">
         <is>
-          <t>998972744036   998935374911</t>
+          <t>998909425900  998917764884</t>
         </is>
       </c>
       <c r="R168" s="2" t="inlineStr">
@@ -12008,109 +12010,105 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B169" s="3" t="n">
         <v>45681</v>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>Б</t>
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E169" s="2" t="n">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="F169" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G169" s="2" t="n">
-        <v>75.98</v>
+        <v>55.1</v>
       </c>
       <c r="H169" s="4" t="n">
-        <v>535659000</v>
+        <v>363660000</v>
       </c>
       <c r="I169" s="4" t="n">
-        <v>7050000</v>
+        <v>6600000</v>
       </c>
       <c r="J169" s="5" t="n">
-        <v>0.32</v>
+        <v>1</v>
       </c>
       <c r="K169" s="4" t="n">
-        <v>170071733</v>
+        <v>363660000</v>
       </c>
       <c r="L169" s="2" t="inlineStr">
         <is>
-          <t>TURDIYEVA YULDUZ AKBAR QIZI</t>
+          <t>QILICHEV JANIBEK SHERALIYEVICH</t>
         </is>
       </c>
       <c r="M169" s="2" t="inlineStr">
         <is>
-          <t>AB0572706</t>
+          <t>AE1287629</t>
         </is>
       </c>
       <c r="N169" s="2" t="n">
-        <v>411049304700450</v>
+        <v>32001922700068</v>
       </c>
       <c r="O169" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
+          <t>IIV26263 19/01/2035</t>
         </is>
       </c>
       <c r="P169" s="2" t="inlineStr">
         <is>
-          <t>1-МКР 19-УЙ 61-ХОНАДОН</t>
-        </is>
-      </c>
-      <c r="Q169" s="2" t="inlineStr">
-        <is>
-          <t>998909425900  998917764884</t>
-        </is>
+          <t>QASHQADARYO VILOYATI CHIROQCHI TUMANI QUMDARYO FUQORO YEGINI</t>
+        </is>
+      </c>
+      <c r="Q169" s="2" t="n">
+        <v>998901273111</v>
       </c>
       <c r="R169" s="2" t="inlineStr">
         <is>
-          <t>1 Отдел Продаж</t>
+          <t>Руоводство</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B170" s="3" t="n">
         <v>45681</v>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>105</v>
-      </c>
-      <c r="F170" s="2" t="n">
-        <v>2</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="F170" s="2" t="n"/>
       <c r="G170" s="2" t="n">
-        <v>55.1</v>
+        <v>54.27</v>
       </c>
       <c r="H170" s="4" t="n">
-        <v>363660000</v>
+        <v>596970000</v>
       </c>
       <c r="I170" s="4" t="n">
-        <v>6600000</v>
+        <v>11000000</v>
       </c>
       <c r="J170" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K170" s="4" t="n">
-        <v>363660000</v>
+        <v>596970000</v>
       </c>
       <c r="L170" s="2" t="inlineStr">
         <is>
@@ -12146,197 +12144,199 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B171" s="3" t="n">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="F171" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G171" s="2" t="n">
+        <v>103.84</v>
+      </c>
+      <c r="H171" s="4" t="n">
+        <v>502416000</v>
+      </c>
+      <c r="I171" s="4" t="n">
+        <v>5400000</v>
+      </c>
+      <c r="J171" s="5" t="n"/>
+      <c r="K171" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" s="2" t="inlineStr">
+        <is>
+          <t>ANVAROVA KAMILA ANVAROVNA</t>
+        </is>
+      </c>
+      <c r="M171" s="2" t="inlineStr">
+        <is>
+          <t>AD5916027</t>
+        </is>
+      </c>
+      <c r="N171" s="2" t="n">
+        <v>42803893820058</v>
+      </c>
+      <c r="O171" s="2" t="inlineStr">
+        <is>
+          <t>IIV 27419 26/01/2024</t>
+        </is>
+      </c>
+      <c r="P171" s="2" t="inlineStr">
+        <is>
+          <t>SAMARQAND VILOYATI SAMARQAND  SHAHAR BEKLAR MAHALLASI ADILOVA KO`CHASI 12-UY</t>
+        </is>
+      </c>
+      <c r="Q171" s="2" t="n">
+        <v>998945364648</v>
+      </c>
+      <c r="R171" s="2" t="inlineStr">
+        <is>
+          <t>Руоводство</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B172" s="3" t="n">
+        <v>45686</v>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>Г</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>275</v>
+      </c>
+      <c r="F172" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G172" s="2" t="n">
+        <v>56.23</v>
+      </c>
+      <c r="H172" s="4" t="n">
+        <v>379552500</v>
+      </c>
+      <c r="I172" s="4" t="n">
+        <v>6750000</v>
+      </c>
+      <c r="J172" s="5" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="K172" s="4" t="n">
+        <v>160171155</v>
+      </c>
+      <c r="L172" s="2" t="inlineStr">
+        <is>
+          <t>JUMAYEVA MADINA MURODOVNA</t>
+        </is>
+      </c>
+      <c r="M172" s="2" t="inlineStr">
+        <is>
+          <t>AD8968811</t>
+        </is>
+      </c>
+      <c r="N172" s="2" t="n">
+        <v>42303802630090</v>
+      </c>
+      <c r="O172" s="2" t="inlineStr">
+        <is>
+          <t>IIV 10229 11.10.2024</t>
+        </is>
+      </c>
+      <c r="P172" s="2" t="inlineStr">
+        <is>
+          <t>TOSHKENT SHAHAR YANGIHAYOT TUMANI GULSHABOD MFY 9 SRTROITRLNAYA TERITORIYA 10 UY 71 XONADON</t>
+        </is>
+      </c>
+      <c r="Q172" s="2" t="n">
+        <v>998975452380</v>
+      </c>
+      <c r="R172" s="2" t="inlineStr">
+        <is>
+          <t>2 Отдел Продаж</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B173" s="3" t="n">
+        <v>45689</v>
+      </c>
+      <c r="C173" s="2" t="inlineStr">
+        <is>
           <t>Д</t>
         </is>
       </c>
-      <c r="D171" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E171" s="2" t="n">
-        <v>308</v>
-      </c>
-      <c r="F171" s="2" t="n"/>
-      <c r="G171" s="2" t="n">
-        <v>54.27</v>
-      </c>
-      <c r="H171" s="4" t="n">
-        <v>596970000</v>
-      </c>
-      <c r="I171" s="4" t="n">
-        <v>11000000</v>
-      </c>
-      <c r="J171" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K171" s="4" t="n">
-        <v>596970000</v>
-      </c>
-      <c r="L171" s="2" t="inlineStr">
-        <is>
-          <t>QILICHEV JANIBEK SHERALIYEVICH</t>
-        </is>
-      </c>
-      <c r="M171" s="2" t="inlineStr">
-        <is>
-          <t>AE1287629</t>
-        </is>
-      </c>
-      <c r="N171" s="2" t="n">
-        <v>32001922700068</v>
-      </c>
-      <c r="O171" s="2" t="inlineStr">
-        <is>
-          <t>IIV26263 19/01/2035</t>
-        </is>
-      </c>
-      <c r="P171" s="2" t="inlineStr">
-        <is>
-          <t>QASHQADARYO VILOYATI CHIROQCHI TUMANI QUMDARYO FUQORO YEGINI</t>
-        </is>
-      </c>
-      <c r="Q171" s="2" t="n">
-        <v>998901273111</v>
-      </c>
-      <c r="R171" s="2" t="inlineStr">
-        <is>
-          <t>Руоводство</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
-        <v>177</v>
-      </c>
-      <c r="B172" s="3" t="n">
-        <v>45684</v>
-      </c>
-      <c r="C172" s="2" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="D172" s="2" t="n">
+      <c r="D173" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E172" s="2" t="n">
-        <v>227</v>
-      </c>
-      <c r="F172" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G172" s="2" t="n">
-        <v>103.84</v>
-      </c>
-      <c r="H172" s="4" t="n">
-        <v>502416000</v>
-      </c>
-      <c r="I172" s="4" t="n">
-        <v>5400000</v>
-      </c>
-      <c r="J172" s="5" t="n"/>
-      <c r="K172" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L172" s="2" t="inlineStr">
-        <is>
-          <t>ANVAROVA KAMILA ANVAROVNA</t>
-        </is>
-      </c>
-      <c r="M172" s="2" t="inlineStr">
-        <is>
-          <t>AD5916027</t>
-        </is>
-      </c>
-      <c r="N172" s="2" t="n">
-        <v>42803893820058</v>
-      </c>
-      <c r="O172" s="2" t="inlineStr">
-        <is>
-          <t>IIV 27419 26/01/2024</t>
-        </is>
-      </c>
-      <c r="P172" s="2" t="inlineStr">
-        <is>
-          <t>SAMARQAND VILOYATI SAMARQAND  SHAHAR BEKLAR MAHALLASI ADILOVA KO`CHASI 12-UY</t>
-        </is>
-      </c>
-      <c r="Q172" s="2" t="n">
-        <v>998945364648</v>
-      </c>
-      <c r="R172" s="2" t="inlineStr">
-        <is>
-          <t>Руоводство</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B173" s="3" t="n">
-        <v>45686</v>
-      </c>
-      <c r="C173" s="2" t="inlineStr">
-        <is>
-          <t>Г</t>
-        </is>
-      </c>
-      <c r="D173" s="2" t="n">
-        <v>7</v>
-      </c>
       <c r="E173" s="2" t="n">
-        <v>275</v>
+        <v>371</v>
       </c>
       <c r="F173" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G173" s="2" t="n">
-        <v>56.23</v>
+        <v>65.38</v>
       </c>
       <c r="H173" s="4" t="n">
-        <v>379552500</v>
+        <v>405356000</v>
       </c>
       <c r="I173" s="4" t="n">
-        <v>6750000</v>
+        <v>6200000</v>
       </c>
       <c r="J173" s="5" t="n">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="K173" s="4" t="n">
-        <v>160171155</v>
+        <v>100001325</v>
       </c>
       <c r="L173" s="2" t="inlineStr">
         <is>
-          <t>JUMAYEVA MADINA MURODOVNA</t>
+          <t>AKRAMOV AKMAL SHUXRATOVICH</t>
         </is>
       </c>
       <c r="M173" s="2" t="inlineStr">
         <is>
-          <t>AD8968811</t>
+          <t>AD3739308</t>
         </is>
       </c>
       <c r="N173" s="2" t="n">
-        <v>42303802630090</v>
+        <v>31409880470033</v>
       </c>
       <c r="O173" s="2" t="inlineStr">
         <is>
-          <t>IIV 10229 11.10.2024</t>
+          <t>IIV 27419 22.06.2023</t>
         </is>
       </c>
       <c r="P173" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR YANGIHAYOT TUMANI GULSHABOD MFY 9 SRTROITRLNAYA TERITORIYA 10 UY 71 XONADON</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR XAMZA M.F.Y ZAKOVAT KO`CHASI 8-1-2 XONADON</t>
         </is>
       </c>
       <c r="Q173" s="2" t="n">
-        <v>998975452380</v>
+        <v>998993866446</v>
       </c>
       <c r="R173" s="2" t="inlineStr">
         <is>
@@ -12345,202 +12345,202 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
-        <v>179</v>
+      <c r="A174" s="1" t="n">
+        <v>180</v>
       </c>
       <c r="B174" s="3" t="n">
-        <v>45689</v>
+        <v>45691</v>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Г</t>
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="F174" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G174" s="2" t="n">
-        <v>65.38</v>
+        <v>75.98</v>
       </c>
       <c r="H174" s="4" t="n">
-        <v>405356000</v>
+        <v>440684000</v>
       </c>
       <c r="I174" s="4" t="n">
-        <v>6200000</v>
+        <v>5800000</v>
       </c>
       <c r="J174" s="5" t="n">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
       <c r="K174" s="4" t="n">
-        <v>100001325</v>
+        <v>180239756</v>
       </c>
       <c r="L174" s="2" t="inlineStr">
         <is>
-          <t>AKRAMOV AKMAL SHUXRATOVICH</t>
+          <t>NURTAYEVA JANONA ABSAMATOVNA</t>
         </is>
       </c>
       <c r="M174" s="2" t="inlineStr">
         <is>
-          <t>AD3739308</t>
+          <t>AA9634225</t>
         </is>
       </c>
       <c r="N174" s="2" t="n">
-        <v>31409880470033</v>
+        <v>401038405001796</v>
       </c>
       <c r="O174" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419 22.06.2023</t>
+          <t>TOSHKENT VILOYATI BOSTONLIQ TUMANI</t>
         </is>
       </c>
       <c r="P174" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR XAMZA M.F.Y ZAKOVAT KO`CHASI 8-1-2 XONADON</t>
+          <t>CHIRCHIQ SHAHAR FAYZILLO XODJAEV  -1A 26 XONADON</t>
         </is>
       </c>
       <c r="Q174" s="2" t="n">
-        <v>998993866446</v>
+        <v>998901373784</v>
       </c>
       <c r="R174" s="2" t="inlineStr">
         <is>
-          <t>2 Отдел Продаж</t>
+          <t>Руоводство</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>180</v>
+      <c r="A175" s="2" t="n">
+        <v>181</v>
       </c>
       <c r="B175" s="3" t="n">
-        <v>45691</v>
+        <v>45694</v>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>Г</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" s="2" t="n">
-        <v>284</v>
+        <v>364</v>
       </c>
       <c r="F175" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G175" s="2" t="n">
-        <v>75.98</v>
+        <v>66.03</v>
       </c>
       <c r="H175" s="4" t="n">
-        <v>440684000</v>
+        <v>422592000</v>
       </c>
       <c r="I175" s="4" t="n">
-        <v>5800000</v>
+        <v>6400000</v>
       </c>
       <c r="J175" s="5" t="n">
-        <v>0.41</v>
+        <v>0.3</v>
       </c>
       <c r="K175" s="4" t="n">
-        <v>180239756</v>
+        <v>126777600</v>
       </c>
       <c r="L175" s="2" t="inlineStr">
         <is>
-          <t>NURTAYEVA JANONA ABSAMATOVNA</t>
+          <t>MANAPOVA MUXAYO MIRSAIDOVNA</t>
         </is>
       </c>
       <c r="M175" s="2" t="inlineStr">
         <is>
-          <t>AA9634225</t>
+          <t>AD7417106</t>
         </is>
       </c>
       <c r="N175" s="2" t="n">
-        <v>401038405001796</v>
+        <v>43007900270402</v>
       </c>
       <c r="O175" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI BOSTONLIQ TUMANI</t>
+          <t>IIV27419  06/06/2024</t>
         </is>
       </c>
       <c r="P175" s="2" t="inlineStr">
         <is>
-          <t>CHIRCHIQ SHAHAR FAYZILLO XODJAEV  -1A 26 XONADON</t>
+          <t>CHIRCHIQ SHAHAR AMIR TEMUR 68/38</t>
         </is>
       </c>
       <c r="Q175" s="2" t="n">
-        <v>998901373784</v>
+        <v>998972742072</v>
       </c>
       <c r="R175" s="2" t="inlineStr">
         <is>
-          <t>Руоводство</t>
+          <t>1 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B176" s="3" t="n">
         <v>45694</v>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>В</t>
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>364</v>
+        <v>202</v>
       </c>
       <c r="F176" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G176" s="2" t="n">
-        <v>66.03</v>
+        <v>75.98</v>
       </c>
       <c r="H176" s="4" t="n">
-        <v>422592000</v>
+        <v>524262000</v>
       </c>
       <c r="I176" s="4" t="n">
-        <v>6400000</v>
+        <v>6900000</v>
       </c>
       <c r="J176" s="5" t="n">
-        <v>0.3</v>
+        <v>0.19</v>
       </c>
       <c r="K176" s="4" t="n">
-        <v>126777600</v>
+        <v>101706828</v>
       </c>
       <c r="L176" s="2" t="inlineStr">
         <is>
-          <t>MANAPOVA MUXAYO MIRSAIDOVNA</t>
+          <t>RAJABOV ISMOIL TUROBOVICH</t>
         </is>
       </c>
       <c r="M176" s="2" t="inlineStr">
         <is>
-          <t>AD7417106</t>
+          <t>AB7698713</t>
         </is>
       </c>
       <c r="N176" s="2" t="n">
-        <v>43007900270402</v>
+        <v>30202621090043</v>
       </c>
       <c r="O176" s="2" t="inlineStr">
         <is>
-          <t>IIV27419  06/06/2024</t>
+          <t>BUXORO VILOYATI PESHKO TUMANI IIB</t>
         </is>
       </c>
       <c r="P176" s="2" t="inlineStr">
         <is>
-          <t>CHIRCHIQ SHAHAR AMIR TEMUR 68/38</t>
+          <t>BUXORO VILOYATI PESHKO TUMANI CHIBOGONI MFY DEGDAVON 196 XONADON</t>
         </is>
       </c>
       <c r="Q176" s="2" t="n">
-        <v>998972742072</v>
+        <v>998916477747</v>
       </c>
       <c r="R176" s="2" t="inlineStr">
         <is>
@@ -12550,75 +12550,75 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B177" s="3" t="n">
-        <v>45694</v>
+        <v>45696</v>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E177" s="2" t="n">
-        <v>202</v>
+        <v>375</v>
       </c>
       <c r="F177" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G177" s="2" t="n">
-        <v>75.98</v>
+        <v>41.75</v>
       </c>
       <c r="H177" s="4" t="n">
-        <v>524262000</v>
+        <v>248412500</v>
       </c>
       <c r="I177" s="4" t="n">
-        <v>6900000</v>
+        <v>5950000</v>
       </c>
       <c r="J177" s="5" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="K177" s="4" t="n">
-        <v>101706828</v>
+        <v>60000000</v>
       </c>
       <c r="L177" s="2" t="inlineStr">
         <is>
-          <t>RAJABOV ISMOIL TUROBOVICH</t>
+          <t>SAGDIYEV DAVRONBEK MIXRIDDIN O`G`LI</t>
         </is>
       </c>
       <c r="M177" s="2" t="inlineStr">
         <is>
-          <t>AB7698713</t>
+          <t>AB387818</t>
         </is>
       </c>
       <c r="N177" s="2" t="n">
-        <v>30202621090043</v>
+        <v>32405950500050</v>
       </c>
       <c r="O177" s="2" t="inlineStr">
         <is>
-          <t>BUXORO VILOYATI PESHKO TUMANI IIB</t>
+          <t>TOSHKENT VILOYATI BO`STONLIQ TUMANI IIB</t>
         </is>
       </c>
       <c r="P177" s="2" t="inlineStr">
         <is>
-          <t>BUXORO VILOYATI PESHKO TUMANI CHIBOGONI MFY DEGDAVON 196 XONADON</t>
+          <t>BO`STONLIQ TUMANI HONDAYLIQ QISHLOG`I ZIYOKORLAR 142-XONADON</t>
         </is>
       </c>
       <c r="Q177" s="2" t="n">
-        <v>998916477747</v>
+        <v>998944273264</v>
       </c>
       <c r="R177" s="2" t="inlineStr">
         <is>
-          <t>1 Отдел Продаж</t>
+          <t>2 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B178" s="3" t="n">
         <v>45696</v>
@@ -12629,135 +12629,135 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F178" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G178" s="2" t="n">
-        <v>41.75</v>
+        <v>66.03</v>
       </c>
       <c r="H178" s="4" t="n">
-        <v>248412500</v>
+        <v>435798000</v>
       </c>
       <c r="I178" s="4" t="n">
-        <v>5950000</v>
+        <v>6600000</v>
       </c>
       <c r="J178" s="5" t="n">
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
       <c r="K178" s="4" t="n">
-        <v>60000000</v>
+        <v>152529300</v>
       </c>
       <c r="L178" s="2" t="inlineStr">
         <is>
-          <t>SAGDIYEV DAVRONBEK MIXRIDDIN O`G`LI</t>
+          <t>JALILOV JORABEK MADAMINOVICH</t>
         </is>
       </c>
       <c r="M178" s="2" t="inlineStr">
         <is>
-          <t>AB387818</t>
+          <t>AB4297092</t>
         </is>
       </c>
       <c r="N178" s="2" t="n">
-        <v>32405950500050</v>
+        <v>316098171000350</v>
       </c>
       <c r="O178" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI BO`STONLIQ TUMANI IIB</t>
+          <t>XORAZIM VILOYATI BOGOT TUMANI IIB</t>
         </is>
       </c>
       <c r="P178" s="2" t="inlineStr">
         <is>
-          <t>BO`STONLIQ TUMANI HONDAYLIQ QISHLOG`I ZIYOKORLAR 142-XONADON</t>
+          <t>CHIRCHIQ SHAHAR AVIR TEMUR KOCHASI 38/40</t>
         </is>
       </c>
       <c r="Q178" s="2" t="n">
-        <v>998944273264</v>
+        <v>998976169381</v>
       </c>
       <c r="R178" s="2" t="inlineStr">
         <is>
-          <t>2 Отдел Продаж</t>
+          <t>1 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B179" s="3" t="n">
+        <v>45710</v>
+      </c>
+      <c r="C179" s="2" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E179" s="2" t="n">
         <v>184</v>
-      </c>
-      <c r="B179" s="3" t="n">
-        <v>45696</v>
-      </c>
-      <c r="C179" s="2" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="D179" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E179" s="2" t="n">
-        <v>358</v>
       </c>
       <c r="F179" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G179" s="2" t="n">
-        <v>66.03</v>
+        <v>75.98</v>
       </c>
       <c r="H179" s="4" t="n">
-        <v>435798000</v>
+        <v>520463000</v>
       </c>
       <c r="I179" s="4" t="n">
-        <v>6600000</v>
+        <v>6850000</v>
       </c>
       <c r="J179" s="5" t="n">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="K179" s="4" t="n">
-        <v>152529300</v>
+        <v>520463000</v>
       </c>
       <c r="L179" s="2" t="inlineStr">
         <is>
-          <t>JALILOV JORABEK MADAMINOVICH</t>
+          <t>ABDUVALIYEVNA MUNIRA TURSUNKULOVNA</t>
         </is>
       </c>
       <c r="M179" s="2" t="inlineStr">
         <is>
-          <t>AB4297092</t>
+          <t>AC0049909</t>
         </is>
       </c>
       <c r="N179" s="2" t="n">
-        <v>316098171000350</v>
+        <v>426016405000196</v>
       </c>
       <c r="O179" s="2" t="inlineStr">
         <is>
-          <t>XORAZIM VILOYATI BOGOT TUMANI IIB</t>
+          <t>TOSHKENT VILOYATI BOSTONLIQ NUMANI IIB 29,06,2028</t>
         </is>
       </c>
       <c r="P179" s="2" t="inlineStr">
         <is>
-          <t>CHIRCHIQ SHAHAR AVIR TEMUR KOCHASI 38/40</t>
+          <t>TOSHKENT VILOYATI BOSTONLIQ TUMANI JASORAT -67</t>
         </is>
       </c>
       <c r="Q179" s="2" t="n">
-        <v>998976169381</v>
+        <v>998917757574</v>
       </c>
       <c r="R179" s="2" t="inlineStr">
         <is>
-          <t>1 Отдел Продаж</t>
+          <t>Руоводство</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B180" s="3" t="n">
-        <v>45710</v>
+        <v>45699</v>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
@@ -12765,194 +12765,194 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F180" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G180" s="2" t="n">
-        <v>75.98</v>
+        <v>40.04</v>
       </c>
       <c r="H180" s="4" t="n">
-        <v>520463000</v>
+        <v>290290000</v>
       </c>
       <c r="I180" s="4" t="n">
-        <v>6850000</v>
+        <v>7250000</v>
       </c>
       <c r="J180" s="5" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K180" s="4" t="n">
-        <v>520463000</v>
+        <v>87087000</v>
       </c>
       <c r="L180" s="2" t="inlineStr">
         <is>
-          <t>ABDUVALIYEVNA MUNIRA TURSUNKULOVNA</t>
+          <t>TOG`AYEV BERDIRASUL QUNGIROVICH</t>
         </is>
       </c>
       <c r="M180" s="2" t="inlineStr">
         <is>
-          <t>AC0049909</t>
+          <t>AE1580885</t>
         </is>
       </c>
       <c r="N180" s="2" t="n">
-        <v>426016405000196</v>
+        <v>32710702700018</v>
       </c>
       <c r="O180" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI BOSTONLIQ NUMANI IIB 29,06,2028</t>
+          <t>IIV 27419 11.02.2025</t>
         </is>
       </c>
       <c r="P180" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI BOSTONLIQ TUMANI JASORAT -67</t>
-        </is>
-      </c>
-      <c r="Q180" s="2" t="n">
-        <v>998917757574</v>
+          <t>QASHQADARYO VILOYATI CHIROQCHI TUMANI SOXIBKOR JAMOA XO`JALIGI YANGIOBOD MAHALLASI 97-XONADON</t>
+        </is>
+      </c>
+      <c r="Q180" s="2" t="inlineStr">
+        <is>
+          <t>998931289371/919623313</t>
+        </is>
       </c>
       <c r="R180" s="2" t="inlineStr">
         <is>
-          <t>Руоводство</t>
+          <t>2 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B181" s="3" t="n">
-        <v>45699</v>
+        <v>45704</v>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>192</v>
+        <v>337</v>
       </c>
       <c r="F181" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G181" s="2" t="n">
-        <v>40.04</v>
+        <v>69.38</v>
       </c>
       <c r="H181" s="4" t="n">
-        <v>290290000</v>
+        <v>499536000</v>
       </c>
       <c r="I181" s="4" t="n">
-        <v>7250000</v>
+        <v>7200000</v>
       </c>
       <c r="J181" s="5" t="n">
         <v>0.3</v>
       </c>
       <c r="K181" s="4" t="n">
-        <v>87087000</v>
+        <v>149860800</v>
       </c>
       <c r="L181" s="2" t="inlineStr">
         <is>
-          <t>TOG`AYEV BERDIRASUL QUNGIROVICH</t>
+          <t>NURIDDINOV SHERZAD TASHPULATOVICH</t>
         </is>
       </c>
       <c r="M181" s="2" t="inlineStr">
         <is>
-          <t>AE1580885</t>
+          <t>AD5057213</t>
         </is>
       </c>
       <c r="N181" s="2" t="n">
-        <v>32710702700018</v>
+        <v>32406830470032</v>
       </c>
       <c r="O181" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419 11.02.2025</t>
+          <t>IIV27419  07/11/2023</t>
         </is>
       </c>
       <c r="P181" s="2" t="inlineStr">
         <is>
-          <t>QASHQADARYO VILOYATI CHIROQCHI TUMANI SOXIBKOR JAMOA XO`JALIGI YANGIOBOD MAHALLASI 97-XONADON</t>
+          <t>CHIRCHIQ SHAHAR CHOLPON 49 UY</t>
         </is>
       </c>
       <c r="Q181" s="2" t="inlineStr">
         <is>
-          <t>998931289371/919623313</t>
+          <t>998994000083  998994348255</t>
         </is>
       </c>
       <c r="R181" s="2" t="inlineStr">
         <is>
-          <t>2 Отдел Продаж</t>
+          <t>1 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B182" s="3" t="n">
-        <v>45704</v>
+        <v>45708</v>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>В</t>
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>337</v>
+        <v>209</v>
       </c>
       <c r="F182" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G182" s="2" t="n">
-        <v>69.38</v>
+        <v>103.84</v>
       </c>
       <c r="H182" s="4" t="n">
-        <v>499536000</v>
+        <v>632672000</v>
       </c>
       <c r="I182" s="4" t="n">
-        <v>7200000</v>
+        <v>6800000</v>
       </c>
       <c r="J182" s="5" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="K182" s="4" t="n">
-        <v>149860800</v>
+        <v>140003987</v>
       </c>
       <c r="L182" s="2" t="inlineStr">
         <is>
-          <t>NURIDDINOV SHERZAD TASHPULATOVICH</t>
+          <t>SINGATULINA IRINA VASILEVNA</t>
         </is>
       </c>
       <c r="M182" s="2" t="inlineStr">
         <is>
-          <t>AD5057213</t>
+          <t>AD7468392</t>
         </is>
       </c>
       <c r="N182" s="2" t="n">
-        <v>32406830470032</v>
+        <v>40206620181231</v>
       </c>
       <c r="O182" s="2" t="inlineStr">
         <is>
-          <t>IIV27419  07/11/2023</t>
+          <t>IIV26264 12/06/2024</t>
         </is>
       </c>
       <c r="P182" s="2" t="inlineStr">
         <is>
-          <t>CHIRCHIQ SHAHAR CHOLPON 49 UY</t>
-        </is>
-      </c>
-      <c r="Q182" s="2" t="inlineStr">
-        <is>
-          <t>998994000083  998994348255</t>
-        </is>
+          <t>TOSHKENT SHAHAR BEKTEMIR TUMANI OLTIN TOPGAN KOCHASI 15-UY 3-XONADON</t>
+        </is>
+      </c>
+      <c r="Q182" s="2" t="n">
+        <v>998335029757</v>
       </c>
       <c r="R182" s="2" t="inlineStr">
         <is>
@@ -12962,65 +12962,65 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B183" s="3" t="n">
-        <v>45708</v>
+        <v>45705</v>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E183" s="2" t="n">
-        <v>209</v>
+        <v>65</v>
       </c>
       <c r="F183" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G183" s="2" t="n">
-        <v>103.84</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="H183" s="4" t="n">
-        <v>632672000</v>
+        <v>444416000</v>
       </c>
       <c r="I183" s="4" t="n">
-        <v>6800000</v>
+        <v>6400000</v>
       </c>
       <c r="J183" s="5" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="K183" s="4" t="n">
-        <v>140003987</v>
+        <v>130213888</v>
       </c>
       <c r="L183" s="2" t="inlineStr">
         <is>
-          <t>SINGATULINA IRINA VASILEVNA</t>
+          <t>URAZMETOVA SADOQAT BAXTIYAROVNA</t>
         </is>
       </c>
       <c r="M183" s="2" t="inlineStr">
         <is>
-          <t>AD7468392</t>
+          <t>KA0644589</t>
         </is>
       </c>
       <c r="N183" s="2" t="n">
-        <v>40206620181231</v>
+        <v>42012813080038</v>
       </c>
       <c r="O183" s="2" t="inlineStr">
         <is>
-          <t>IIV26264 12/06/2024</t>
+          <t>QORAQALPOGISTON RESPUBLIKASI AMUDARYO TUMANI IIB</t>
         </is>
       </c>
       <c r="P183" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR BEKTEMIR TUMANI OLTIN TOPGAN KOCHASI 15-UY 3-XONADON</t>
+          <t>CHIRCHIQ SHAHAR 1 KICHIK NOHIYA 17 UY 68 XONADON</t>
         </is>
       </c>
       <c r="Q183" s="2" t="n">
-        <v>998335029757</v>
+        <v>998977060588</v>
       </c>
       <c r="R183" s="2" t="inlineStr">
         <is>
@@ -13030,65 +13030,65 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B184" s="3" t="n">
         <v>45705</v>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E184" s="2" t="n">
-        <v>65</v>
+        <v>346</v>
       </c>
       <c r="F184" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G184" s="2" t="n">
-        <v>74.06999999999999</v>
+        <v>66.03</v>
       </c>
       <c r="H184" s="4" t="n">
-        <v>444416000</v>
+        <v>442401000</v>
       </c>
       <c r="I184" s="4" t="n">
-        <v>6400000</v>
-      </c>
-      <c r="J184" s="5" t="n">
-        <v>0.29</v>
+        <v>6700000</v>
+      </c>
+      <c r="J184" s="9" t="n">
+        <v>0.45</v>
       </c>
       <c r="K184" s="4" t="n">
-        <v>130213888</v>
+        <v>200009492</v>
       </c>
       <c r="L184" s="2" t="inlineStr">
         <is>
-          <t>URAZMETOVA SADOQAT BAXTIYAROVNA</t>
+          <t>TOG'AYMURODOVA FERUZA MUQADIROVNA</t>
         </is>
       </c>
       <c r="M184" s="2" t="inlineStr">
         <is>
-          <t>KA0644589</t>
+          <t>AD5510726</t>
         </is>
       </c>
       <c r="N184" s="2" t="n">
-        <v>42012813080038</v>
+        <v>41211881851051</v>
       </c>
       <c r="O184" s="2" t="inlineStr">
         <is>
-          <t>QORAQALPOGISTON RESPUBLIKASI AMUDARYO TUMANI IIB</t>
+          <t>IIV27419 22.12.2023,</t>
         </is>
       </c>
       <c r="P184" s="2" t="inlineStr">
         <is>
-          <t>CHIRCHIQ SHAHAR 1 KICHIK NOHIYA 17 UY 68 XONADON</t>
+          <t>Surhandaryo viloyati Termiz tumani Navruz MFY Gullzor kuchasi 36-uy</t>
         </is>
       </c>
       <c r="Q184" s="2" t="n">
-        <v>998977060588</v>
+        <v>998949453601</v>
       </c>
       <c r="R184" s="2" t="inlineStr">
         <is>
@@ -13098,65 +13098,65 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B185" s="3" t="n">
-        <v>45705</v>
+        <v>45709</v>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E185" s="2" t="n">
-        <v>346</v>
+        <v>50</v>
       </c>
       <c r="F185" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G185" s="2" t="n">
-        <v>66.03</v>
+        <v>56.21</v>
       </c>
       <c r="H185" s="4" t="n">
-        <v>442401000</v>
+        <v>376607000</v>
       </c>
       <c r="I185" s="4" t="n">
         <v>6700000</v>
       </c>
-      <c r="J185" s="9" t="n">
-        <v>0.45</v>
+      <c r="J185" s="5" t="n">
+        <v>0.27</v>
       </c>
       <c r="K185" s="4" t="n">
-        <v>200009492</v>
+        <v>101683890</v>
       </c>
       <c r="L185" s="2" t="inlineStr">
         <is>
-          <t>TOG'AYMURODOVA FERUZA MUQADIROVNA</t>
+          <t>ASLIYEV FARRUX FARHOD OGLI</t>
         </is>
       </c>
       <c r="M185" s="2" t="inlineStr">
         <is>
-          <t>AD5510726</t>
+          <t>AD3179764</t>
         </is>
       </c>
       <c r="N185" s="2" t="n">
-        <v>41211881851051</v>
+        <v>30510922950068</v>
       </c>
       <c r="O185" s="2" t="inlineStr">
         <is>
-          <t>IIV27419 22.12.2023,</t>
+          <t>IIV 60120 02.05.2023</t>
         </is>
       </c>
       <c r="P185" s="2" t="inlineStr">
         <is>
-          <t>Surhandaryo viloyati Termiz tumani Navruz MFY Gullzor kuchasi 36-uy</t>
+          <t>SIRDARYO VILOYATI SIRDARYO TUMANI ZIYOKORLAR MFY SHAFFOF KOCHASI 43 UY</t>
         </is>
       </c>
       <c r="Q185" s="2" t="n">
-        <v>998949453601</v>
+        <v>998916242626</v>
       </c>
       <c r="R185" s="2" t="inlineStr">
         <is>
@@ -13166,65 +13166,65 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B186" s="3" t="n">
-        <v>45709</v>
+        <v>45712</v>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Б</t>
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E186" s="2" t="n">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="F186" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G186" s="2" t="n">
-        <v>56.21</v>
+        <v>55.1</v>
       </c>
       <c r="H186" s="4" t="n">
-        <v>376607000</v>
+        <v>319580000</v>
       </c>
       <c r="I186" s="4" t="n">
-        <v>6700000</v>
+        <v>5800000</v>
       </c>
       <c r="J186" s="5" t="n">
-        <v>0.27</v>
+        <v>0.2034</v>
       </c>
       <c r="K186" s="4" t="n">
-        <v>101683890</v>
+        <v>65000974</v>
       </c>
       <c r="L186" s="2" t="inlineStr">
         <is>
-          <t>ASLIYEV FARRUX FARHOD OGLI</t>
+          <t>XIKMATOVA DILDORA SHUXRATOVNA</t>
         </is>
       </c>
       <c r="M186" s="2" t="inlineStr">
         <is>
-          <t>AD3179764</t>
+          <t>AD1739297</t>
         </is>
       </c>
       <c r="N186" s="2" t="n">
-        <v>30510922950068</v>
+        <v>42502860210028</v>
       </c>
       <c r="O186" s="2" t="inlineStr">
         <is>
-          <t>IIV 60120 02.05.2023</t>
+          <t>IIV 26277 09.09.2022</t>
         </is>
       </c>
       <c r="P186" s="2" t="inlineStr">
         <is>
-          <t>SIRDARYO VILOYATI SIRDARYO TUMANI ZIYOKORLAR MFY SHAFFOF KOCHASI 43 UY</t>
+          <t>TOSHKENT SHAHRI,SHAYHANTOUR TUMANI XADRA MAVZESI 15A UY,15 XONADON</t>
         </is>
       </c>
       <c r="Q186" s="2" t="n">
-        <v>998916242626</v>
+        <v>998771272999</v>
       </c>
       <c r="R186" s="2" t="inlineStr">
         <is>
@@ -13233,270 +13233,270 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="n">
-        <v>193</v>
+      <c r="A187" s="1" t="n">
+        <v>194</v>
       </c>
       <c r="B187" s="3" t="n">
-        <v>45712</v>
+        <v>45713</v>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>Г</t>
         </is>
       </c>
       <c r="D187" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="F187" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G187" s="2" t="n">
+        <v>103.84</v>
+      </c>
+      <c r="H187" s="4" t="n">
+        <v>725712000</v>
+      </c>
+      <c r="I187" s="4" t="n">
+        <v>7800000</v>
+      </c>
+      <c r="J187" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K187" s="4" t="n">
+        <v>217713600</v>
+      </c>
+      <c r="L187" s="2" t="inlineStr">
+        <is>
+          <t>MUSAYEV NEMATJON NABIDJONOVICH</t>
+        </is>
+      </c>
+      <c r="M187" s="2" t="inlineStr">
+        <is>
+          <t>AE1620026</t>
+        </is>
+      </c>
+      <c r="N187" s="2" t="n">
+        <v>32806695180011</v>
+      </c>
+      <c r="O187" s="2" t="inlineStr">
+        <is>
+          <t>IIV 3230 13.02.2025</t>
+        </is>
+      </c>
+      <c r="P187" s="2" t="inlineStr">
+        <is>
+          <t>ANDIJON VILOYATI SHAHRIXON TUMANI OZBEKISTON MFY MASLAXATTEPA QFY BOBOCHEK 2 127 UY</t>
+        </is>
+      </c>
+      <c r="Q187" s="2" t="n">
+        <v>998905420909</v>
+      </c>
+      <c r="R187" s="2" t="inlineStr">
+        <is>
+          <t>1 Отдел Продаж</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B188" s="3" t="n">
+        <v>45715</v>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>Е</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E187" s="2" t="n">
-        <v>154</v>
-      </c>
-      <c r="F187" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G187" s="2" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="H187" s="4" t="n">
-        <v>319580000</v>
-      </c>
-      <c r="I187" s="4" t="n">
-        <v>5800000</v>
-      </c>
-      <c r="J187" s="5" t="n">
-        <v>0.2034</v>
-      </c>
-      <c r="K187" s="4" t="n">
-        <v>65000974</v>
-      </c>
-      <c r="L187" s="2" t="inlineStr">
-        <is>
-          <t>XIKMATOVA DILDORA SHUXRATOVNA</t>
-        </is>
-      </c>
-      <c r="M187" s="2" t="inlineStr">
-        <is>
-          <t>AD1739297</t>
-        </is>
-      </c>
-      <c r="N187" s="2" t="n">
-        <v>42502860210028</v>
-      </c>
-      <c r="O187" s="2" t="inlineStr">
-        <is>
-          <t>IIV 26277 09.09.2022</t>
-        </is>
-      </c>
-      <c r="P187" s="2" t="inlineStr">
-        <is>
-          <t>TOSHKENT SHAHRI,SHAYHANTOUR TUMANI XADRA MAVZESI 15A UY,15 XONADON</t>
-        </is>
-      </c>
-      <c r="Q187" s="2" t="n">
-        <v>998771272999</v>
-      </c>
-      <c r="R187" s="2" t="inlineStr">
-        <is>
-          <t>1 Отдел Продаж</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B188" s="3" t="n">
-        <v>45713</v>
-      </c>
-      <c r="C188" s="2" t="inlineStr">
-        <is>
-          <t>Г</t>
-        </is>
-      </c>
-      <c r="D188" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="E188" s="2" t="n">
-        <v>241</v>
+        <v>450</v>
       </c>
       <c r="F188" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G188" s="2" t="n">
-        <v>103.84</v>
+        <v>48.79</v>
       </c>
       <c r="H188" s="4" t="n">
-        <v>725712000</v>
+        <v>287861000</v>
       </c>
       <c r="I188" s="4" t="n">
-        <v>7800000</v>
+        <v>5900000</v>
       </c>
       <c r="J188" s="5" t="n">
-        <v>0.3</v>
+        <v>0.44</v>
       </c>
       <c r="K188" s="4" t="n">
-        <v>217713600</v>
+        <v>125000000</v>
       </c>
       <c r="L188" s="2" t="inlineStr">
         <is>
-          <t>MUSAYEV NEMATJON NABIDJONOVICH</t>
+          <t>ERGASHEV ULUG`BEK MARDON OG`LI</t>
         </is>
       </c>
       <c r="M188" s="2" t="inlineStr">
         <is>
-          <t>AE1620026</t>
+          <t>AD9098026</t>
         </is>
       </c>
       <c r="N188" s="2" t="n">
-        <v>32806695180011</v>
+        <v>31802942640012</v>
       </c>
       <c r="O188" s="2" t="inlineStr">
         <is>
-          <t>IIV 3230 13.02.2025</t>
+          <t>IIV 26284 22.10.2024</t>
         </is>
       </c>
       <c r="P188" s="2" t="inlineStr">
         <is>
-          <t>ANDIJON VILOYATI SHAHRIXON TUMANI OZBEKISTON MFY MASLAXATTEPA QFY BOBOCHEK 2 127 UY</t>
+          <t>QASHQADARYO VILOYATI KITOB TUMANI SANGZOR KO`CHASI 16-UY 8-XONADON</t>
         </is>
       </c>
       <c r="Q188" s="2" t="n">
-        <v>998905420909</v>
+        <v>998909023912</v>
       </c>
       <c r="R188" s="2" t="inlineStr">
         <is>
-          <t>1 Отдел Продаж</t>
+          <t>2 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B189" s="3" t="n">
-        <v>45715</v>
+        <v>45716</v>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>Б</t>
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E189" s="2" t="n">
-        <v>450</v>
+        <v>138</v>
       </c>
       <c r="F189" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G189" s="2" t="n">
-        <v>48.79</v>
+        <v>28.02</v>
       </c>
       <c r="H189" s="4" t="n">
-        <v>287861000</v>
+        <v>144204000</v>
       </c>
       <c r="I189" s="4" t="n">
-        <v>5900000</v>
+        <v>6100000</v>
       </c>
       <c r="J189" s="5" t="n">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="K189" s="4" t="n">
-        <v>125000000</v>
+        <v>144204000</v>
       </c>
       <c r="L189" s="2" t="inlineStr">
         <is>
-          <t>ERGASHEV ULUG`BEK MARDON OG`LI</t>
+          <t>ABDULLAYEV XABIBULLA KUDRAT OGLI</t>
         </is>
       </c>
       <c r="M189" s="2" t="inlineStr">
         <is>
-          <t>AD9098026</t>
+          <t>AB3432571</t>
         </is>
       </c>
       <c r="N189" s="2" t="n">
-        <v>31802942640012</v>
+        <v>31406910222484</v>
       </c>
       <c r="O189" s="2" t="inlineStr">
         <is>
-          <t>IIV 26284 22.10.2024</t>
+          <t>TOSHKENT SHAHAR OLMAZOR TUMANI IIB</t>
         </is>
       </c>
       <c r="P189" s="2" t="inlineStr">
         <is>
-          <t>QASHQADARYO VILOYATI KITOB TUMANI SANGZOR KO`CHASI 16-UY 8-XONADON</t>
+          <t>TOSHKENT SHAHAR OLMAZOR TUMANI DADABAEV KOCHASI UY-2a</t>
         </is>
       </c>
       <c r="Q189" s="2" t="n">
-        <v>998909023912</v>
+        <v>998994179333</v>
       </c>
       <c r="R189" s="2" t="inlineStr">
         <is>
-          <t>2 Отдел Продаж</t>
+          <t>1 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B190" s="3" t="n">
-        <v>45716</v>
+        <v>45721</v>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E190" s="2" t="n">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="F190" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G190" s="2" t="n">
-        <v>28.02</v>
+        <v>40.8</v>
       </c>
       <c r="H190" s="4" t="n">
-        <v>144204000</v>
+        <v>269280000</v>
       </c>
       <c r="I190" s="4" t="n">
-        <v>6100000</v>
+        <v>6600000</v>
       </c>
       <c r="J190" s="5" t="n">
-        <v>1</v>
+        <v>0.28</v>
       </c>
       <c r="K190" s="4" t="n">
-        <v>144204000</v>
+        <v>75398400</v>
       </c>
       <c r="L190" s="2" t="inlineStr">
         <is>
-          <t>ABDULLAYEV XABIBULLA KUDRAT OGLI</t>
+          <t>ASLIYEV FARRUX FARHOD OGLI</t>
         </is>
       </c>
       <c r="M190" s="2" t="inlineStr">
         <is>
-          <t>AB3432571</t>
+          <t>AD3179764</t>
         </is>
       </c>
       <c r="N190" s="2" t="n">
-        <v>31406910222484</v>
+        <v>30510922950068</v>
       </c>
       <c r="O190" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR OLMAZOR TUMANI IIB</t>
+          <t>IIV 60120 02.05.2023</t>
         </is>
       </c>
       <c r="P190" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR OLMAZOR TUMANI DADABAEV KOCHASI UY-2a</t>
+          <t>SIRDARYO VILOYATI SIRDARYO TUMANI ZIYOKORLAR MFY SHAFFOF KOCHASI 43 UY</t>
         </is>
       </c>
       <c r="Q190" s="2" t="n">
-        <v>998994179333</v>
+        <v>998916242626</v>
       </c>
       <c r="R190" s="2" t="inlineStr">
         <is>
@@ -13506,30 +13506,30 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B191" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Б</t>
         </is>
       </c>
       <c r="D191" s="2" t="n">
         <v>8</v>
       </c>
       <c r="E191" s="2" t="n">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="F191" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G191" s="2" t="n">
-        <v>40.8</v>
+        <v>41.79</v>
       </c>
       <c r="H191" s="4" t="n">
-        <v>269280000</v>
+        <v>275814000</v>
       </c>
       <c r="I191" s="4" t="n">
         <v>6600000</v>
@@ -13538,7 +13538,7 @@
         <v>0.28</v>
       </c>
       <c r="K191" s="4" t="n">
-        <v>75398400</v>
+        <v>77227920</v>
       </c>
       <c r="L191" s="2" t="inlineStr">
         <is>
@@ -13574,341 +13574,341 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B192" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E192" s="2" t="n">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="F192" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G192" s="2" t="n">
+        <v>56.21</v>
+      </c>
+      <c r="H192" s="4" t="n">
+        <v>302000029</v>
+      </c>
+      <c r="I192" s="4" t="n">
+        <v>5372710</v>
+      </c>
+      <c r="J192" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G192" s="2" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="H192" s="4" t="n">
-        <v>275814000</v>
-      </c>
-      <c r="I192" s="4" t="n">
-        <v>6600000</v>
-      </c>
-      <c r="J192" s="5" t="n">
-        <v>0.28</v>
-      </c>
       <c r="K192" s="4" t="n">
-        <v>77227920</v>
+        <v>302000029</v>
       </c>
       <c r="L192" s="2" t="inlineStr">
         <is>
-          <t>ASLIYEV FARRUX FARHOD OGLI</t>
+          <t>JUMAYEV OBID JURAQULOVICH</t>
         </is>
       </c>
       <c r="M192" s="2" t="inlineStr">
         <is>
-          <t>AD3179764</t>
+          <t>AD9851223</t>
         </is>
       </c>
       <c r="N192" s="2" t="n">
-        <v>30510922950068</v>
+        <v>30810912750031</v>
       </c>
       <c r="O192" s="2" t="inlineStr">
         <is>
-          <t>IIV 60120 02.05.2023</t>
+          <t>IIV 10414 17.12.2024</t>
         </is>
       </c>
       <c r="P192" s="2" t="inlineStr">
         <is>
-          <t>SIRDARYO VILOYATI SIRDARYO TUMANI ZIYOKORLAR MFY SHAFFOF KOCHASI 43 UY</t>
-        </is>
-      </c>
-      <c r="Q192" s="2" t="n">
-        <v>998916242626</v>
+          <t>QASHQADARYO VILOYATI CHIROQCHI TUMANI MIRZATUP QFY PAST SARIQAMISH QISHLOG`I 76-UY</t>
+        </is>
+      </c>
+      <c r="Q192" s="2" t="inlineStr">
+        <is>
+          <t>998505000197/998944977992</t>
+        </is>
       </c>
       <c r="R192" s="2" t="inlineStr">
         <is>
-          <t>1 Отдел Продаж</t>
+          <t>2 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B193" s="3" t="n">
-        <v>45721</v>
+        <v>45733</v>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E193" s="2" t="n">
-        <v>64</v>
+        <v>413</v>
       </c>
       <c r="F193" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G193" s="2" t="n">
-        <v>56.21</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="H193" s="4" t="n">
-        <v>302000029</v>
+        <v>451360000</v>
       </c>
       <c r="I193" s="4" t="n">
-        <v>5372710</v>
+        <v>6500000</v>
       </c>
       <c r="J193" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K193" s="4" t="n">
-        <v>302000029</v>
+        <v>225680000</v>
       </c>
       <c r="L193" s="2" t="inlineStr">
         <is>
-          <t>JUMAYEV OBID JURAQULOVICH</t>
+          <t>STAMKULOVA SAULE DOLDAYEVNA</t>
         </is>
       </c>
       <c r="M193" s="2" t="inlineStr">
         <is>
-          <t>AD9851223</t>
+          <t>AC0486061</t>
         </is>
       </c>
       <c r="N193" s="2" t="n">
-        <v>30810912750031</v>
+        <v>40201640470017</v>
       </c>
       <c r="O193" s="2" t="inlineStr">
         <is>
-          <t>IIV 10414 17.12.2024</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB  18.11.2018</t>
         </is>
       </c>
       <c r="P193" s="2" t="inlineStr">
         <is>
-          <t>QASHQADARYO VILOYATI CHIROQCHI TUMANI MIRZATUP QFY PAST SARIQAMISH QISHLOG`I 76-UY</t>
-        </is>
-      </c>
-      <c r="Q193" s="2" t="inlineStr">
-        <is>
-          <t>998505000197/998944977992</t>
-        </is>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR RUDAKI KOCHASI</t>
+        </is>
+      </c>
+      <c r="Q193" s="2" t="n">
+        <v>998917767737</v>
       </c>
       <c r="R193" s="2" t="inlineStr">
         <is>
-          <t>2 Отдел Продаж</t>
+          <t>Руоводство</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B194" s="3" t="n">
-        <v>45733</v>
+        <v>45721</v>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E194" s="2" t="n">
-        <v>413</v>
+        <v>15</v>
       </c>
       <c r="F194" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G194" s="2" t="n">
-        <v>74.06999999999999</v>
+        <v>56.21</v>
       </c>
       <c r="H194" s="4" t="n">
-        <v>451360000</v>
+        <v>410333000</v>
       </c>
       <c r="I194" s="4" t="n">
-        <v>6500000</v>
+        <v>7300000</v>
       </c>
       <c r="J194" s="5" t="n">
         <v>0.5</v>
       </c>
       <c r="K194" s="4" t="n">
-        <v>225680000</v>
+        <v>205166500</v>
       </c>
       <c r="L194" s="2" t="inlineStr">
         <is>
-          <t>STAMKULOVA SAULE DOLDAYEVNA</t>
+          <t>ABDURAXIMOV NAVRUZBEK BEKNAZAR O`G`LI</t>
         </is>
       </c>
       <c r="M194" s="2" t="inlineStr">
         <is>
-          <t>AC0486061</t>
+          <t>AE1591083</t>
         </is>
       </c>
       <c r="N194" s="2" t="n">
-        <v>40201640470017</v>
+        <v>32003985640017</v>
       </c>
       <c r="O194" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB  18.11.2018</t>
+          <t>IIV 26284 12.02.2025</t>
         </is>
       </c>
       <c r="P194" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR RUDAKI KOCHASI</t>
-        </is>
-      </c>
-      <c r="Q194" s="2" t="n">
-        <v>998917767737</v>
+          <t>QASHQADARYO VILOYATI CHIROQCHI TUMANI MIRZATUP QFY PAST SARIQAMISH QISHLOG`I 68-UY</t>
+        </is>
+      </c>
+      <c r="Q194" s="2" t="inlineStr">
+        <is>
+          <t>998948750102/998978781000</t>
+        </is>
       </c>
       <c r="R194" s="2" t="inlineStr">
         <is>
-          <t>Руоводство</t>
+          <t>2 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B195" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D195" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>452</v>
+      </c>
+      <c r="F195" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E195" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="F195" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="G195" s="2" t="n">
-        <v>56.21</v>
+        <v>76.95</v>
       </c>
       <c r="H195" s="4" t="n">
-        <v>410333000</v>
+        <v>381679440</v>
       </c>
       <c r="I195" s="4" t="n">
-        <v>7300000</v>
+        <v>5264544</v>
       </c>
       <c r="J195" s="5" t="n">
-        <v>0.5</v>
+        <v>0.28</v>
       </c>
       <c r="K195" s="4" t="n">
-        <v>205166500</v>
+        <v>106106884</v>
       </c>
       <c r="L195" s="2" t="inlineStr">
         <is>
-          <t>ABDURAXIMOV NAVRUZBEK BEKNAZAR O`G`LI</t>
+          <t>ERGASHEV  NODIRJON JASURBEKOVICH</t>
         </is>
       </c>
       <c r="M195" s="2" t="inlineStr">
         <is>
-          <t>AE1591083</t>
+          <t>AD1100367</t>
         </is>
       </c>
       <c r="N195" s="2" t="n">
-        <v>32003985640017</v>
+        <v>52001056150027</v>
       </c>
       <c r="O195" s="2" t="inlineStr">
         <is>
-          <t>IIV 26284 12.02.2025</t>
+          <t>IIV18403  02/02/2021</t>
         </is>
       </c>
       <c r="P195" s="2" t="inlineStr">
         <is>
-          <t>QASHQADARYO VILOYATI CHIROQCHI TUMANI MIRZATUP QFY PAST SARIQAMISH QISHLOG`I 68-UY</t>
-        </is>
-      </c>
-      <c r="Q195" s="2" t="inlineStr">
-        <is>
-          <t>998948750102/998978781000</t>
-        </is>
+          <t>SAMARQAND VILOYATI  TAYLAQ TUMANI  QUNDUZAK QISHLOGI 64-UY</t>
+        </is>
+      </c>
+      <c r="Q195" s="2" t="n">
+        <v>998933479739</v>
       </c>
       <c r="R195" s="2" t="inlineStr">
         <is>
-          <t>2 Отдел Продаж</t>
+          <t>Руоводство</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B196" s="3" t="n">
-        <v>45721</v>
+        <v>45730</v>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E196" s="2" t="n">
-        <v>452</v>
+        <v>340</v>
       </c>
       <c r="F196" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G196" s="2" t="n">
-        <v>76.95</v>
+        <v>66.03</v>
       </c>
       <c r="H196" s="4" t="n">
-        <v>381679440</v>
+        <v>429195000</v>
       </c>
       <c r="I196" s="4" t="n">
-        <v>5264544</v>
+        <v>6500000</v>
       </c>
       <c r="J196" s="5" t="n">
-        <v>0.28</v>
+        <v>0.5</v>
       </c>
       <c r="K196" s="4" t="n">
-        <v>106106884</v>
+        <v>214597500</v>
       </c>
       <c r="L196" s="2" t="inlineStr">
         <is>
-          <t>ERGASHEV  NODIRJON JASURBEKOVICH</t>
+          <t>KIDIRBAYEV AZIZBEK GABITOVICH</t>
         </is>
       </c>
       <c r="M196" s="2" t="inlineStr">
         <is>
-          <t>AD1100367</t>
+          <t>AD1283118</t>
         </is>
       </c>
       <c r="N196" s="2" t="n">
-        <v>52001056150027</v>
+        <v>30510880520051</v>
       </c>
       <c r="O196" s="2" t="inlineStr">
         <is>
-          <t>IIV18403  02/02/2021</t>
+          <t>IIV27419  20/04/2022</t>
         </is>
       </c>
       <c r="P196" s="2" t="inlineStr">
         <is>
-          <t>SAMARQAND VILOYATI  TAYLAQ TUMANI  QUNDUZAK QISHLOGI 64-UY</t>
+          <t>YUQORICHIRCHIQ TUMAN SAKSON OTA MFY MARKAZI CHAMAN -2 KOCHASI UY-2</t>
         </is>
       </c>
       <c r="Q196" s="2" t="n">
-        <v>998933479739</v>
+        <v>998917767737</v>
       </c>
       <c r="R196" s="2" t="inlineStr">
         <is>
@@ -13918,107 +13918,107 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B197" s="3" t="n">
-        <v>45730</v>
+        <v>45733</v>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E197" s="2" t="n">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="F197" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G197" s="2" t="n">
-        <v>66.03</v>
+        <v>56.21</v>
       </c>
       <c r="H197" s="4" t="n">
-        <v>429195000</v>
+        <v>281050000</v>
       </c>
       <c r="I197" s="4" t="n">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="J197" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K197" s="4" t="n">
-        <v>214597500</v>
+        <v>281050000</v>
       </c>
       <c r="L197" s="2" t="inlineStr">
         <is>
-          <t>KIDIRBAYEV AZIZBEK GABITOVICH</t>
+          <t>XOLIQOVA ZEBO AMRULLAYEVNA</t>
         </is>
       </c>
       <c r="M197" s="2" t="inlineStr">
         <is>
-          <t>AD1283118</t>
+          <t>AE1774063</t>
         </is>
       </c>
       <c r="N197" s="2" t="n">
-        <v>30510880520051</v>
+        <v>42505782560271</v>
       </c>
       <c r="O197" s="2" t="inlineStr">
         <is>
-          <t>IIV27419  20/04/2022</t>
+          <t>IIV 10208 27.02.2025</t>
         </is>
       </c>
       <c r="P197" s="2" t="inlineStr">
         <is>
-          <t>YUQORICHIRCHIQ TUMAN SAKSON OTA MFY MARKAZI CHAMAN -2 KOCHASI UY-2</t>
+          <t>TOSHKENT SHAHAR UCHTEPA TUMANI VATAN MFY SHIRIN KUCHASI 24/52/40</t>
         </is>
       </c>
       <c r="Q197" s="2" t="n">
-        <v>998917767737</v>
+        <v>998338069696</v>
       </c>
       <c r="R197" s="2" t="inlineStr">
         <is>
-          <t>Руоводство</t>
+          <t>1 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B198" s="3" t="n">
         <v>45733</v>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Б</t>
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E198" s="2" t="n">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="F198" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G198" s="2" t="n">
-        <v>56.21</v>
+        <v>68.25</v>
       </c>
       <c r="H198" s="4" t="n">
-        <v>281050000</v>
+        <v>354900000</v>
       </c>
       <c r="I198" s="4" t="n">
-        <v>5000000</v>
+        <v>5200000</v>
       </c>
       <c r="J198" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K198" s="4" t="n">
-        <v>281050000</v>
+        <v>354900000</v>
       </c>
       <c r="L198" s="2" t="inlineStr">
         <is>
@@ -14054,65 +14054,65 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B199" s="3" t="n">
         <v>45733</v>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E199" s="2" t="n">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="F199" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G199" s="2" t="n">
-        <v>68.25</v>
+        <v>40.8</v>
       </c>
       <c r="H199" s="4" t="n">
-        <v>354900000</v>
+        <v>275400000</v>
       </c>
       <c r="I199" s="4" t="n">
-        <v>5200000</v>
+        <v>6750000</v>
       </c>
       <c r="J199" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K199" s="4" t="n">
-        <v>354900000</v>
+        <v>137700000</v>
       </c>
       <c r="L199" s="2" t="inlineStr">
         <is>
-          <t>XOLIQOVA ZEBO AMRULLAYEVNA</t>
+          <t>RUZIBAYEVA MUKADDAS ABDUSAATOVNA</t>
         </is>
       </c>
       <c r="M199" s="2" t="inlineStr">
         <is>
-          <t>AE1774063</t>
+          <t>AD7674358</t>
         </is>
       </c>
       <c r="N199" s="2" t="n">
-        <v>42505782560271</v>
+        <v>41305690470018</v>
       </c>
       <c r="O199" s="2" t="inlineStr">
         <is>
-          <t>IIV 10208 27.02.2025</t>
+          <t>IIV 27419 29.06.2024</t>
         </is>
       </c>
       <c r="P199" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR UCHTEPA TUMANI VATAN MFY SHIRIN KUCHASI 24/52/40</t>
+          <t>CHIRCHIQ SHAHAR  3 KICHIQ NOHIYA 29 UY 12 XONADON</t>
         </is>
       </c>
       <c r="Q199" s="2" t="n">
-        <v>998338069696</v>
+        <v>998917779212</v>
       </c>
       <c r="R199" s="2" t="inlineStr">
         <is>
@@ -14122,175 +14122,175 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>206</v>
-      </c>
-      <c r="B200" s="3" t="n">
+        <v>207</v>
+      </c>
+      <c r="B200" s="7" t="n">
         <v>45733</v>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E200" s="2" t="n">
-        <v>46</v>
+        <v>325</v>
       </c>
       <c r="F200" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G200" s="2" t="n">
-        <v>40.8</v>
+        <v>69.38</v>
       </c>
       <c r="H200" s="4" t="n">
-        <v>275400000</v>
+        <v>485660000</v>
       </c>
       <c r="I200" s="4" t="n">
-        <v>6750000</v>
+        <v>7000000</v>
       </c>
       <c r="J200" s="5" t="n">
         <v>0.5</v>
       </c>
       <c r="K200" s="4" t="n">
-        <v>137700000</v>
+        <v>242830000</v>
       </c>
       <c r="L200" s="2" t="inlineStr">
         <is>
-          <t>RUZIBAYEVA MUKADDAS ABDUSAATOVNA</t>
+          <t>RUSTAMBEKOV MUZAFFAR RUSTAMBEK OGLI</t>
         </is>
       </c>
       <c r="M200" s="2" t="inlineStr">
         <is>
-          <t>AD7674358</t>
+          <t>AD3712377</t>
         </is>
       </c>
       <c r="N200" s="2" t="n">
-        <v>41305690470018</v>
+        <v>30907760560045</v>
       </c>
       <c r="O200" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419 29.06.2024</t>
+          <t>IIV 27248 20.06.2023</t>
         </is>
       </c>
       <c r="P200" s="2" t="inlineStr">
         <is>
-          <t>CHIRCHIQ SHAHAR  3 KICHIQ NOHIYA 29 UY 12 XONADON</t>
+          <t>TOSHKENT VILOYATI QIBRAY TUMANI ISTIKBOL MFYTINCHLIK KUCHASI 85 UY</t>
         </is>
       </c>
       <c r="Q200" s="2" t="n">
-        <v>998917779212</v>
+        <v>998976161541</v>
       </c>
       <c r="R200" s="2" t="inlineStr">
         <is>
-          <t>1 Отдел Продаж</t>
+          <t>Руоводство</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>207</v>
-      </c>
-      <c r="B201" s="7" t="n">
-        <v>45733</v>
+        <v>208</v>
+      </c>
+      <c r="B201" s="3" t="n">
+        <v>45779</v>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E201" s="2" t="n">
-        <v>325</v>
+        <v>60</v>
       </c>
       <c r="F201" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G201" s="2" t="n">
-        <v>69.38</v>
+        <v>40.8</v>
       </c>
       <c r="H201" s="4" t="n">
-        <v>485660000</v>
+        <v>261120000</v>
       </c>
       <c r="I201" s="4" t="n">
-        <v>7000000</v>
+        <v>6400000</v>
       </c>
       <c r="J201" s="5" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K201" s="4" t="n">
-        <v>242830000</v>
+        <v>78336000</v>
       </c>
       <c r="L201" s="2" t="inlineStr">
         <is>
-          <t>RUSTAMBEKOV MUZAFFAR RUSTAMBEK OGLI</t>
+          <t>YUNUSOV AYDER ENVEROVICH</t>
         </is>
       </c>
       <c r="M201" s="2" t="inlineStr">
         <is>
-          <t>AD3712377</t>
+          <t>AD0510771</t>
         </is>
       </c>
       <c r="N201" s="2" t="n">
-        <v>30907760560045</v>
+        <v>30506910840013</v>
       </c>
       <c r="O201" s="2" t="inlineStr">
         <is>
-          <t>IIV 27248 20.06.2023</t>
+          <t>IIV27419 19/07/2021</t>
         </is>
       </c>
       <c r="P201" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI QIBRAY TUMANI ISTIKBOL MFYTINCHLIK KUCHASI 85 UY</t>
+          <t>CHIRCHIQ SHAHAR ASKOCHENSKO-24</t>
         </is>
       </c>
       <c r="Q201" s="2" t="n">
-        <v>998976161541</v>
+        <v>998337070070</v>
       </c>
       <c r="R201" s="2" t="inlineStr">
         <is>
-          <t>Руоводство</t>
+          <t>1 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B202" s="3" t="n">
         <v>45779</v>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Б</t>
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E202" s="2" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="F202" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G202" s="2" t="n">
-        <v>40.8</v>
+        <v>28.08</v>
       </c>
       <c r="H202" s="4" t="n">
-        <v>261120000</v>
+        <v>150114000</v>
       </c>
       <c r="I202" s="4" t="n">
-        <v>6400000</v>
+        <v>6350000</v>
       </c>
       <c r="J202" s="5" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K202" s="4" t="n">
-        <v>78336000</v>
+        <v>75057000</v>
       </c>
       <c r="L202" s="2" t="inlineStr">
         <is>
@@ -14326,65 +14326,65 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B203" s="3" t="n">
-        <v>45779</v>
+        <v>45738</v>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E203" s="2" t="n">
-        <v>130</v>
+        <v>405</v>
       </c>
       <c r="F203" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G203" s="2" t="n">
-        <v>28.08</v>
+        <v>55.56</v>
       </c>
       <c r="H203" s="4" t="n">
-        <v>150114000</v>
+        <v>360431500</v>
       </c>
       <c r="I203" s="4" t="n">
-        <v>6350000</v>
+        <v>7150000</v>
       </c>
       <c r="J203" s="5" t="n">
         <v>0.5</v>
       </c>
       <c r="K203" s="4" t="n">
-        <v>75057000</v>
+        <v>180215750</v>
       </c>
       <c r="L203" s="2" t="inlineStr">
         <is>
-          <t>YUNUSOV AYDER ENVEROVICH</t>
+          <t>XOLIQOV ASKAR AGZAMOVICH</t>
         </is>
       </c>
       <c r="M203" s="2" t="inlineStr">
         <is>
-          <t>AD0510771</t>
+          <t>AD8047582</t>
         </is>
       </c>
       <c r="N203" s="2" t="n">
-        <v>30506910840013</v>
+        <v>32108890560048</v>
       </c>
       <c r="O203" s="2" t="inlineStr">
         <is>
-          <t>IIV27419 19/07/2021</t>
+          <t>IIV 27248 30.07.2024</t>
         </is>
       </c>
       <c r="P203" s="2" t="inlineStr">
         <is>
-          <t>CHIRCHIQ SHAHAR ASKOCHENSKO-24</t>
+          <t>TOSHKENT VILOYATI QIBRAY TUMANI OTKIR MFY BOHOR KUCHASI 3 UY</t>
         </is>
       </c>
       <c r="Q203" s="2" t="n">
-        <v>998337070070</v>
+        <v>998998346889</v>
       </c>
       <c r="R203" s="2" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B204" s="3" t="n">
         <v>45738</v>
@@ -14408,25 +14408,25 @@
         <v>5</v>
       </c>
       <c r="E204" s="2" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F204" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G204" s="2" t="n">
-        <v>55.56</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="H204" s="4" t="n">
-        <v>360431500</v>
+        <v>513856000</v>
       </c>
       <c r="I204" s="4" t="n">
-        <v>7150000</v>
+        <v>7400000</v>
       </c>
       <c r="J204" s="5" t="n">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
       <c r="K204" s="4" t="n">
-        <v>180215750</v>
+        <v>210680960</v>
       </c>
       <c r="L204" s="2" t="inlineStr">
         <is>
@@ -14462,65 +14462,65 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B205" s="3" t="n">
-        <v>45738</v>
+        <v>45739</v>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E205" s="2" t="n">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="F205" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G205" s="2" t="n">
-        <v>74.06999999999999</v>
+        <v>41.75</v>
       </c>
       <c r="H205" s="4" t="n">
-        <v>513856000</v>
+        <v>242150000</v>
       </c>
       <c r="I205" s="4" t="n">
-        <v>7400000</v>
+        <v>5800000</v>
       </c>
       <c r="J205" s="5" t="n">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="K205" s="4" t="n">
-        <v>210680960</v>
+        <v>121075000</v>
       </c>
       <c r="L205" s="2" t="inlineStr">
         <is>
-          <t>XOLIQOV ASKAR AGZAMOVICH</t>
+          <t>MANABOVA SARVINOZ SOBIR QIZI</t>
         </is>
       </c>
       <c r="M205" s="2" t="inlineStr">
         <is>
-          <t>AD8047582</t>
+          <t>AD1457365</t>
         </is>
       </c>
       <c r="N205" s="2" t="n">
-        <v>32108890560048</v>
+        <v>40506966860017</v>
       </c>
       <c r="O205" s="2" t="inlineStr">
         <is>
-          <t>IIV 27248 30.07.2024</t>
+          <t>IIV 27419 14.06.2022</t>
         </is>
       </c>
       <c r="P205" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI QIBRAY TUMANI OTKIR MFY BOHOR KUCHASI 3 UY</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR XAYDAR MAHSUDOV 240</t>
         </is>
       </c>
       <c r="Q205" s="2" t="n">
-        <v>998998346889</v>
+        <v>998900029303</v>
       </c>
       <c r="R205" s="2" t="inlineStr">
         <is>
@@ -14530,65 +14530,65 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B206" s="3" t="n">
         <v>45739</v>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E206" s="2" t="n">
-        <v>369</v>
+        <v>432</v>
       </c>
       <c r="F206" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G206" s="2" t="n">
-        <v>41.75</v>
+        <v>40.8</v>
       </c>
       <c r="H206" s="4" t="n">
-        <v>242150000</v>
+        <v>252960000</v>
       </c>
       <c r="I206" s="4" t="n">
-        <v>5800000</v>
+        <v>6200000</v>
       </c>
       <c r="J206" s="5" t="n">
         <v>0.5</v>
       </c>
       <c r="K206" s="4" t="n">
-        <v>121075000</v>
+        <v>126480000</v>
       </c>
       <c r="L206" s="2" t="inlineStr">
         <is>
-          <t>MANABOVA SARVINOZ SOBIR QIZI</t>
+          <t>TULEGANOVA MUSHARRAFXON XAMIDJONOVNA</t>
         </is>
       </c>
       <c r="M206" s="2" t="inlineStr">
         <is>
-          <t>AD1457365</t>
+          <t>AB0407754</t>
         </is>
       </c>
       <c r="N206" s="2" t="n">
-        <v>40506966860017</v>
+        <v>41504740270011</v>
       </c>
       <c r="O206" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419 14.06.2022</t>
+          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI IIB</t>
         </is>
       </c>
       <c r="P206" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR XAYDAR MAHSUDOV 240</t>
+          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI OQITUVCHI 12A</t>
         </is>
       </c>
       <c r="Q206" s="2" t="n">
-        <v>998900029303</v>
+        <v>998977077566</v>
       </c>
       <c r="R206" s="2" t="inlineStr">
         <is>
@@ -14597,136 +14597,136 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
-        <v>213</v>
+      <c r="A207" s="1" t="n">
+        <v>214</v>
       </c>
       <c r="B207" s="3" t="n">
-        <v>45739</v>
+        <v>45740</v>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
+          <t>Г</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>290</v>
+      </c>
+      <c r="F207" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G207" s="2" t="n">
+        <v>75.98</v>
+      </c>
+      <c r="H207" s="4" t="n">
+        <v>486272000</v>
+      </c>
+      <c r="I207" s="4" t="n">
+        <v>6400000</v>
+      </c>
+      <c r="J207" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K207" s="4" t="n">
+        <v>145881600</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>RIXSITILLAYEV ABROR ALIYOR OGLI</t>
+        </is>
+      </c>
+      <c r="M207" s="2" t="inlineStr">
+        <is>
+          <t>AD1590961</t>
+        </is>
+      </c>
+      <c r="N207" s="2" t="n">
+        <v>32802966860017</v>
+      </c>
+      <c r="O207" s="2" t="inlineStr">
+        <is>
+          <t>IIV 27419 27.07.2022</t>
+        </is>
+      </c>
+      <c r="P207" s="2" t="inlineStr">
+        <is>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR MIRZO GOLIB MFY MUHANDISLAR 3 UY</t>
+        </is>
+      </c>
+      <c r="Q207" s="2" t="inlineStr">
+        <is>
+          <t>998992222196 998997984255</t>
+        </is>
+      </c>
+      <c r="R207" s="2" t="inlineStr">
+        <is>
+          <t>1 Отдел Продаж</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B208" s="3" t="n">
+        <v>45741</v>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
           <t>Е</t>
         </is>
       </c>
-      <c r="D207" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" s="2" t="n">
-        <v>432</v>
-      </c>
-      <c r="F207" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G207" s="2" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="H207" s="4" t="n">
-        <v>252960000</v>
-      </c>
-      <c r="I207" s="4" t="n">
-        <v>6200000</v>
-      </c>
-      <c r="J207" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K207" s="4" t="n">
-        <v>126480000</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
-        <is>
-          <t>TULEGANOVA MUSHARRAFXON XAMIDJONOVNA</t>
-        </is>
-      </c>
-      <c r="M207" s="2" t="inlineStr">
-        <is>
-          <t>AB0407754</t>
-        </is>
-      </c>
-      <c r="N207" s="2" t="n">
-        <v>41504740270011</v>
-      </c>
-      <c r="O207" s="2" t="inlineStr">
-        <is>
-          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI IIB</t>
-        </is>
-      </c>
-      <c r="P207" s="2" t="inlineStr">
-        <is>
-          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI OQITUVCHI 12A</t>
-        </is>
-      </c>
-      <c r="Q207" s="2" t="n">
-        <v>998977077566</v>
-      </c>
-      <c r="R207" s="2" t="inlineStr">
-        <is>
-          <t>1 Отдел Продаж</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B208" s="3" t="n">
-        <v>45740</v>
-      </c>
-      <c r="C208" s="2" t="inlineStr">
-        <is>
-          <t>Г</t>
-        </is>
-      </c>
       <c r="D208" s="2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E208" s="2" t="n">
-        <v>290</v>
+        <v>393</v>
       </c>
       <c r="F208" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G208" s="2" t="n">
-        <v>75.98</v>
+        <v>56.21</v>
       </c>
       <c r="H208" s="4" t="n">
-        <v>486272000</v>
+        <v>430006500</v>
       </c>
       <c r="I208" s="4" t="n">
-        <v>6400000</v>
+        <v>7650000</v>
       </c>
       <c r="J208" s="5" t="n">
         <v>0.3</v>
       </c>
       <c r="K208" s="4" t="n">
-        <v>145881600</v>
+        <v>129001950</v>
       </c>
       <c r="L208" s="2" t="inlineStr">
         <is>
-          <t>RIXSITILLAYEV ABROR ALIYOR OGLI</t>
+          <t>BEGIMOVA DILBAR TALIPBAEVNA</t>
         </is>
       </c>
       <c r="M208" s="2" t="inlineStr">
         <is>
-          <t>AD1590961</t>
+          <t>AC2328553</t>
         </is>
       </c>
       <c r="N208" s="2" t="n">
-        <v>32802966860017</v>
+        <v>42306750520013</v>
       </c>
       <c r="O208" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419 27.07.2022</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
         </is>
       </c>
       <c r="P208" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR MIRZO GOLIB MFY MUHANDISLAR 3 UY</t>
-        </is>
-      </c>
-      <c r="Q208" s="2" t="inlineStr">
-        <is>
-          <t>998992222196 998997984255</t>
-        </is>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR AMIR TEMUR KOCHSSI  11 UY 99 XONADON</t>
+        </is>
+      </c>
+      <c r="Q208" s="2" t="n">
+        <v>978721262</v>
       </c>
       <c r="R208" s="2" t="inlineStr">
         <is>
@@ -14736,65 +14736,65 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B209" s="3" t="n">
-        <v>45741</v>
+        <v>45744</v>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>Б</t>
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E209" s="2" t="n">
-        <v>393</v>
+        <v>91</v>
       </c>
       <c r="F209" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G209" s="2" t="n">
-        <v>56.21</v>
+        <v>55.1</v>
       </c>
       <c r="H209" s="4" t="n">
-        <v>430006500</v>
+        <v>429780000</v>
       </c>
       <c r="I209" s="4" t="n">
-        <v>7650000</v>
+        <v>7800000</v>
       </c>
       <c r="J209" s="5" t="n">
         <v>0.3</v>
       </c>
       <c r="K209" s="4" t="n">
-        <v>129001950</v>
+        <v>128934000</v>
       </c>
       <c r="L209" s="2" t="inlineStr">
         <is>
-          <t>BEGIMOVA DILBAR TALIPBAEVNA</t>
+          <t>DJUMABAYEV DAVLATBAY XALILLAYEVICH</t>
         </is>
       </c>
       <c r="M209" s="2" t="inlineStr">
         <is>
-          <t>AC2328553</t>
+          <t>AD4758109</t>
         </is>
       </c>
       <c r="N209" s="2" t="n">
-        <v>42306750520013</v>
+        <v>32101690221629</v>
       </c>
       <c r="O209" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
+          <t>IIV 60006 03.10.2023</t>
         </is>
       </c>
       <c r="P209" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR AMIR TEMUR KOCHSSI  11 UY 99 XONADON</t>
+          <t>TOSHKENT SGAHAR CHILONZOR TUMANI SOGALLI OTA 83 UY 13XONADON</t>
         </is>
       </c>
       <c r="Q209" s="2" t="n">
-        <v>978721262</v>
+        <v>998908087720</v>
       </c>
       <c r="R209" s="2" t="inlineStr">
         <is>
@@ -14804,10 +14804,10 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B210" s="3" t="n">
-        <v>45744</v>
+        <v>45047</v>
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
@@ -14815,190 +14815,190 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E210" s="2" t="n">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="F210" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G210" s="2" t="n">
-        <v>55.1</v>
+        <v>28.02</v>
       </c>
       <c r="H210" s="4" t="n">
-        <v>429780000</v>
+        <v>143022000</v>
       </c>
       <c r="I210" s="4" t="n">
-        <v>7800000</v>
+        <v>6050000</v>
       </c>
       <c r="J210" s="5" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K210" s="4" t="n">
-        <v>128934000</v>
+        <v>0</v>
       </c>
       <c r="L210" s="2" t="inlineStr">
         <is>
-          <t>DJUMABAYEV DAVLATBAY XALILLAYEVICH</t>
+          <t>NISHANOV AZIZ YASHINOVICH</t>
         </is>
       </c>
       <c r="M210" s="2" t="inlineStr">
         <is>
-          <t>AD4758109</t>
+          <t>AD1571420</t>
         </is>
       </c>
       <c r="N210" s="2" t="n">
-        <v>32101690221629</v>
+        <v>30103976890015</v>
       </c>
       <c r="O210" s="2" t="inlineStr">
         <is>
-          <t>IIV 60006 03.10.2023</t>
+          <t>IIV 30401 20.07.2022</t>
         </is>
       </c>
       <c r="P210" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SGAHAR CHILONZOR TUMANI SOGALLI OTA 83 UY 13XONADON</t>
+          <t>FARGONA VILOYATI FARHONA SHAHAR SAKKOKIY KUCHSI 10 UY</t>
         </is>
       </c>
       <c r="Q210" s="2" t="n">
-        <v>998908087720</v>
+        <v>998982768888</v>
       </c>
       <c r="R210" s="2" t="inlineStr">
         <is>
-          <t>1 Отдел Продаж</t>
+          <t>Руоводство</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B211" s="3" t="n">
-        <v>45047</v>
+        <v>45748</v>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E211" s="2" t="n">
-        <v>131</v>
+        <v>355</v>
       </c>
       <c r="F211" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G211" s="2" t="n">
-        <v>28.02</v>
+        <v>69.38</v>
       </c>
       <c r="H211" s="4" t="n">
-        <v>143022000</v>
+        <v>457908000</v>
       </c>
       <c r="I211" s="4" t="n">
-        <v>6050000</v>
+        <v>6600000</v>
       </c>
       <c r="J211" s="5" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K211" s="4" t="n">
-        <v>0</v>
+        <v>137372400</v>
       </c>
       <c r="L211" s="2" t="inlineStr">
         <is>
-          <t>NISHANOV AZIZ YASHINOVICH</t>
+          <t>SHARIPOV UMID LATIPOVICH</t>
         </is>
       </c>
       <c r="M211" s="2" t="inlineStr">
         <is>
-          <t>AD1571420</t>
+          <t>AB9473185</t>
         </is>
       </c>
       <c r="N211" s="2" t="n">
-        <v>30103976890015</v>
+        <v>305088602700700</v>
       </c>
       <c r="O211" s="2" t="inlineStr">
         <is>
-          <t>IIV 30401 20.07.2022</t>
+          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI IIB</t>
         </is>
       </c>
       <c r="P211" s="2" t="inlineStr">
         <is>
-          <t>FARGONA VILOYATI FARHONA SHAHAR SAKKOKIY KUCHSI 10 UY</t>
+          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI QORASUV 3 5 UY 21 XONADON</t>
         </is>
       </c>
       <c r="Q211" s="2" t="n">
-        <v>998982768888</v>
+        <v>998909975645</v>
       </c>
       <c r="R211" s="2" t="inlineStr">
         <is>
-          <t>Руоводство</t>
+          <t>1 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B212" s="3" t="n">
         <v>45748</v>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Б</t>
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E212" s="2" t="n">
-        <v>355</v>
+        <v>104</v>
       </c>
       <c r="F212" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G212" s="2" t="n">
-        <v>69.38</v>
+        <v>41.79</v>
       </c>
       <c r="H212" s="4" t="n">
-        <v>457908000</v>
+        <v>309246000</v>
       </c>
       <c r="I212" s="4" t="n">
-        <v>6600000</v>
+        <v>7400000</v>
       </c>
       <c r="J212" s="5" t="n">
         <v>0.3</v>
       </c>
       <c r="K212" s="4" t="n">
-        <v>137372400</v>
+        <v>92773800</v>
       </c>
       <c r="L212" s="2" t="inlineStr">
         <is>
-          <t>SHARIPOV UMID LATIPOVICH</t>
+          <t>DJUMABAYEVA SALOMAT KAMILJANOVNA</t>
         </is>
       </c>
       <c r="M212" s="2" t="inlineStr">
         <is>
-          <t>AB9473185</t>
+          <t>AD3220320</t>
         </is>
       </c>
       <c r="N212" s="2" t="n">
-        <v>305088602700700</v>
+        <v>40203820170056</v>
       </c>
       <c r="O212" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI IIB</t>
+          <t>IIV 26266 05.05.2023</t>
         </is>
       </c>
       <c r="P212" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI QORASUV 3 5 UY 21 XONADON</t>
+          <t>TOSHKENT SHAHAR UNUSOBOD TUMANI TIKLANISH 5 TOR KUCHASI 20UY</t>
         </is>
       </c>
       <c r="Q212" s="2" t="n">
-        <v>998909975645</v>
+        <v>998900058535</v>
       </c>
       <c r="R212" s="2" t="inlineStr">
         <is>
@@ -15008,30 +15008,30 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B213" s="3" t="n">
-        <v>45748</v>
+        <v>45765</v>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E213" s="2" t="n">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="F213" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G213" s="2" t="n">
-        <v>41.79</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="H213" s="4" t="n">
-        <v>309246000</v>
+        <v>513856000</v>
       </c>
       <c r="I213" s="4" t="n">
         <v>7400000</v>
@@ -15040,33 +15040,33 @@
         <v>0.3</v>
       </c>
       <c r="K213" s="4" t="n">
-        <v>92773800</v>
+        <v>154156800</v>
       </c>
       <c r="L213" s="2" t="inlineStr">
         <is>
-          <t>DJUMABAYEVA SALOMAT KAMILJANOVNA</t>
+          <t>YULDASHEV ODILJON SAYDALI OGLI</t>
         </is>
       </c>
       <c r="M213" s="2" t="inlineStr">
         <is>
-          <t>AD3220320</t>
+          <t>AD0744942</t>
         </is>
       </c>
       <c r="N213" s="2" t="n">
-        <v>40203820170056</v>
+        <v>30407976860019</v>
       </c>
       <c r="O213" s="2" t="inlineStr">
         <is>
-          <t>IIV 26266 05.05.2023</t>
+          <t>IIV 27419</t>
         </is>
       </c>
       <c r="P213" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR UNUSOBOD TUMANI TIKLANISH 5 TOR KUCHASI 20UY</t>
+          <t>TOSHKENT VILOYATI CHIRCHIK SHAHRI SHUHRAT KUCHASI 2A UY</t>
         </is>
       </c>
       <c r="Q213" s="2" t="n">
-        <v>998900058535</v>
+        <v>998903332834</v>
       </c>
       <c r="R213" s="2" t="inlineStr">
         <is>
@@ -15076,21 +15076,21 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B214" s="3" t="n">
-        <v>45765</v>
+        <v>45750</v>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E214" s="2" t="n">
-        <v>30</v>
+        <v>441</v>
       </c>
       <c r="F214" s="2" t="n">
         <v>2</v>
@@ -15099,42 +15099,42 @@
         <v>74.06999999999999</v>
       </c>
       <c r="H214" s="4" t="n">
-        <v>513856000</v>
+        <v>444416000</v>
       </c>
       <c r="I214" s="4" t="n">
-        <v>7400000</v>
+        <v>6400000</v>
       </c>
       <c r="J214" s="5" t="n">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="K214" s="4" t="n">
-        <v>154156800</v>
+        <v>100438016</v>
       </c>
       <c r="L214" s="2" t="inlineStr">
         <is>
-          <t>YULDASHEV ODILJON SAYDALI OGLI</t>
+          <t>OLLOBERGANOV SHOKIR RAVSHANBEK OGLI</t>
         </is>
       </c>
       <c r="M214" s="2" t="inlineStr">
         <is>
-          <t>AD0744942</t>
+          <t>AD9003800</t>
         </is>
       </c>
       <c r="N214" s="2" t="n">
-        <v>30407976860019</v>
+        <v>30112976860018</v>
       </c>
       <c r="O214" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419</t>
+          <t>IIV 35204 14.10.2024</t>
         </is>
       </c>
       <c r="P214" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIK SHAHRI SHUHRAT KUCHASI 2A UY</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR  1 KICHIQ NOXIYA 12UY 54 XONADON</t>
         </is>
       </c>
       <c r="Q214" s="2" t="n">
-        <v>998903332834</v>
+        <v>998937120097</v>
       </c>
       <c r="R214" s="2" t="inlineStr">
         <is>
@@ -15143,66 +15143,66 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
-        <v>221</v>
+      <c r="A215" s="1" t="n">
+        <v>222</v>
       </c>
       <c r="B215" s="3" t="n">
         <v>45750</v>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>Г</t>
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E215" s="2" t="n">
-        <v>441</v>
+        <v>282</v>
       </c>
       <c r="F215" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G215" s="2" t="n">
-        <v>74.06999999999999</v>
+        <v>40.04</v>
       </c>
       <c r="H215" s="4" t="n">
-        <v>444416000</v>
+        <v>260260000</v>
       </c>
       <c r="I215" s="4" t="n">
-        <v>6400000</v>
+        <v>6500000</v>
       </c>
       <c r="J215" s="5" t="n">
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
       <c r="K215" s="4" t="n">
-        <v>100438016</v>
+        <v>91091000</v>
       </c>
       <c r="L215" s="2" t="inlineStr">
         <is>
-          <t>OLLOBERGANOV SHOKIR RAVSHANBEK OGLI</t>
+          <t>JALILOV SHOHRUX SHUKUR OGLI</t>
         </is>
       </c>
       <c r="M215" s="2" t="inlineStr">
         <is>
-          <t>AD9003800</t>
+          <t>AD2897527</t>
         </is>
       </c>
       <c r="N215" s="2" t="n">
-        <v>30112976860018</v>
+        <v>30907943890015</v>
       </c>
       <c r="O215" s="2" t="inlineStr">
         <is>
-          <t>IIV 35204 14.10.2024</t>
+          <t>IIV 18206 29.03.2023</t>
         </is>
       </c>
       <c r="P215" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR  1 KICHIQ NOXIYA 12UY 54 XONADON</t>
+          <t>SAMARKAND VILOYATI BULUNGUR TUMANI OLMOZOR MFY 38UY</t>
         </is>
       </c>
       <c r="Q215" s="2" t="n">
-        <v>998937120097</v>
+        <v>998952120794</v>
       </c>
       <c r="R215" s="2" t="inlineStr">
         <is>
@@ -15211,66 +15211,66 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>222</v>
+      <c r="A216" s="2" t="n">
+        <v>223</v>
       </c>
       <c r="B216" s="3" t="n">
-        <v>45750</v>
+        <v>45751</v>
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>Г</t>
+          <t>Б</t>
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E216" s="2" t="n">
-        <v>282</v>
+        <v>124</v>
       </c>
       <c r="F216" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G216" s="2" t="n">
-        <v>40.04</v>
+        <v>28.02</v>
       </c>
       <c r="H216" s="4" t="n">
-        <v>260260000</v>
+        <v>153660000</v>
       </c>
       <c r="I216" s="4" t="n">
         <v>6500000</v>
       </c>
       <c r="J216" s="5" t="n">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="K216" s="4" t="n">
-        <v>91091000</v>
+        <v>153660000</v>
       </c>
       <c r="L216" s="2" t="inlineStr">
         <is>
-          <t>JALILOV SHOHRUX SHUKUR OGLI</t>
+          <t>ABDULLAYEVA FERUZA SHUXRAT QIZI</t>
         </is>
       </c>
       <c r="M216" s="2" t="inlineStr">
         <is>
-          <t>AD2897527</t>
+          <t>AB9787934</t>
         </is>
       </c>
       <c r="N216" s="2" t="n">
-        <v>30907943890015</v>
+        <v>41508950230069</v>
       </c>
       <c r="O216" s="2" t="inlineStr">
         <is>
-          <t>IIV 18206 29.03.2023</t>
+          <t>TOSHKENT SHAHAR SERGALI TUMANI IIB</t>
         </is>
       </c>
       <c r="P216" s="2" t="inlineStr">
         <is>
-          <t>SAMARKAND VILOYATI BULUNGUR TUMANI OLMOZOR MFY 38UY</t>
+          <t>TOSHKENT SHAHAR SERGALI TUMANI YOLDOSH 1 52 UY 1 XONADON</t>
         </is>
       </c>
       <c r="Q216" s="2" t="n">
-        <v>998952120794</v>
+        <v>998990556296</v>
       </c>
       <c r="R216" s="2" t="inlineStr">
         <is>
@@ -15280,66 +15280,64 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B217" s="3" t="n">
-        <v>45751</v>
+        <v>45752</v>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E217" s="2" t="n">
-        <v>124</v>
+        <v>456</v>
       </c>
       <c r="F217" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G217" s="2" t="n">
-        <v>28.02</v>
+        <v>56.21</v>
       </c>
       <c r="H217" s="4" t="n">
-        <v>153660000</v>
+        <v>309155000</v>
       </c>
       <c r="I217" s="4" t="n">
-        <v>6500000</v>
+        <v>5500000</v>
       </c>
       <c r="J217" s="5" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K217" s="4" t="n">
-        <v>153660000</v>
+        <v>216408500</v>
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>ABDULLAYEVA FERUZA SHUXRAT QIZI</t>
+          <t>KULIKOVA GUZAL FARITOVNA</t>
         </is>
       </c>
       <c r="M217" s="2" t="inlineStr">
         <is>
-          <t>AB9787934</t>
+          <t>AD1213603</t>
         </is>
       </c>
       <c r="N217" s="2" t="n">
-        <v>41508950230069</v>
+        <v>42609966860051</v>
       </c>
       <c r="O217" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR SERGALI TUMANI IIB</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
         </is>
       </c>
       <c r="P217" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR SERGALI TUMANI YOLDOSH 1 52 UY 1 XONADON</t>
-        </is>
-      </c>
-      <c r="Q217" s="2" t="n">
-        <v>998990556296</v>
-      </c>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR 2 MIKRORAYON 9 DOM 48 KVARTIRA</t>
+        </is>
+      </c>
+      <c r="Q217" s="2" t="n"/>
       <c r="R217" s="2" t="inlineStr">
         <is>
           <t>1 Отдел Продаж</t>
@@ -15347,65 +15345,67 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
-        <v>224</v>
+      <c r="A218" s="1" t="n">
+        <v>225</v>
       </c>
       <c r="B218" s="3" t="n">
-        <v>45752</v>
+        <v>45759</v>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>Г</t>
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E218" s="2" t="n">
-        <v>456</v>
+        <v>296</v>
       </c>
       <c r="F218" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G218" s="2" t="n">
-        <v>56.21</v>
+        <v>75.98</v>
       </c>
       <c r="H218" s="4" t="n">
-        <v>309155000</v>
+        <v>414091000</v>
       </c>
       <c r="I218" s="4" t="n">
-        <v>5500000</v>
+        <v>5450000</v>
       </c>
       <c r="J218" s="5" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="K218" s="4" t="n">
-        <v>216408500</v>
+        <v>414091000</v>
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>KULIKOVA GUZAL FARITOVNA</t>
+          <t>KAZAXBAYEV SHUHRAT REJEPOVICH</t>
         </is>
       </c>
       <c r="M218" s="2" t="inlineStr">
         <is>
-          <t>AD1213603</t>
+          <t>AD0066864</t>
         </is>
       </c>
       <c r="N218" s="2" t="n">
-        <v>42609966860051</v>
+        <v>31105823471014</v>
       </c>
       <c r="O218" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
+          <t>IIV 26273</t>
         </is>
       </c>
       <c r="P218" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR 2 MIKRORAYON 9 DOM 48 KVARTIRA</t>
-        </is>
-      </c>
-      <c r="Q218" s="2" t="n"/>
+          <t>TOSHKENT SHAHAR MUROBOD TUMANI FARGONA YULI KICHASI 2 MUYURISH 80 UY</t>
+        </is>
+      </c>
+      <c r="Q218" s="2" t="n">
+        <v>998977721820</v>
+      </c>
       <c r="R218" s="2" t="inlineStr">
         <is>
           <t>1 Отдел Продаж</t>
@@ -15413,66 +15413,68 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>225</v>
+      <c r="A219" s="2" t="n">
+        <v>226</v>
       </c>
       <c r="B219" s="3" t="n">
-        <v>45759</v>
+        <v>45824</v>
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>Г</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E219" s="2" t="n">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="F219" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G219" s="2" t="n">
-        <v>75.98</v>
+        <v>40.8</v>
       </c>
       <c r="H219" s="4" t="n">
-        <v>414091000</v>
+        <v>255000000</v>
       </c>
       <c r="I219" s="4" t="n">
-        <v>5450000</v>
+        <v>6250000</v>
       </c>
       <c r="J219" s="5" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="K219" s="4" t="n">
-        <v>414091000</v>
+        <v>244545000</v>
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>KAZAXBAYEV SHUHRAT REJEPOVICH</t>
+          <t>XABIBULLAYEV SAMANDAR XABIBULLAYEVICH</t>
         </is>
       </c>
       <c r="M219" s="2" t="inlineStr">
         <is>
-          <t>AD0066864</t>
+          <t>AD3929658</t>
         </is>
       </c>
       <c r="N219" s="2" t="n">
-        <v>31105823471014</v>
+        <v>30906853110060</v>
       </c>
       <c r="O219" s="2" t="inlineStr">
         <is>
-          <t>IIV 26273</t>
+          <t>IIV27419</t>
         </is>
       </c>
       <c r="P219" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR MUROBOD TUMANI FARGONA YULI KICHASI 2 MUYURISH 80 UY</t>
-        </is>
-      </c>
-      <c r="Q219" s="2" t="n">
-        <v>998977721820</v>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR RUDAKI 8/14</t>
+        </is>
+      </c>
+      <c r="Q219" s="2" t="inlineStr">
+        <is>
+          <t>998998540931 998977028531</t>
+        </is>
       </c>
       <c r="R219" s="2" t="inlineStr">
         <is>
@@ -15482,66 +15484,66 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B220" s="3" t="n">
-        <v>45824</v>
+        <v>45773</v>
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>В</t>
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E220" s="2" t="n">
-        <v>425</v>
+        <v>230</v>
       </c>
       <c r="F220" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G220" s="2" t="n">
-        <v>40.8</v>
+        <v>56.56</v>
       </c>
       <c r="H220" s="4" t="n">
-        <v>255000000</v>
+        <v>327117500</v>
       </c>
       <c r="I220" s="4" t="n">
-        <v>6250000</v>
+        <v>5750000</v>
       </c>
       <c r="J220" s="5" t="n">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="K220" s="4" t="n">
-        <v>244545000</v>
+        <v>163558750</v>
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>XABIBULLAYEV SAMANDAR XABIBULLAYEVICH</t>
+          <t>UTKINA SVETLANA SERGEYEVNA</t>
         </is>
       </c>
       <c r="M220" s="2" t="inlineStr">
         <is>
-          <t>AD3929658</t>
+          <t>AD5237646</t>
         </is>
       </c>
       <c r="N220" s="2" t="n">
-        <v>30906853110060</v>
+        <v>42607810200022</v>
       </c>
       <c r="O220" s="2" t="inlineStr">
         <is>
-          <t>IIV27419</t>
+          <t>IIV 60009 27.11.2023</t>
         </is>
       </c>
       <c r="P220" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR RUDAKI 8/14</t>
+          <t>TOSHKENT SHAHAR MUROBOD TUMANI AFROSIYOB KUCHASI 23/1 64 UY</t>
         </is>
       </c>
       <c r="Q220" s="2" t="inlineStr">
         <is>
-          <t>998998540931 998977028531</t>
+          <t>998909778700 998909262112</t>
         </is>
       </c>
       <c r="R220" s="2" t="inlineStr">
@@ -15552,67 +15554,65 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B221" s="3" t="n">
-        <v>45773</v>
+        <v>45777</v>
       </c>
       <c r="C221" s="2" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E221" s="2" t="n">
-        <v>230</v>
+        <v>72</v>
       </c>
       <c r="F221" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G221" s="2" t="n">
-        <v>56.56</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="H221" s="4" t="n">
-        <v>327117500</v>
+        <v>423584000</v>
       </c>
       <c r="I221" s="4" t="n">
-        <v>5750000</v>
+        <v>6100000</v>
       </c>
       <c r="J221" s="5" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K221" s="4" t="n">
-        <v>163558750</v>
+        <v>127075200</v>
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>UTKINA SVETLANA SERGEYEVNA</t>
+          <t>SHERMATOV ILYOSJON SALIMJONOVICH</t>
         </is>
       </c>
       <c r="M221" s="2" t="inlineStr">
         <is>
-          <t>AD5237646</t>
+          <t>AE2008739</t>
         </is>
       </c>
       <c r="N221" s="2" t="n">
-        <v>42607810200022</v>
+        <v>30107786930011</v>
       </c>
       <c r="O221" s="2" t="inlineStr">
         <is>
-          <t>IIV 60009 27.11.2023</t>
+          <t>IIV 27419 19.03.2025</t>
         </is>
       </c>
       <c r="P221" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR MUROBOD TUMANI AFROSIYOB KUCHASI 23/1 64 UY</t>
-        </is>
-      </c>
-      <c r="Q221" s="2" t="inlineStr">
-        <is>
-          <t>998909778700 998909262112</t>
-        </is>
+          <t>TOSHKENT VILOYATI CHIRCHIK SHAHRI KIMYOGARLAR MFY GOLIBLAR KUCHASI 16 UY</t>
+        </is>
+      </c>
+      <c r="Q221" s="2" t="n">
+        <v>998914642130</v>
       </c>
       <c r="R221" s="2" t="inlineStr">
         <is>
@@ -15622,65 +15622,65 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B222" s="3" t="n">
-        <v>45777</v>
+        <v>45778</v>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>В</t>
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E222" s="2" t="n">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="F222" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G222" s="2" t="n">
-        <v>74.06999999999999</v>
+        <v>40.04</v>
       </c>
       <c r="H222" s="4" t="n">
-        <v>423584000</v>
+        <v>234234000</v>
       </c>
       <c r="I222" s="4" t="n">
-        <v>6100000</v>
+        <v>5850000</v>
       </c>
       <c r="J222" s="5" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K222" s="4" t="n">
-        <v>127075200</v>
+        <v>234234000</v>
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>SHERMATOV ILYOSJON SALIMJONOVICH</t>
+          <t>MATYAKUBOVA SHAXLO SAPARBAYEVNA</t>
         </is>
       </c>
       <c r="M222" s="2" t="inlineStr">
         <is>
-          <t>AE2008739</t>
+          <t>AB3231286</t>
         </is>
       </c>
       <c r="N222" s="2" t="n">
-        <v>30107786930011</v>
+        <v>40204873090049</v>
       </c>
       <c r="O222" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419 19.03.2025</t>
+          <t>XORAZM VILOYATI QOSHKOPIR TUMANI IIB 24.02.2016</t>
         </is>
       </c>
       <c r="P222" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIK SHAHRI KIMYOGARLAR MFY GOLIBLAR KUCHASI 16 UY</t>
+          <t>XORAZM VILOYATI QOSHKOPIR TUMANI N. KUBRO 66 UY</t>
         </is>
       </c>
       <c r="Q222" s="2" t="n">
-        <v>998914642130</v>
+        <v>998938648844</v>
       </c>
       <c r="R222" s="2" t="inlineStr">
         <is>
@@ -15690,65 +15690,65 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B223" s="3" t="n">
-        <v>45778</v>
+        <v>45799</v>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>Б</t>
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E223" s="2" t="n">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="F223" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G223" s="2" t="n">
-        <v>40.04</v>
+        <v>28.08</v>
       </c>
       <c r="H223" s="4" t="n">
-        <v>234234000</v>
+        <v>156024000</v>
       </c>
       <c r="I223" s="4" t="n">
-        <v>5850000</v>
+        <v>6600000</v>
       </c>
       <c r="J223" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K223" s="4" t="n">
-        <v>234234000</v>
+        <v>156024000</v>
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>MATYAKUBOVA SHAXLO SAPARBAYEVNA</t>
+          <t>LI VERONIKA VITALEVNA</t>
         </is>
       </c>
       <c r="M223" s="2" t="inlineStr">
         <is>
-          <t>AB3231286</t>
+          <t>AD4121003</t>
         </is>
       </c>
       <c r="N223" s="2" t="n">
-        <v>40204873090049</v>
+        <v>41806861630038</v>
       </c>
       <c r="O223" s="2" t="inlineStr">
         <is>
-          <t>XORAZM VILOYATI QOSHKOPIR TUMANI IIB 24.02.2016</t>
+          <t>IIV 26291 31.07.2023</t>
         </is>
       </c>
       <c r="P223" s="2" t="inlineStr">
         <is>
-          <t>XORAZM VILOYATI QOSHKOPIR TUMANI N. KUBRO 66 UY</t>
+          <t>TOSHKENT VILOYATI CHIRCHIK SHAHAR 10 KICHIK NOXYA 18 UY 20 XONADON</t>
         </is>
       </c>
       <c r="Q223" s="2" t="n">
-        <v>998938648844</v>
+        <v>998974782313</v>
       </c>
       <c r="R223" s="2" t="inlineStr">
         <is>
@@ -15757,66 +15757,66 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
-        <v>230</v>
+      <c r="A224" s="1" t="n">
+        <v>231</v>
       </c>
       <c r="B224" s="3" t="n">
-        <v>45799</v>
+        <v>45782</v>
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>Г</t>
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E224" s="2" t="n">
-        <v>123</v>
+        <v>268</v>
       </c>
       <c r="F224" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G224" s="2" t="n">
-        <v>28.08</v>
+        <v>56.56</v>
       </c>
       <c r="H224" s="4" t="n">
-        <v>156024000</v>
+        <v>415297000</v>
       </c>
       <c r="I224" s="4" t="n">
-        <v>6600000</v>
+        <v>7300000</v>
       </c>
       <c r="J224" s="5" t="n">
-        <v>1</v>
+        <v>0.31</v>
       </c>
       <c r="K224" s="4" t="n">
-        <v>156024000</v>
+        <v>129987961</v>
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>LI VERONIKA VITALEVNA</t>
+          <t>DJMUXADZE INNA IVANOVNA</t>
         </is>
       </c>
       <c r="M224" s="2" t="inlineStr">
         <is>
-          <t>AD4121003</t>
+          <t>AE1294834</t>
         </is>
       </c>
       <c r="N224" s="2" t="n">
-        <v>41806861630038</v>
+        <v>40104776860029</v>
       </c>
       <c r="O224" s="2" t="inlineStr">
         <is>
-          <t>IIV 26291 31.07.2023</t>
+          <t>IIV60120 BUXORO SHAHRI 21.01.2025</t>
         </is>
       </c>
       <c r="P224" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIK SHAHAR 10 KICHIK NOXYA 18 UY 20 XONADON</t>
+          <t>TOSHKENT VILOYATI CHIRCHIK SHAHRI ZAKOVAT KUCHASI 13DOM 6 UY</t>
         </is>
       </c>
       <c r="Q224" s="2" t="n">
-        <v>998974782313</v>
+        <v>998935729356</v>
       </c>
       <c r="R224" s="2" t="inlineStr">
         <is>
@@ -15825,66 +15825,66 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>231</v>
+      <c r="A225" s="2" t="n">
+        <v>232</v>
       </c>
       <c r="B225" s="3" t="n">
         <v>45782</v>
       </c>
       <c r="C225" s="2" t="inlineStr">
         <is>
-          <t>Г</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E225" s="2" t="n">
-        <v>268</v>
+        <v>448</v>
       </c>
       <c r="F225" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G225" s="2" t="n">
-        <v>56.56</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="H225" s="4" t="n">
-        <v>415297000</v>
+        <v>437472000</v>
       </c>
       <c r="I225" s="4" t="n">
-        <v>7300000</v>
+        <v>6300000</v>
       </c>
       <c r="J225" s="5" t="n">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="K225" s="4" t="n">
-        <v>129987961</v>
+        <v>100181088</v>
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>DJMUXADZE INNA IVANOVNA</t>
+          <t>URAZALIYEV XUSNIDDIN XUSANOVICH</t>
         </is>
       </c>
       <c r="M225" s="2" t="inlineStr">
         <is>
-          <t>AE1294834</t>
+          <t>AD2264289</t>
         </is>
       </c>
       <c r="N225" s="2" t="n">
-        <v>40104776860029</v>
+        <v>30907892880057</v>
       </c>
       <c r="O225" s="2" t="inlineStr">
         <is>
-          <t>IIV60120 BUXORO SHAHRI 21.01.2025</t>
+          <t>IIV 24216 28.12.2022</t>
         </is>
       </c>
       <c r="P225" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIK SHAHRI ZAKOVAT KUCHASI 13DOM 6 UY</t>
+          <t>SIRDARYO VILOYATI SAYXUNOBOD TUMANI OBODON MFY XAMID OLIMJON KUCHASI 33 UY</t>
         </is>
       </c>
       <c r="Q225" s="2" t="n">
-        <v>998935729356</v>
+        <v>998993323404</v>
       </c>
       <c r="R225" s="2" t="inlineStr">
         <is>
@@ -15894,7 +15894,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B226" s="3" t="n">
         <v>45782</v>
@@ -15905,10 +15905,10 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E226" s="2" t="n">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="F226" s="2" t="n">
         <v>2</v>
@@ -15923,36 +15923,36 @@
         <v>6300000</v>
       </c>
       <c r="J226" s="5" t="n">
-        <v>0.23</v>
+        <v>0.5</v>
       </c>
       <c r="K226" s="4" t="n">
-        <v>100181088</v>
+        <v>218736000</v>
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>URAZALIYEV XUSNIDDIN XUSANOVICH</t>
+          <t>BAXRIDDINOV ABROR HAKIM OGLI</t>
         </is>
       </c>
       <c r="M226" s="2" t="inlineStr">
         <is>
-          <t>AD2264289</t>
+          <t>AC0640153</t>
         </is>
       </c>
       <c r="N226" s="2" t="n">
-        <v>30907892880057</v>
+        <v>32909932600098</v>
       </c>
       <c r="O226" s="2" t="inlineStr">
         <is>
-          <t>IIV 24216 28.12.2022</t>
+          <t>QASGHQADARYO VILOYATI QAMASHI TUMANI IIB 06.08.2018</t>
         </is>
       </c>
       <c r="P226" s="2" t="inlineStr">
         <is>
-          <t>SIRDARYO VILOYATI SAYXUNOBOD TUMANI OBODON MFY XAMID OLIMJON KUCHASI 33 UY</t>
+          <t>QASGHQADARYO VILOYATI QAMASHI TUMANI URTADARA KUCHASI 30 UY</t>
         </is>
       </c>
       <c r="Q226" s="2" t="n">
-        <v>998993323404</v>
+        <v>998885855508</v>
       </c>
       <c r="R226" s="2" t="inlineStr">
         <is>
@@ -15962,65 +15962,65 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B227" s="3" t="n">
-        <v>45782</v>
+        <v>45787</v>
       </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>В</t>
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E227" s="2" t="n">
-        <v>434</v>
+        <v>220</v>
       </c>
       <c r="F227" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G227" s="2" t="n">
-        <v>74.06999999999999</v>
+        <v>75.98</v>
       </c>
       <c r="H227" s="4" t="n">
-        <v>437472000</v>
+        <v>493870000</v>
       </c>
       <c r="I227" s="4" t="n">
-        <v>6300000</v>
+        <v>6500000</v>
       </c>
       <c r="J227" s="5" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K227" s="4" t="n">
-        <v>218736000</v>
+        <v>148161000</v>
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>BAXRIDDINOV ABROR HAKIM OGLI</t>
+          <t>TURDIYEV TIMUR QAHRAMON OGLI</t>
         </is>
       </c>
       <c r="M227" s="2" t="inlineStr">
         <is>
-          <t>AC0640153</t>
+          <t>AB7317381</t>
         </is>
       </c>
       <c r="N227" s="2" t="n">
-        <v>32909932600098</v>
+        <v>51507016860030</v>
       </c>
       <c r="O227" s="2" t="inlineStr">
         <is>
-          <t>QASGHQADARYO VILOYATI QAMASHI TUMANI IIB 06.08.2018</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
         </is>
       </c>
       <c r="P227" s="2" t="inlineStr">
         <is>
-          <t>QASGHQADARYO VILOYATI QAMASHI TUMANI URTADARA KUCHASI 30 UY</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR AMIR TEMUR KOCHASI 124 UY 13 XONADON</t>
         </is>
       </c>
       <c r="Q227" s="2" t="n">
-        <v>998885855508</v>
+        <v>998900391604</v>
       </c>
       <c r="R227" s="2" t="inlineStr">
         <is>
@@ -16030,175 +16030,172 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B228" s="3" t="n">
-        <v>45787</v>
+        <v>45821</v>
       </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E228" s="2" t="n">
-        <v>220</v>
+        <v>451</v>
       </c>
       <c r="F228" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G228" s="2" t="n">
-        <v>75.98</v>
+        <v>52.83</v>
       </c>
       <c r="H228" s="4" t="n">
-        <v>493870000</v>
+        <v>316800000</v>
       </c>
       <c r="I228" s="4" t="n">
-        <v>6500000</v>
+        <v>6400000</v>
       </c>
       <c r="J228" s="5" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K228" s="4" t="n">
-        <v>148161000</v>
+        <v>316800000</v>
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>TURDIYEV TIMUR QAHRAMON OGLI</t>
+          <t>ERGASHEV  NODIRJON JASURBEKOVICH</t>
         </is>
       </c>
       <c r="M228" s="2" t="inlineStr">
         <is>
-          <t>AB7317381</t>
+          <t>AD1100367</t>
         </is>
       </c>
       <c r="N228" s="2" t="n">
-        <v>51507016860030</v>
+        <v>52001056150027</v>
       </c>
       <c r="O228" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
+          <t>IIV18403  02/02/2021</t>
         </is>
       </c>
       <c r="P228" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR AMIR TEMUR KOCHASI 124 UY 13 XONADON</t>
+          <t>SAMARQAND VILOYATI  TAYLAQ TUMANI  QUNDUZAK QISHLOGI 64-UY</t>
         </is>
       </c>
       <c r="Q228" s="2" t="n">
-        <v>998900391604</v>
+        <v>998933479739</v>
       </c>
       <c r="R228" s="2" t="inlineStr">
         <is>
-          <t>1 Отдел Продаж</t>
+          <t>Руоводство</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B229" s="3" t="n">
-        <v>45821</v>
+        <v>45788</v>
       </c>
       <c r="C229" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E229" s="2" t="n">
-        <v>451</v>
+        <v>373</v>
       </c>
       <c r="F229" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G229" s="2" t="n">
-        <v>52.83</v>
+        <v>69.38</v>
       </c>
       <c r="H229" s="4" t="n">
-        <v>316800000</v>
+        <v>409342000</v>
       </c>
       <c r="I229" s="4" t="n">
-        <v>6400000</v>
+        <v>5900000</v>
       </c>
       <c r="J229" s="5" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K229" s="4" t="n">
-        <v>316800000</v>
+        <v>122802600</v>
       </c>
       <c r="L229" s="2" t="inlineStr">
         <is>
-          <t>ERGASHEV  NODIRJON JASURBEKOVICH</t>
+          <t>MOYDINOV KAMARIDDIN ZAKIROVICH</t>
         </is>
       </c>
       <c r="M229" s="2" t="inlineStr">
         <is>
-          <t>AD1100367</t>
+          <t>AD0452507</t>
         </is>
       </c>
       <c r="N229" s="2" t="n">
-        <v>52001056150027</v>
+        <v>30302646860019</v>
       </c>
       <c r="O229" s="2" t="inlineStr">
         <is>
-          <t>IIV18403  02/02/2021</t>
+          <t>IIV 27419</t>
         </is>
       </c>
       <c r="P229" s="2" t="inlineStr">
         <is>
-          <t>SAMARQAND VILOYATI  TAYLAQ TUMANI  QUNDUZAK QISHLOGI 64-UY</t>
+          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI BIY KUCHASI 310 UY 16 XONADON</t>
         </is>
       </c>
       <c r="Q229" s="2" t="n">
-        <v>998933479739</v>
+        <v>998901111109</v>
       </c>
       <c r="R229" s="2" t="inlineStr">
         <is>
-          <t>Руоводство</t>
+          <t>1 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
-        <v>236</v>
+      <c r="A230" s="1" t="n">
+        <v>237</v>
       </c>
       <c r="B230" s="3" t="n">
         <v>45788</v>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Г</t>
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E230" s="2" t="n">
-        <v>373</v>
-      </c>
-      <c r="F230" s="2" t="n">
-        <v>2</v>
+        <v>238</v>
       </c>
       <c r="G230" s="2" t="n">
-        <v>69.38</v>
+        <v>54.48</v>
       </c>
       <c r="H230" s="4" t="n">
-        <v>409342000</v>
+        <v>697344000</v>
       </c>
       <c r="I230" s="4" t="n">
-        <v>5900000</v>
+        <v>12800000</v>
       </c>
       <c r="J230" s="5" t="n">
         <v>0.3</v>
       </c>
       <c r="K230" s="4" t="n">
-        <v>122802600</v>
+        <v>209203200</v>
       </c>
       <c r="L230" s="2" t="inlineStr">
         <is>
@@ -16233,63 +16230,66 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>237</v>
+      <c r="A231" s="2" t="n">
+        <v>238</v>
       </c>
       <c r="B231" s="3" t="n">
-        <v>45788</v>
+        <v>45792</v>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>Г</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E231" s="2" t="n">
-        <v>238</v>
+        <v>76</v>
+      </c>
+      <c r="F231" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="G231" s="2" t="n">
-        <v>54.48</v>
+        <v>49.5</v>
       </c>
       <c r="H231" s="4" t="n">
-        <v>697344000</v>
+        <v>289575000</v>
       </c>
       <c r="I231" s="4" t="n">
-        <v>12800000</v>
+        <v>5850000</v>
       </c>
       <c r="J231" s="5" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K231" s="4" t="n">
-        <v>209203200</v>
+        <v>144787500</v>
       </c>
       <c r="L231" s="2" t="inlineStr">
         <is>
-          <t>MOYDINOV KAMARIDDIN ZAKIROVICH</t>
+          <t>HUSANBOYEV RAVSHANBEK RUSTAMJON OGLI</t>
         </is>
       </c>
       <c r="M231" s="2" t="inlineStr">
         <is>
-          <t>AD0452507</t>
+          <t>AD3734806</t>
         </is>
       </c>
       <c r="N231" s="2" t="n">
-        <v>30302646860019</v>
+        <v>31008950470012</v>
       </c>
       <c r="O231" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419</t>
+          <t>IIV 27419 22.06.2023</t>
         </is>
       </c>
       <c r="P231" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI BIY KUCHASI 310 UY 16 XONADON</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR MUKIMIY KOCHASI 38 UY 43 XONADON</t>
         </is>
       </c>
       <c r="Q231" s="2" t="n">
-        <v>998901111109</v>
+        <v>998974646816</v>
       </c>
       <c r="R231" s="2" t="inlineStr">
         <is>
@@ -16299,201 +16299,201 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B232" s="3" t="n">
-        <v>45792</v>
+        <v>45799</v>
       </c>
       <c r="C232" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E232" s="2" t="n">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c r="F232" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G232" s="2" t="n">
-        <v>49.5</v>
+        <v>65.38</v>
       </c>
       <c r="H232" s="4" t="n">
-        <v>289575000</v>
+        <v>457660000</v>
       </c>
       <c r="I232" s="4" t="n">
-        <v>5850000</v>
+        <v>7000000</v>
       </c>
       <c r="J232" s="5" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K232" s="4" t="n">
-        <v>144787500</v>
+        <v>137298000</v>
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>HUSANBOYEV RAVSHANBEK RUSTAMJON OGLI</t>
+          <t>ERGASHEVA MATLUBA TURSUNBAYEVNA</t>
         </is>
       </c>
       <c r="M232" s="2" t="inlineStr">
         <is>
-          <t>AD3734806</t>
+          <t>AD2922002</t>
         </is>
       </c>
       <c r="N232" s="2" t="n">
-        <v>31008950470012</v>
+        <v>41407620470047</v>
       </c>
       <c r="O232" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419 22.06.2023</t>
+          <t>IIV 27419 01.04.2023</t>
         </is>
       </c>
       <c r="P232" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR MUKIMIY KOCHASI 38 UY 43 XONADON</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR GULZOR MFY HAYOT GULI KUCHASI 35 UY</t>
         </is>
       </c>
       <c r="Q232" s="2" t="n">
-        <v>998974646816</v>
+        <v>998978160077</v>
       </c>
       <c r="R232" s="2" t="inlineStr">
         <is>
-          <t>1 Отдел Продаж</t>
+          <t>2 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B233" s="3" t="n">
-        <v>45799</v>
+        <v>45803</v>
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>В</t>
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E233" s="2" t="n">
-        <v>353</v>
+        <v>214</v>
       </c>
       <c r="F233" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G233" s="2" t="n">
-        <v>65.38</v>
+        <v>75.98</v>
       </c>
       <c r="H233" s="4" t="n">
-        <v>457660000</v>
+        <v>500000066</v>
       </c>
       <c r="I233" s="4" t="n">
-        <v>7000000</v>
+        <v>6580680</v>
       </c>
       <c r="J233" s="5" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K233" s="4" t="n">
-        <v>137298000</v>
+        <v>500000066</v>
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>ERGASHEVA MATLUBA TURSUNBAYEVNA</t>
+          <t>NASIRIDINOV BAXROM RUZMATOVICH</t>
         </is>
       </c>
       <c r="M233" s="2" t="inlineStr">
         <is>
-          <t>AD2922002</t>
+          <t>AB1139325</t>
         </is>
       </c>
       <c r="N233" s="2" t="n">
-        <v>41407620470047</v>
+        <v>32909906780010</v>
       </c>
       <c r="O233" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419 01.04.2023</t>
+          <t>TOSHKENT VILOYATI QIBRAY TUMANI IIB</t>
         </is>
       </c>
       <c r="P233" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR GULZOR MFY HAYOT GULI KUCHASI 35 UY</t>
+          <t>TOSHKENT VILOYATI QIBRAY TUMANI GULZOR KUCHASI</t>
         </is>
       </c>
       <c r="Q233" s="2" t="n">
-        <v>998978160077</v>
+        <v>998977011429</v>
       </c>
       <c r="R233" s="2" t="inlineStr">
         <is>
-          <t>2 Отдел Продаж</t>
+          <t>Руоводство</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B234" s="3" t="n">
-        <v>45803</v>
+        <v>45823</v>
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E234" s="2" t="n">
-        <v>214</v>
+        <v>352</v>
       </c>
       <c r="F234" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G234" s="2" t="n">
-        <v>75.98</v>
+        <v>66.03</v>
       </c>
       <c r="H234" s="4" t="n">
-        <v>500000066</v>
+        <v>435798000</v>
       </c>
       <c r="I234" s="4" t="n">
-        <v>6580680</v>
+        <v>6600000</v>
       </c>
       <c r="J234" s="5" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="K234" s="4" t="n">
-        <v>500000066</v>
+        <v>252762840</v>
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>NASIRIDINOV BAXROM RUZMATOVICH</t>
+          <t>GAZIZOV KAMIL MARSOVICH</t>
         </is>
       </c>
       <c r="M234" s="2" t="inlineStr">
         <is>
-          <t>AB1139325</t>
+          <t>AB3384334</t>
         </is>
       </c>
       <c r="N234" s="2" t="n">
-        <v>32909906780010</v>
+        <v>327089507600182</v>
       </c>
       <c r="O234" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI QIBRAY TUMANI IIB</t>
+          <t>TOSHKENT VILOYATI QIBRAY IIB SALAR SHMB</t>
         </is>
       </c>
       <c r="P234" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI QIBRAY TUMANI GULZOR KUCHASI</t>
+          <t>TOSHKENT VILOYATI QIBRAY TUMANI GAFUR GULOM A/NAVOYI KOCHASI 460-UY</t>
         </is>
       </c>
       <c r="Q234" s="2" t="n">
-        <v>998977011429</v>
+        <v>998977502708</v>
       </c>
       <c r="R234" s="2" t="inlineStr">
         <is>
@@ -16503,133 +16503,133 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B235" s="3" t="n">
-        <v>45823</v>
+        <v>45818</v>
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>В</t>
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E235" s="2" t="n">
-        <v>352</v>
+        <v>216</v>
       </c>
       <c r="F235" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G235" s="2" t="n">
-        <v>66.03</v>
+        <v>40.04</v>
       </c>
       <c r="H235" s="4" t="n">
-        <v>435798000</v>
+        <v>252252000</v>
       </c>
       <c r="I235" s="4" t="n">
-        <v>6600000</v>
+        <v>6300000</v>
       </c>
       <c r="J235" s="5" t="n">
-        <v>0.58</v>
+        <v>0.7</v>
       </c>
       <c r="K235" s="4" t="n">
-        <v>252762840</v>
+        <v>176576400</v>
       </c>
       <c r="L235" s="2" t="inlineStr">
         <is>
-          <t>GAZIZOV KAMIL MARSOVICH</t>
+          <t>NURJAVOV AKRAM MUXAMMADIYEVICH</t>
         </is>
       </c>
       <c r="M235" s="2" t="inlineStr">
         <is>
-          <t>AB3384334</t>
+          <t>AB4704538</t>
         </is>
       </c>
       <c r="N235" s="2" t="n">
-        <v>327089507600182</v>
+        <v>30704761790019</v>
       </c>
       <c r="O235" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI QIBRAY IIB SALAR SHMB</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
         </is>
       </c>
       <c r="P235" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI QIBRAY TUMANI GAFUR GULOM A/NAVOYI KOCHASI 460-UY</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR 3 MIKRORAYON 70 UY 14 XONADON</t>
         </is>
       </c>
       <c r="Q235" s="2" t="n">
-        <v>998977502708</v>
+        <v>998330120076</v>
       </c>
       <c r="R235" s="2" t="inlineStr">
         <is>
-          <t>Руоводство</t>
+          <t>1 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B236" s="3" t="n">
-        <v>45818</v>
+        <v>45832</v>
       </c>
       <c r="C236" s="2" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E236" s="2" t="n">
-        <v>216</v>
+        <v>71</v>
       </c>
       <c r="F236" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G236" s="2" t="n">
-        <v>40.04</v>
+        <v>56.21</v>
       </c>
       <c r="H236" s="4" t="n">
-        <v>252252000</v>
+        <v>323207500</v>
       </c>
       <c r="I236" s="4" t="n">
-        <v>6300000</v>
+        <v>5750000</v>
       </c>
       <c r="J236" s="5" t="n">
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
       <c r="K236" s="4" t="n">
-        <v>176576400</v>
+        <v>252037209</v>
       </c>
       <c r="L236" s="2" t="inlineStr">
         <is>
-          <t>NURJAVOV AKRAM MUXAMMADIYEVICH</t>
+          <t>ABDUGALYAMOV ROMAN ILYASOVICH</t>
         </is>
       </c>
       <c r="M236" s="2" t="inlineStr">
         <is>
-          <t>AB4704538</t>
+          <t>AE3116026</t>
         </is>
       </c>
       <c r="N236" s="2" t="n">
-        <v>30704761790019</v>
+        <v>32308780270077</v>
       </c>
       <c r="O236" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
+          <t>IIV 27419</t>
         </is>
       </c>
       <c r="P236" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR 3 MIKRORAYON 70 UY 14 XONADON</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR 8 KICHIK NOXYA 57A UY 37 XONADON</t>
         </is>
       </c>
       <c r="Q236" s="2" t="n">
-        <v>998330120076</v>
+        <v>998903561167</v>
       </c>
       <c r="R236" s="2" t="inlineStr">
         <is>
@@ -16639,65 +16639,65 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B237" s="3" t="n">
-        <v>45832</v>
+        <v>45840</v>
       </c>
       <c r="C237" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E237" s="2" t="n">
-        <v>71</v>
+        <v>445</v>
       </c>
       <c r="F237" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G237" s="2" t="n">
-        <v>56.21</v>
+        <v>76.95</v>
       </c>
       <c r="H237" s="4" t="n">
-        <v>323207500</v>
+        <v>478500000</v>
       </c>
       <c r="I237" s="4" t="n">
-        <v>5750000</v>
+        <v>6600000</v>
       </c>
       <c r="J237" s="5" t="n">
-        <v>0.78</v>
+        <v>0.3</v>
       </c>
       <c r="K237" s="4" t="n">
-        <v>252037209</v>
+        <v>143550000</v>
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>ABDUGALYAMOV ROMAN ILYASOVICH</t>
+          <t>ISROILOVA DILFUZA NUGMATULLAEVNA</t>
         </is>
       </c>
       <c r="M237" s="2" t="inlineStr">
         <is>
-          <t>AE3116026</t>
+          <t>AD4153031</t>
         </is>
       </c>
       <c r="N237" s="2" t="n">
-        <v>32308780270077</v>
+        <v>43009760560031</v>
       </c>
       <c r="O237" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419</t>
+          <t>IIV 27248 03.08.2023</t>
         </is>
       </c>
       <c r="P237" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR 8 KICHIK NOXYA 57A UY 37 XONADON</t>
+          <t>TOSHKENT VILOYATI QIBRAY TUMANI KOPRIK BOSHI MFY BOBUR KUCHASI 71 UY</t>
         </is>
       </c>
       <c r="Q237" s="2" t="n">
-        <v>998903561167</v>
+        <v>998935973387</v>
       </c>
       <c r="R237" s="2" t="inlineStr">
         <is>
@@ -16706,66 +16706,66 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="n">
-        <v>244</v>
+      <c r="A238" s="1" t="n">
+        <v>245</v>
       </c>
       <c r="B238" s="3" t="n">
-        <v>45840</v>
+        <v>45838</v>
       </c>
       <c r="C238" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>Г</t>
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E238" s="2" t="n">
-        <v>445</v>
+        <v>267</v>
       </c>
       <c r="F238" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G238" s="2" t="n">
-        <v>76.95</v>
+        <v>47.56</v>
       </c>
       <c r="H238" s="4" t="n">
-        <v>478500000</v>
+        <v>344810000</v>
       </c>
       <c r="I238" s="4" t="n">
-        <v>6600000</v>
+        <v>7250000</v>
       </c>
       <c r="J238" s="5" t="n">
         <v>0.3</v>
       </c>
       <c r="K238" s="4" t="n">
-        <v>143550000</v>
+        <v>103443000</v>
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>ISROILOVA DILFUZA NUGMATULLAEVNA</t>
+          <t>SUYUNOVA GULNARA IZETOVNA</t>
         </is>
       </c>
       <c r="M238" s="2" t="inlineStr">
         <is>
-          <t>AD4153031</t>
+          <t>AD9337235</t>
         </is>
       </c>
       <c r="N238" s="2" t="n">
-        <v>43009760560031</v>
+        <v>40710600500010</v>
       </c>
       <c r="O238" s="2" t="inlineStr">
         <is>
-          <t>IIV 27248 03.08.2023</t>
+          <t>IIV27419   09.11.2024</t>
         </is>
       </c>
       <c r="P238" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI QIBRAY TUMANI KOPRIK BOSHI MFY BOBUR KUCHASI 71 UY</t>
+          <t>TOSHKENT VILOYATI BOSTONLIQ TUMANI AZADBASH MFY PAXTA KUCHASI 3 UY 15 XONADON</t>
         </is>
       </c>
       <c r="Q238" s="2" t="n">
-        <v>998935973387</v>
+        <v>998509970157</v>
       </c>
       <c r="R238" s="2" t="inlineStr">
         <is>
@@ -16774,66 +16774,66 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>245</v>
+      <c r="A239" s="2" t="n">
+        <v>246</v>
       </c>
       <c r="B239" s="3" t="n">
-        <v>45838</v>
+        <v>45847</v>
       </c>
       <c r="C239" s="2" t="inlineStr">
         <is>
-          <t>Г</t>
+          <t>Б</t>
         </is>
       </c>
       <c r="D239" s="2" t="n">
         <v>6</v>
       </c>
       <c r="E239" s="2" t="n">
-        <v>267</v>
+        <v>117</v>
       </c>
       <c r="F239" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G239" s="2" t="n">
-        <v>47.56</v>
+        <v>28.02</v>
       </c>
       <c r="H239" s="4" t="n">
-        <v>344810000</v>
+        <v>160701000</v>
       </c>
       <c r="I239" s="4" t="n">
-        <v>7250000</v>
+        <v>6850000</v>
       </c>
       <c r="J239" s="5" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K239" s="4" t="n">
-        <v>103443000</v>
+        <v>160701000</v>
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>SUYUNOVA GULNARA IZETOVNA</t>
+          <t>IBRAGIMOVA DIYORAXON ULUGBEK QIZI</t>
         </is>
       </c>
       <c r="M239" s="2" t="inlineStr">
         <is>
-          <t>AD9337235</t>
+          <t>AC1755496</t>
         </is>
       </c>
       <c r="N239" s="2" t="n">
-        <v>40710600500010</v>
+        <v>62211006900045</v>
       </c>
       <c r="O239" s="2" t="inlineStr">
         <is>
-          <t>IIV27419   09.11.2024</t>
+          <t>OLTIARIQ TUMANI IIB</t>
         </is>
       </c>
       <c r="P239" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI BOSTONLIQ TUMANI AZADBASH MFY PAXTA KUCHASI 3 UY 15 XONADON</t>
+          <t>FARGONA VILOYATI OLTIARIQ TUMANI OLTIARIQ KOCHASI 148 UY</t>
         </is>
       </c>
       <c r="Q239" s="2" t="n">
-        <v>998509970157</v>
+        <v>998507971571</v>
       </c>
       <c r="R239" s="2" t="inlineStr">
         <is>
@@ -16843,65 +16843,65 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B240" s="3" t="n">
         <v>45847</v>
       </c>
       <c r="C240" s="2" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E240" s="2" t="n">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="F240" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G240" s="2" t="n">
-        <v>28.02</v>
+        <v>52.83</v>
       </c>
       <c r="H240" s="4" t="n">
-        <v>160701000</v>
+        <v>309055500</v>
       </c>
       <c r="I240" s="4" t="n">
-        <v>6850000</v>
+        <v>5850000</v>
       </c>
       <c r="J240" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K240" s="4" t="n">
-        <v>160701000</v>
+        <v>309055500</v>
       </c>
       <c r="L240" s="2" t="inlineStr">
         <is>
-          <t>IBRAGIMOVA DIYORAXON ULUGBEK QIZI</t>
+          <t>PALNOV ALIK PETROVICH</t>
         </is>
       </c>
       <c r="M240" s="2" t="inlineStr">
         <is>
-          <t>AC1755496</t>
+          <t>AD4265924</t>
         </is>
       </c>
       <c r="N240" s="2" t="n">
-        <v>62211006900045</v>
+        <v>30901890191380</v>
       </c>
       <c r="O240" s="2" t="inlineStr">
         <is>
-          <t>OLTIARIQ TUMANI IIB</t>
+          <t>IIV 26266 11.08.2023</t>
         </is>
       </c>
       <c r="P240" s="2" t="inlineStr">
         <is>
-          <t>FARGONA VILOYATI OLTIARIQ TUMANI OLTIARIQ KOCHASI 148 UY</t>
+          <t>TOSHKENT SHAHAR YUNUSOBOD TUMANI 10 KVARTAL 15A UY 25 XONADON</t>
         </is>
       </c>
       <c r="Q240" s="2" t="n">
-        <v>998507971571</v>
+        <v>998770114334</v>
       </c>
       <c r="R240" s="2" t="inlineStr">
         <is>
@@ -16910,66 +16910,66 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="2" t="n">
-        <v>247</v>
+      <c r="A241" s="1" t="n">
+        <v>248</v>
       </c>
       <c r="B241" s="3" t="n">
-        <v>45847</v>
+        <v>45856</v>
       </c>
       <c r="C241" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Г</t>
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E241" s="2" t="n">
-        <v>69</v>
+        <v>274</v>
       </c>
       <c r="F241" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G241" s="2" t="n">
-        <v>52.83</v>
+        <v>56.56</v>
       </c>
       <c r="H241" s="4" t="n">
-        <v>309055500</v>
+        <v>418544000</v>
       </c>
       <c r="I241" s="4" t="n">
-        <v>5850000</v>
+        <v>7400000</v>
       </c>
       <c r="J241" s="5" t="n">
-        <v>1</v>
+        <v>0.28</v>
       </c>
       <c r="K241" s="4" t="n">
-        <v>309055500</v>
+        <v>117610864</v>
       </c>
       <c r="L241" s="2" t="inlineStr">
         <is>
-          <t>PALNOV ALIK PETROVICH</t>
+          <t>TURABOVA ZARINA ERGASHBOY QIZI</t>
         </is>
       </c>
       <c r="M241" s="2" t="inlineStr">
         <is>
-          <t>AD4265924</t>
+          <t>AC0049790</t>
         </is>
       </c>
       <c r="N241" s="2" t="n">
-        <v>30901890191380</v>
+        <v>42304930500097</v>
       </c>
       <c r="O241" s="2" t="inlineStr">
         <is>
-          <t>IIV 26266 11.08.2023</t>
+          <t>TOSHKENT VILOYATI BOSTONLIQ TUMANI IIB</t>
         </is>
       </c>
       <c r="P241" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR YUNUSOBOD TUMANI 10 KVARTAL 15A UY 25 XONADON</t>
+          <t>TOSHKENT VILOYATI BOSTONLIQ TUMANI GAZALKENT SHAHRI ZARBROQ 13/3</t>
         </is>
       </c>
       <c r="Q241" s="2" t="n">
-        <v>998770114334</v>
+        <v>998977174077</v>
       </c>
       <c r="R241" s="2" t="inlineStr">
         <is>
@@ -16978,66 +16978,68 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>248</v>
+      <c r="A242" s="2" t="n">
+        <v>249</v>
       </c>
       <c r="B242" s="3" t="n">
         <v>45856</v>
       </c>
       <c r="C242" s="2" t="inlineStr">
         <is>
-          <t>Г</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E242" s="2" t="n">
-        <v>274</v>
+        <v>437</v>
       </c>
       <c r="F242" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G242" s="2" t="n">
-        <v>56.56</v>
+        <v>52.83</v>
       </c>
       <c r="H242" s="4" t="n">
-        <v>418544000</v>
+        <v>369810000</v>
       </c>
       <c r="I242" s="4" t="n">
-        <v>7400000</v>
+        <v>7000000</v>
       </c>
       <c r="J242" s="5" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
       <c r="K242" s="4" t="n">
-        <v>117610864</v>
+        <v>75811050</v>
       </c>
       <c r="L242" s="2" t="inlineStr">
         <is>
-          <t>TURABOVA ZARINA ERGASHBOY QIZI</t>
+          <t>RAHIMBERDIYEV ASADBEK SANAT OGLI</t>
         </is>
       </c>
       <c r="M242" s="2" t="inlineStr">
         <is>
-          <t>AC0049790</t>
+          <t>AD0252831</t>
         </is>
       </c>
       <c r="N242" s="2" t="n">
-        <v>42304930500097</v>
+        <v>50101057150018</v>
       </c>
       <c r="O242" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI BOSTONLIQ TUMANI IIB</t>
+          <t>IIV 33223 23.03.2021</t>
         </is>
       </c>
       <c r="P242" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI BOSTONLIQ TUMANI GAZALKENT SHAHRI ZARBROQ 13/3</t>
-        </is>
-      </c>
-      <c r="Q242" s="2" t="n">
-        <v>998977174077</v>
+          <t>XORAZIM VILOYATI XONQA TUMANI OLAJA QISHLOGI OYDIN HAYOT MAHALLA 62 UY</t>
+        </is>
+      </c>
+      <c r="Q242" s="2" t="inlineStr">
+        <is>
+          <t>79099128398 +998882347984</t>
+        </is>
       </c>
       <c r="R242" s="2" t="inlineStr">
         <is>
@@ -17047,7 +17049,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B243" s="3" t="n">
         <v>45856</v>
@@ -17061,16 +17063,16 @@
         <v>9</v>
       </c>
       <c r="E243" s="2" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F243" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G243" s="2" t="n">
-        <v>52.83</v>
+        <v>76.95</v>
       </c>
       <c r="H243" s="4" t="n">
-        <v>369810000</v>
+        <v>538650000</v>
       </c>
       <c r="I243" s="4" t="n">
         <v>7000000</v>
@@ -17079,7 +17081,7 @@
         <v>0.21</v>
       </c>
       <c r="K243" s="4" t="n">
-        <v>75811050</v>
+        <v>110423250</v>
       </c>
       <c r="L243" s="2" t="inlineStr">
         <is>
@@ -17117,67 +17119,65 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B244" s="3" t="n">
-        <v>45856</v>
+        <v>45854</v>
       </c>
       <c r="C244" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E244" s="2" t="n">
-        <v>438</v>
+        <v>18</v>
       </c>
       <c r="F244" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G244" s="2" t="n">
-        <v>76.95</v>
+        <v>40.8</v>
       </c>
       <c r="H244" s="4" t="n">
-        <v>538650000</v>
+        <v>326400000</v>
       </c>
       <c r="I244" s="4" t="n">
-        <v>7000000</v>
+        <v>8000000</v>
       </c>
       <c r="J244" s="5" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
       <c r="K244" s="4" t="n">
-        <v>110423250</v>
+        <v>97920000</v>
       </c>
       <c r="L244" s="2" t="inlineStr">
         <is>
-          <t>RAHIMBERDIYEV ASADBEK SANAT OGLI</t>
+          <t>SALOYDINOV AZMIDDIN SHARIDDIN OGLI</t>
         </is>
       </c>
       <c r="M244" s="2" t="inlineStr">
         <is>
-          <t>AD0252831</t>
+          <t>AE1110800</t>
         </is>
       </c>
       <c r="N244" s="2" t="n">
-        <v>50101057150018</v>
+        <v>32303910560026</v>
       </c>
       <c r="O244" s="2" t="inlineStr">
         <is>
-          <t>IIV 33223 23.03.2021</t>
+          <t>IIV 27419 09.01.2025</t>
         </is>
       </c>
       <c r="P244" s="2" t="inlineStr">
         <is>
-          <t>XORAZIM VILOYATI XONQA TUMANI OLAJA QISHLOGI OYDIN HAYOT MAHALLA 62 UY</t>
-        </is>
-      </c>
-      <c r="Q244" s="2" t="inlineStr">
-        <is>
-          <t>79099128398 +998882347984</t>
-        </is>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR  50 YILIGI SHOX KOCHASI 61 UY 64 XONADON</t>
+        </is>
+      </c>
+      <c r="Q244" s="2" t="n">
+        <v>998978757073</v>
       </c>
       <c r="R244" s="2" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B245" s="3" t="n">
         <v>45854</v>
@@ -17198,10 +17198,10 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E245" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F245" s="2" t="n">
         <v>1</v>
@@ -17210,16 +17210,16 @@
         <v>40.8</v>
       </c>
       <c r="H245" s="4" t="n">
-        <v>326400000</v>
+        <v>318240000</v>
       </c>
       <c r="I245" s="4" t="n">
-        <v>8000000</v>
+        <v>7800000</v>
       </c>
       <c r="J245" s="5" t="n">
         <v>0.3</v>
       </c>
       <c r="K245" s="4" t="n">
-        <v>97920000</v>
+        <v>95472000</v>
       </c>
       <c r="L245" s="2" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B246" s="3" t="n">
         <v>45854</v>
@@ -17266,10 +17266,10 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E246" s="2" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F246" s="2" t="n">
         <v>1</v>
@@ -17278,16 +17278,16 @@
         <v>40.8</v>
       </c>
       <c r="H246" s="4" t="n">
-        <v>318240000</v>
+        <v>310080000</v>
       </c>
       <c r="I246" s="4" t="n">
-        <v>7800000</v>
+        <v>7600000</v>
       </c>
       <c r="J246" s="5" t="n">
         <v>0.3</v>
       </c>
       <c r="K246" s="4" t="n">
-        <v>95472000</v>
+        <v>93024000</v>
       </c>
       <c r="L246" s="2" t="inlineStr">
         <is>
@@ -17323,65 +17323,67 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B247" s="3" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E247" s="2" t="n">
-        <v>32</v>
+        <v>388</v>
       </c>
       <c r="F247" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G247" s="2" t="n">
-        <v>40.8</v>
+        <v>52.83</v>
       </c>
       <c r="H247" s="4" t="n">
-        <v>310080000</v>
+        <v>443772000</v>
       </c>
       <c r="I247" s="4" t="n">
-        <v>7600000</v>
+        <v>8400000</v>
       </c>
       <c r="J247" s="5" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="K247" s="4" t="n">
-        <v>93024000</v>
+        <v>310640400</v>
       </c>
       <c r="L247" s="2" t="inlineStr">
         <is>
-          <t>SALOYDINOV AZMIDDIN SHARIDDIN OGLI</t>
+          <t>XAYITOV JAHONGIR QILICH OGLI</t>
         </is>
       </c>
       <c r="M247" s="2" t="inlineStr">
         <is>
-          <t>AE1110800</t>
+          <t>AD9915887</t>
         </is>
       </c>
       <c r="N247" s="2" t="n">
-        <v>32303910560026</v>
+        <v>31112986860025</v>
       </c>
       <c r="O247" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419 09.01.2025</t>
+          <t>IIV 27419</t>
         </is>
       </c>
       <c r="P247" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR  50 YILIGI SHOX KOCHASI 61 UY 64 XONADON</t>
-        </is>
-      </c>
-      <c r="Q247" s="2" t="n">
-        <v>998978757073</v>
+          <t>CHIRCHIQ SHAHAR TRANSVORMATOR 10/35</t>
+        </is>
+      </c>
+      <c r="Q247" s="2" t="inlineStr">
+        <is>
+          <t>998996521111   998995912330</t>
+        </is>
       </c>
       <c r="R247" s="2" t="inlineStr">
         <is>
@@ -17391,271 +17393,269 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B248" s="3" t="n">
-        <v>45855</v>
+        <v>45875</v>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>В</t>
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E248" s="2" t="n">
-        <v>388</v>
+        <v>190</v>
       </c>
       <c r="F248" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G248" s="2" t="n">
-        <v>52.83</v>
+        <v>75.98</v>
       </c>
       <c r="H248" s="4" t="n">
-        <v>443772000</v>
+        <v>573649000</v>
       </c>
       <c r="I248" s="4" t="n">
-        <v>8400000</v>
+        <v>7550000</v>
       </c>
       <c r="J248" s="5" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K248" s="4" t="n">
-        <v>310640400</v>
+        <v>286824500</v>
       </c>
       <c r="L248" s="2" t="inlineStr">
         <is>
-          <t>XAYITOV JAHONGIR QILICH OGLI</t>
+          <t>XAITBAYEV AKMAL ERKINOVICH</t>
         </is>
       </c>
       <c r="M248" s="2" t="inlineStr">
         <is>
-          <t>AD9915887</t>
+          <t>AD1925909</t>
         </is>
       </c>
       <c r="N248" s="2" t="n">
-        <v>31112986860025</v>
+        <v>32707850470032</v>
       </c>
       <c r="O248" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419</t>
+          <t>IIV 60003 26.10.2022</t>
         </is>
       </c>
       <c r="P248" s="2" t="inlineStr">
         <is>
-          <t>CHIRCHIQ SHAHAR TRANSVORMATOR 10/35</t>
-        </is>
-      </c>
-      <c r="Q248" s="2" t="inlineStr">
-        <is>
-          <t>998996521111   998995912330</t>
-        </is>
+          <t>TOSHKENT SHAHAR, MIRZO ULUG'BEK TUMANI, SHUKUR BURXONOV MFY, BUYUK IPAK YO'LI KO'CHASI, 214-UY, 9-XONADON.</t>
+        </is>
+      </c>
+      <c r="Q248" s="2" t="n">
+        <v>998998788001</v>
       </c>
       <c r="R248" s="2" t="inlineStr">
         <is>
-          <t>1 Отдел Продаж</t>
+          <t>2 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B249" s="3" t="n">
-        <v>45866</v>
+        <v>45876</v>
       </c>
       <c r="C249" s="2" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E249" s="2" t="n">
-        <v>359</v>
+        <v>418</v>
       </c>
       <c r="F249" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G249" s="2" t="n">
-        <v>65.38</v>
+        <v>40.8</v>
       </c>
       <c r="H249" s="4" t="n">
-        <v>457660000</v>
+        <v>291720000</v>
       </c>
       <c r="I249" s="4" t="n">
-        <v>7000000</v>
+        <v>7150000</v>
       </c>
       <c r="J249" s="5" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K249" s="4" t="n">
-        <v>137298000</v>
+        <v>145860000</v>
       </c>
       <c r="L249" s="2" t="inlineStr">
         <is>
-          <t>ISOQOV MURODJON SAYFIDDIN OGLI</t>
+          <t>ABISHOV BEKBOL YERMEKBAYEVICH</t>
         </is>
       </c>
       <c r="M249" s="2" t="inlineStr">
         <is>
-          <t>AB6771415</t>
+          <t>AD7684333</t>
         </is>
       </c>
       <c r="N249" s="2" t="n">
-        <v>31202926770016</v>
+        <v>30501900500058</v>
       </c>
       <c r="O249" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI PARKENT TUMANI IIB 22.05.2017</t>
+          <t>IIV 27224 01.07.2024</t>
         </is>
       </c>
       <c r="P249" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI PARKENT TUMANI E. AXMEDOV 17 UY</t>
+          <t>TOSHKENT VILOYATI, BO'STONLIQ TUMANI, QARABAY QISHLOG'I, NURAFSHON KO'CHASI 16-UY.</t>
         </is>
       </c>
       <c r="Q249" s="2" t="n">
-        <v>998990078639</v>
+        <v>998937119067</v>
       </c>
       <c r="R249" s="2" t="inlineStr">
         <is>
-          <t>1 Отдел Продаж</t>
+          <t>2 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B250" s="3" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="C250" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E250" s="2" t="n">
-        <v>48</v>
+        <v>411</v>
       </c>
       <c r="F250" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G250" s="2" t="n">
-        <v>52.83</v>
+        <v>40.8</v>
       </c>
       <c r="H250" s="4" t="n">
-        <v>353961000</v>
+        <v>306000000</v>
       </c>
       <c r="I250" s="4" t="n">
-        <v>6700000</v>
+        <v>7500000</v>
       </c>
       <c r="J250" s="5" t="n">
-        <v>0.79</v>
+        <v>0.3</v>
       </c>
       <c r="K250" s="4" t="n">
-        <v>280018547</v>
+        <v>91800000</v>
       </c>
       <c r="L250" s="2" t="inlineStr">
         <is>
-          <t>ABDURASULOV MANSUR ABDURAXMONOVICH</t>
+          <t>BATIROVA GULCHEHRA KURBANSAYEVNA</t>
         </is>
       </c>
       <c r="M250" s="2" t="inlineStr">
         <is>
-          <t>AB5251061</t>
+          <t>AD9910320</t>
         </is>
       </c>
       <c r="N250" s="2" t="n">
-        <v>32207900510025</v>
+        <v>42907743330033</v>
       </c>
       <c r="O250" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI BOKA TUMANI IIB</t>
+          <t>IIV 35204 23.12.2024</t>
         </is>
       </c>
       <c r="P250" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI BOKA TUMANI BESHKAPA MFY OLMOZOR KOCHASI 48 UY</t>
+          <t>QORAQALPOG`ISTON RESPUBLIKASI AMUDARYO TUMANI BOZYOP O.F.Y UVAYSIY 22-XONADON</t>
         </is>
       </c>
       <c r="Q250" s="2" t="n">
-        <v>998880160714</v>
+        <v>998978577737</v>
       </c>
       <c r="R250" s="2" t="inlineStr">
         <is>
-          <t>1 Отдел Продаж</t>
+          <t>2 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B251" s="3" t="n">
-        <v>45875</v>
+        <v>45876</v>
       </c>
       <c r="C251" s="2" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E251" s="2" t="n">
-        <v>190</v>
+        <v>416</v>
       </c>
       <c r="F251" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G251" s="2" t="n">
-        <v>75.98</v>
+        <v>52.83</v>
       </c>
       <c r="H251" s="4" t="n">
-        <v>573649000</v>
+        <v>396225000</v>
       </c>
       <c r="I251" s="4" t="n">
-        <v>7550000</v>
+        <v>7500000</v>
       </c>
       <c r="J251" s="5" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K251" s="4" t="n">
-        <v>286824500</v>
+        <v>118867500</v>
       </c>
       <c r="L251" s="2" t="inlineStr">
         <is>
-          <t>XAITBAYEV AKMAL ERKINOVICH</t>
+          <t>TADJIBOYEV G`AYRAT AMINBAYEVICH</t>
         </is>
       </c>
       <c r="M251" s="2" t="inlineStr">
         <is>
-          <t>AD1925909</t>
+          <t>AD1372925</t>
         </is>
       </c>
       <c r="N251" s="2" t="n">
-        <v>32707850470032</v>
+        <v>32912863330026</v>
       </c>
       <c r="O251" s="2" t="inlineStr">
         <is>
-          <t>IIV 60003 26.10.2022</t>
+          <t>IIV 35204 20.05.2022</t>
         </is>
       </c>
       <c r="P251" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR, MIRZO ULUG'BEK TUMANI, SHUKUR BURXONOV MFY, BUYUK IPAK YO'LI KO'CHASI, 214-UY, 9-XONADON.</t>
+          <t>QORAQALPOG`ISTON RESPUBLIKASI AMUDARYO TUMANI MANG`IT SHAHRI TOSHYOP O.F.Y  22-XONADON</t>
         </is>
       </c>
       <c r="Q251" s="2" t="n">
-        <v>998998788001</v>
+        <v>998978577737</v>
       </c>
       <c r="R251" s="2" t="inlineStr">
         <is>
@@ -17665,351 +17665,147 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B252" s="3" t="n">
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="D252" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>335</v>
+      </c>
+      <c r="F252" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G252" s="2" t="n">
+        <v>65.38</v>
+      </c>
+      <c r="H252" s="4" t="n">
+        <v>441000065</v>
+      </c>
+      <c r="I252" s="4" t="n">
+        <v>6745183</v>
+      </c>
+      <c r="J252" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K252" s="4" t="n">
+        <v>441000065</v>
+      </c>
+      <c r="L252" s="2" t="inlineStr">
+        <is>
+          <t>ABDURAXMANOVA RA`NO YAXSHIBOYEVNA</t>
+        </is>
+      </c>
+      <c r="M252" s="2" t="inlineStr">
+        <is>
+          <t>AB2834838</t>
+        </is>
+      </c>
+      <c r="N252" s="2" t="n">
+        <v>41906623890015</v>
+      </c>
+      <c r="O252" s="2" t="inlineStr">
+        <is>
+          <t>SAMARQAND VILOYATI BULUNG`UR TUMANI IIB 01.02.2016</t>
+        </is>
+      </c>
+      <c r="P252" s="2" t="inlineStr">
+        <is>
+          <t>SAMARQAND VILOYATI BULUNG`UR TUMANI AMIR TEMUR MAXALLASI SOBIR RAXIMOV KO`CHASI 8-UY 2-XONADON</t>
+        </is>
+      </c>
+      <c r="Q252" s="2" t="n">
+        <v>998933551105</v>
+      </c>
+      <c r="R252" s="2" t="inlineStr">
+        <is>
+          <t>2 Отдел Продаж</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
           <t>Е</t>
         </is>
       </c>
-      <c r="D252" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E252" s="2" t="n">
-        <v>418</v>
-      </c>
-      <c r="F252" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G252" s="2" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="H252" s="4" t="n">
-        <v>291720000</v>
-      </c>
-      <c r="I252" s="4" t="n">
-        <v>7150000</v>
-      </c>
-      <c r="J252" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K252" s="4" t="n">
-        <v>145860000</v>
-      </c>
-      <c r="L252" s="2" t="inlineStr">
-        <is>
-          <t>ABISHOV BEKBOL YERMEKBAYEVICH</t>
-        </is>
-      </c>
-      <c r="M252" s="2" t="inlineStr">
-        <is>
-          <t>AD7684333</t>
-        </is>
-      </c>
-      <c r="N252" s="2" t="n">
-        <v>30501900500058</v>
-      </c>
-      <c r="O252" s="2" t="inlineStr">
-        <is>
-          <t>IIV 27224 01.07.2024</t>
-        </is>
-      </c>
-      <c r="P252" s="2" t="inlineStr">
-        <is>
-          <t>TOSHKENT VILOYATI, BO'STONLIQ TUMANI, QARABAY QISHLOG'I, NURAFSHON KO'CHASI 16-UY.</t>
-        </is>
-      </c>
-      <c r="Q252" s="2" t="n">
-        <v>998937119067</v>
-      </c>
-      <c r="R252" s="2" t="inlineStr">
-        <is>
-          <t>2 Отдел Продаж</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
-        <v>259</v>
-      </c>
-      <c r="B253" s="3" t="n">
-        <v>45876</v>
-      </c>
-      <c r="C253" s="2" t="inlineStr">
-        <is>
-          <t>Е</t>
-        </is>
-      </c>
-      <c r="D253" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E253" s="2" t="n">
-        <v>411</v>
-      </c>
-      <c r="F253" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G253" s="2" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="H253" s="4" t="n">
-        <v>306000000</v>
-      </c>
-      <c r="I253" s="4" t="n">
-        <v>7500000</v>
-      </c>
-      <c r="J253" s="5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K253" s="4" t="n">
-        <v>91800000</v>
-      </c>
-      <c r="L253" s="2" t="inlineStr">
-        <is>
-          <t>BATIROVA GULCHEHRA KURBANSAYEVNA</t>
-        </is>
-      </c>
-      <c r="M253" s="2" t="inlineStr">
-        <is>
-          <t>AD9910320</t>
-        </is>
-      </c>
-      <c r="N253" s="2" t="n">
-        <v>42907743330033</v>
-      </c>
-      <c r="O253" s="2" t="inlineStr">
-        <is>
-          <t>IIV 35204 23.12.2024</t>
-        </is>
-      </c>
-      <c r="P253" s="2" t="inlineStr">
-        <is>
-          <t>QORAQALPOG`ISTON RESPUBLIKASI AMUDARYO TUMANI BOZYOP O.F.Y UVAYSIY 22-XONADON</t>
-        </is>
-      </c>
-      <c r="Q253" s="2" t="n">
-        <v>998978577737</v>
-      </c>
-      <c r="R253" s="2" t="inlineStr">
-        <is>
-          <t>2 Отдел Продаж</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
-        <v>260</v>
-      </c>
-      <c r="B254" s="3" t="n">
-        <v>45876</v>
-      </c>
-      <c r="C254" s="2" t="inlineStr">
-        <is>
-          <t>Е</t>
-        </is>
-      </c>
-      <c r="D254" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E254" s="2" t="n">
-        <v>416</v>
-      </c>
-      <c r="F254" s="2" t="n">
+      <c r="D253" t="n">
+        <v>12</v>
+      </c>
+      <c r="E253" t="n">
+        <v>458</v>
+      </c>
+      <c r="F253" t="n">
         <v>2</v>
       </c>
-      <c r="G254" s="2" t="n">
+      <c r="G253" t="n">
         <v>52.83</v>
       </c>
-      <c r="H254" s="4" t="n">
-        <v>396225000</v>
-      </c>
-      <c r="I254" s="4" t="n">
-        <v>7500000</v>
-      </c>
-      <c r="J254" s="5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K254" s="4" t="n">
-        <v>118867500</v>
-      </c>
-      <c r="L254" s="2" t="inlineStr">
-        <is>
-          <t>TADJIBOYEV G`AYRAT AMINBAYEVICH</t>
-        </is>
-      </c>
-      <c r="M254" s="2" t="inlineStr">
-        <is>
-          <t>AD1372925</t>
-        </is>
-      </c>
-      <c r="N254" s="2" t="n">
-        <v>32912863330026</v>
-      </c>
-      <c r="O254" s="2" t="inlineStr">
-        <is>
-          <t>IIV 35204 20.05.2022</t>
-        </is>
-      </c>
-      <c r="P254" s="2" t="inlineStr">
-        <is>
-          <t>QORAQALPOG`ISTON RESPUBLIKASI AMUDARYO TUMANI MANG`IT SHAHRI TOSHYOP O.F.Y  22-XONADON</t>
-        </is>
-      </c>
-      <c r="Q254" s="2" t="n">
-        <v>998978577737</v>
-      </c>
-      <c r="R254" s="2" t="inlineStr">
-        <is>
-          <t>2 Отдел Продаж</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
-        <v>261</v>
-      </c>
-      <c r="B255" s="3" t="n">
-        <v>45877</v>
-      </c>
-      <c r="C255" s="2" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="D255" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E255" s="2" t="n">
-        <v>335</v>
-      </c>
-      <c r="F255" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G255" s="2" t="n">
-        <v>65.38</v>
-      </c>
-      <c r="H255" s="4" t="n">
-        <v>441000065</v>
-      </c>
-      <c r="I255" s="4" t="n">
-        <v>6745183</v>
-      </c>
-      <c r="J255" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K255" s="4" t="n">
-        <v>441000065</v>
-      </c>
-      <c r="L255" s="2" t="inlineStr">
-        <is>
-          <t>ABDURAXMANOVA RA`NO YAXSHIBOYEVNA</t>
-        </is>
-      </c>
-      <c r="M255" s="2" t="inlineStr">
-        <is>
-          <t>AB2834838</t>
-        </is>
-      </c>
-      <c r="N255" s="2" t="n">
-        <v>41906623890015</v>
-      </c>
-      <c r="O255" s="2" t="inlineStr">
-        <is>
-          <t>SAMARQAND VILOYATI BULUNG`UR TUMANI IIB 01.02.2016</t>
-        </is>
-      </c>
-      <c r="P255" s="2" t="inlineStr">
-        <is>
-          <t>SAMARQAND VILOYATI BULUNG`UR TUMANI AMIR TEMUR MAXALLASI SOBIR RAXIMOV KO`CHASI 8-UY 2-XONADON</t>
-        </is>
-      </c>
-      <c r="Q255" s="2" t="n">
-        <v>998933551105</v>
-      </c>
-      <c r="R255" s="2" t="inlineStr">
-        <is>
-          <t>2 Отдел Продаж</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>262</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>А</t>
-        </is>
-      </c>
-      <c r="D256" t="n">
-        <v>6</v>
-      </c>
-      <c r="E256" t="n">
-        <v>39</v>
-      </c>
-      <c r="F256" t="n">
-        <v>0</v>
-      </c>
-      <c r="G256" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="H256" t="n">
-        <v>310080000</v>
-      </c>
-      <c r="I256" t="n">
-        <v>7600000</v>
-      </c>
-      <c r="J256" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="K256" t="n">
-        <v>93024000</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>XURRAMOV NURBEK SHOMURODOVICH</t>
-        </is>
-      </c>
-      <c r="M256" t="inlineStr">
-        <is>
-          <t>AD8883808</t>
-        </is>
-      </c>
-      <c r="N256" t="inlineStr">
-        <is>
-          <t>431019402400228</t>
-        </is>
-      </c>
-      <c r="O256" t="inlineStr">
-        <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB 21.08.2018</t>
-        </is>
-      </c>
-      <c r="P256" t="inlineStr">
-        <is>
-          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI KORASUV 4 2 UY 223 XONADON</t>
-        </is>
-      </c>
-      <c r="Q256" t="inlineStr">
-        <is>
-          <t>+998950646069 +998941402828</t>
-        </is>
-      </c>
-      <c r="R256" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="H253" t="n">
+        <v>338112000</v>
+      </c>
+      <c r="I253" t="n">
+        <v>6200000</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>118000000</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RAXIMOVA XILOLA FAXRITDINOVNA </t>
+        </is>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>AD2948530</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>40901900270480</t>
+        </is>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>IV60003</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI TTZ-4 12/44</t>
+        </is>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>+998977671867  +998715023505</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>AZIZ</t>
         </is>
       </c>
     </row>

--- a/static/Жилые_Комплексы/ЖК_Рассвет/contract_registry.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Рассвет/contract_registry.xlsx
@@ -342,7 +342,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R253"/>
+  <dimension ref="A1:R261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12894,65 +12894,65 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B182" s="3" t="n">
-        <v>45708</v>
+        <v>45705</v>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>209</v>
+        <v>65</v>
       </c>
       <c r="F182" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G182" s="2" t="n">
-        <v>103.84</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="H182" s="4" t="n">
-        <v>632672000</v>
+        <v>444416000</v>
       </c>
       <c r="I182" s="4" t="n">
-        <v>6800000</v>
+        <v>6400000</v>
       </c>
       <c r="J182" s="5" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="K182" s="4" t="n">
-        <v>140003987</v>
+        <v>130213888</v>
       </c>
       <c r="L182" s="2" t="inlineStr">
         <is>
-          <t>SINGATULINA IRINA VASILEVNA</t>
+          <t>URAZMETOVA SADOQAT BAXTIYAROVNA</t>
         </is>
       </c>
       <c r="M182" s="2" t="inlineStr">
         <is>
-          <t>AD7468392</t>
+          <t>KA0644589</t>
         </is>
       </c>
       <c r="N182" s="2" t="n">
-        <v>40206620181231</v>
+        <v>42012813080038</v>
       </c>
       <c r="O182" s="2" t="inlineStr">
         <is>
-          <t>IIV26264 12/06/2024</t>
+          <t>QORAQALPOGISTON RESPUBLIKASI AMUDARYO TUMANI IIB</t>
         </is>
       </c>
       <c r="P182" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR BEKTEMIR TUMANI OLTIN TOPGAN KOCHASI 15-UY 3-XONADON</t>
+          <t>CHIRCHIQ SHAHAR 1 KICHIK NOHIYA 17 UY 68 XONADON</t>
         </is>
       </c>
       <c r="Q182" s="2" t="n">
-        <v>998335029757</v>
+        <v>998977060588</v>
       </c>
       <c r="R182" s="2" t="inlineStr">
         <is>
@@ -12962,65 +12962,65 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B183" s="3" t="n">
         <v>45705</v>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E183" s="2" t="n">
-        <v>65</v>
+        <v>346</v>
       </c>
       <c r="F183" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G183" s="2" t="n">
-        <v>74.06999999999999</v>
+        <v>66.03</v>
       </c>
       <c r="H183" s="4" t="n">
-        <v>444416000</v>
+        <v>442401000</v>
       </c>
       <c r="I183" s="4" t="n">
-        <v>6400000</v>
-      </c>
-      <c r="J183" s="5" t="n">
-        <v>0.29</v>
+        <v>6700000</v>
+      </c>
+      <c r="J183" s="9" t="n">
+        <v>0.45</v>
       </c>
       <c r="K183" s="4" t="n">
-        <v>130213888</v>
+        <v>200009492</v>
       </c>
       <c r="L183" s="2" t="inlineStr">
         <is>
-          <t>URAZMETOVA SADOQAT BAXTIYAROVNA</t>
+          <t>TOG'AYMURODOVA FERUZA MUQADIROVNA</t>
         </is>
       </c>
       <c r="M183" s="2" t="inlineStr">
         <is>
-          <t>KA0644589</t>
+          <t>AD5510726</t>
         </is>
       </c>
       <c r="N183" s="2" t="n">
-        <v>42012813080038</v>
+        <v>41211881851051</v>
       </c>
       <c r="O183" s="2" t="inlineStr">
         <is>
-          <t>QORAQALPOGISTON RESPUBLIKASI AMUDARYO TUMANI IIB</t>
+          <t>IIV27419 22.12.2023,</t>
         </is>
       </c>
       <c r="P183" s="2" t="inlineStr">
         <is>
-          <t>CHIRCHIQ SHAHAR 1 KICHIK NOHIYA 17 UY 68 XONADON</t>
+          <t>Surhandaryo viloyati Termiz tumani Navruz MFY Gullzor kuchasi 36-uy</t>
         </is>
       </c>
       <c r="Q183" s="2" t="n">
-        <v>998977060588</v>
+        <v>998949453601</v>
       </c>
       <c r="R183" s="2" t="inlineStr">
         <is>
@@ -13030,65 +13030,65 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B184" s="3" t="n">
-        <v>45705</v>
+        <v>45709</v>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E184" s="2" t="n">
-        <v>346</v>
+        <v>50</v>
       </c>
       <c r="F184" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G184" s="2" t="n">
-        <v>66.03</v>
+        <v>56.21</v>
       </c>
       <c r="H184" s="4" t="n">
-        <v>442401000</v>
+        <v>376607000</v>
       </c>
       <c r="I184" s="4" t="n">
         <v>6700000</v>
       </c>
-      <c r="J184" s="9" t="n">
-        <v>0.45</v>
+      <c r="J184" s="5" t="n">
+        <v>0.27</v>
       </c>
       <c r="K184" s="4" t="n">
-        <v>200009492</v>
+        <v>101683890</v>
       </c>
       <c r="L184" s="2" t="inlineStr">
         <is>
-          <t>TOG'AYMURODOVA FERUZA MUQADIROVNA</t>
+          <t>ASLIYEV FARRUX FARHOD OGLI</t>
         </is>
       </c>
       <c r="M184" s="2" t="inlineStr">
         <is>
-          <t>AD5510726</t>
+          <t>AD3179764</t>
         </is>
       </c>
       <c r="N184" s="2" t="n">
-        <v>41211881851051</v>
+        <v>30510922950068</v>
       </c>
       <c r="O184" s="2" t="inlineStr">
         <is>
-          <t>IIV27419 22.12.2023,</t>
+          <t>IIV 60120 02.05.2023</t>
         </is>
       </c>
       <c r="P184" s="2" t="inlineStr">
         <is>
-          <t>Surhandaryo viloyati Termiz tumani Navruz MFY Gullzor kuchasi 36-uy</t>
+          <t>SIRDARYO VILOYATI SIRDARYO TUMANI ZIYOKORLAR MFY SHAFFOF KOCHASI 43 UY</t>
         </is>
       </c>
       <c r="Q184" s="2" t="n">
-        <v>998949453601</v>
+        <v>998916242626</v>
       </c>
       <c r="R184" s="2" t="inlineStr">
         <is>
@@ -13098,65 +13098,65 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B185" s="3" t="n">
-        <v>45709</v>
+        <v>45712</v>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Б</t>
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E185" s="2" t="n">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="F185" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G185" s="2" t="n">
-        <v>56.21</v>
+        <v>55.1</v>
       </c>
       <c r="H185" s="4" t="n">
-        <v>376607000</v>
+        <v>319580000</v>
       </c>
       <c r="I185" s="4" t="n">
-        <v>6700000</v>
+        <v>5800000</v>
       </c>
       <c r="J185" s="5" t="n">
-        <v>0.27</v>
+        <v>0.2034</v>
       </c>
       <c r="K185" s="4" t="n">
-        <v>101683890</v>
+        <v>65000974</v>
       </c>
       <c r="L185" s="2" t="inlineStr">
         <is>
-          <t>ASLIYEV FARRUX FARHOD OGLI</t>
+          <t>XIKMATOVA DILDORA SHUXRATOVNA</t>
         </is>
       </c>
       <c r="M185" s="2" t="inlineStr">
         <is>
-          <t>AD3179764</t>
+          <t>AD1739297</t>
         </is>
       </c>
       <c r="N185" s="2" t="n">
-        <v>30510922950068</v>
+        <v>42502860210028</v>
       </c>
       <c r="O185" s="2" t="inlineStr">
         <is>
-          <t>IIV 60120 02.05.2023</t>
+          <t>IIV 26277 09.09.2022</t>
         </is>
       </c>
       <c r="P185" s="2" t="inlineStr">
         <is>
-          <t>SIRDARYO VILOYATI SIRDARYO TUMANI ZIYOKORLAR MFY SHAFFOF KOCHASI 43 UY</t>
+          <t>TOSHKENT SHAHRI,SHAYHANTOUR TUMANI XADRA MAVZESI 15A UY,15 XONADON</t>
         </is>
       </c>
       <c r="Q185" s="2" t="n">
-        <v>998916242626</v>
+        <v>998771272999</v>
       </c>
       <c r="R185" s="2" t="inlineStr">
         <is>
@@ -13165,270 +13165,270 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
-        <v>193</v>
+      <c r="A186" s="1" t="n">
+        <v>194</v>
       </c>
       <c r="B186" s="3" t="n">
-        <v>45712</v>
+        <v>45713</v>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>Г</t>
         </is>
       </c>
       <c r="D186" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="F186" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G186" s="2" t="n">
+        <v>103.84</v>
+      </c>
+      <c r="H186" s="4" t="n">
+        <v>725712000</v>
+      </c>
+      <c r="I186" s="4" t="n">
+        <v>7800000</v>
+      </c>
+      <c r="J186" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K186" s="4" t="n">
+        <v>217713600</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
+        <is>
+          <t>MUSAYEV NEMATJON NABIDJONOVICH</t>
+        </is>
+      </c>
+      <c r="M186" s="2" t="inlineStr">
+        <is>
+          <t>AE1620026</t>
+        </is>
+      </c>
+      <c r="N186" s="2" t="n">
+        <v>32806695180011</v>
+      </c>
+      <c r="O186" s="2" t="inlineStr">
+        <is>
+          <t>IIV 3230 13.02.2025</t>
+        </is>
+      </c>
+      <c r="P186" s="2" t="inlineStr">
+        <is>
+          <t>ANDIJON VILOYATI SHAHRIXON TUMANI OZBEKISTON MFY MASLAXATTEPA QFY BOBOCHEK 2 127 UY</t>
+        </is>
+      </c>
+      <c r="Q186" s="2" t="n">
+        <v>998905420909</v>
+      </c>
+      <c r="R186" s="2" t="inlineStr">
+        <is>
+          <t>1 Отдел Продаж</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B187" s="3" t="n">
+        <v>45715</v>
+      </c>
+      <c r="C187" s="2" t="inlineStr">
+        <is>
+          <t>Е</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E186" s="2" t="n">
-        <v>154</v>
-      </c>
-      <c r="F186" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G186" s="2" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="H186" s="4" t="n">
-        <v>319580000</v>
-      </c>
-      <c r="I186" s="4" t="n">
-        <v>5800000</v>
-      </c>
-      <c r="J186" s="5" t="n">
-        <v>0.2034</v>
-      </c>
-      <c r="K186" s="4" t="n">
-        <v>65000974</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
-        <is>
-          <t>XIKMATOVA DILDORA SHUXRATOVNA</t>
-        </is>
-      </c>
-      <c r="M186" s="2" t="inlineStr">
-        <is>
-          <t>AD1739297</t>
-        </is>
-      </c>
-      <c r="N186" s="2" t="n">
-        <v>42502860210028</v>
-      </c>
-      <c r="O186" s="2" t="inlineStr">
-        <is>
-          <t>IIV 26277 09.09.2022</t>
-        </is>
-      </c>
-      <c r="P186" s="2" t="inlineStr">
-        <is>
-          <t>TOSHKENT SHAHRI,SHAYHANTOUR TUMANI XADRA MAVZESI 15A UY,15 XONADON</t>
-        </is>
-      </c>
-      <c r="Q186" s="2" t="n">
-        <v>998771272999</v>
-      </c>
-      <c r="R186" s="2" t="inlineStr">
-        <is>
-          <t>1 Отдел Продаж</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B187" s="3" t="n">
-        <v>45713</v>
-      </c>
-      <c r="C187" s="2" t="inlineStr">
-        <is>
-          <t>Г</t>
-        </is>
-      </c>
-      <c r="D187" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="E187" s="2" t="n">
-        <v>241</v>
+        <v>450</v>
       </c>
       <c r="F187" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G187" s="2" t="n">
-        <v>103.84</v>
+        <v>48.79</v>
       </c>
       <c r="H187" s="4" t="n">
-        <v>725712000</v>
+        <v>287861000</v>
       </c>
       <c r="I187" s="4" t="n">
-        <v>7800000</v>
+        <v>5900000</v>
       </c>
       <c r="J187" s="5" t="n">
-        <v>0.3</v>
+        <v>0.44</v>
       </c>
       <c r="K187" s="4" t="n">
-        <v>217713600</v>
+        <v>125000000</v>
       </c>
       <c r="L187" s="2" t="inlineStr">
         <is>
-          <t>MUSAYEV NEMATJON NABIDJONOVICH</t>
+          <t>ERGASHEV ULUG`BEK MARDON OG`LI</t>
         </is>
       </c>
       <c r="M187" s="2" t="inlineStr">
         <is>
-          <t>AE1620026</t>
+          <t>AD9098026</t>
         </is>
       </c>
       <c r="N187" s="2" t="n">
-        <v>32806695180011</v>
+        <v>31802942640012</v>
       </c>
       <c r="O187" s="2" t="inlineStr">
         <is>
-          <t>IIV 3230 13.02.2025</t>
+          <t>IIV 26284 22.10.2024</t>
         </is>
       </c>
       <c r="P187" s="2" t="inlineStr">
         <is>
-          <t>ANDIJON VILOYATI SHAHRIXON TUMANI OZBEKISTON MFY MASLAXATTEPA QFY BOBOCHEK 2 127 UY</t>
+          <t>QASHQADARYO VILOYATI KITOB TUMANI SANGZOR KO`CHASI 16-UY 8-XONADON</t>
         </is>
       </c>
       <c r="Q187" s="2" t="n">
-        <v>998905420909</v>
+        <v>998909023912</v>
       </c>
       <c r="R187" s="2" t="inlineStr">
         <is>
-          <t>1 Отдел Продаж</t>
+          <t>2 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B188" s="3" t="n">
-        <v>45715</v>
+        <v>45716</v>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>Б</t>
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E188" s="2" t="n">
-        <v>450</v>
+        <v>138</v>
       </c>
       <c r="F188" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G188" s="2" t="n">
-        <v>48.79</v>
+        <v>28.02</v>
       </c>
       <c r="H188" s="4" t="n">
-        <v>287861000</v>
+        <v>144204000</v>
       </c>
       <c r="I188" s="4" t="n">
-        <v>5900000</v>
+        <v>6100000</v>
       </c>
       <c r="J188" s="5" t="n">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="K188" s="4" t="n">
-        <v>125000000</v>
+        <v>144204000</v>
       </c>
       <c r="L188" s="2" t="inlineStr">
         <is>
-          <t>ERGASHEV ULUG`BEK MARDON OG`LI</t>
+          <t>ABDULLAYEV XABIBULLA KUDRAT OGLI</t>
         </is>
       </c>
       <c r="M188" s="2" t="inlineStr">
         <is>
-          <t>AD9098026</t>
+          <t>AB3432571</t>
         </is>
       </c>
       <c r="N188" s="2" t="n">
-        <v>31802942640012</v>
+        <v>31406910222484</v>
       </c>
       <c r="O188" s="2" t="inlineStr">
         <is>
-          <t>IIV 26284 22.10.2024</t>
+          <t>TOSHKENT SHAHAR OLMAZOR TUMANI IIB</t>
         </is>
       </c>
       <c r="P188" s="2" t="inlineStr">
         <is>
-          <t>QASHQADARYO VILOYATI KITOB TUMANI SANGZOR KO`CHASI 16-UY 8-XONADON</t>
+          <t>TOSHKENT SHAHAR OLMAZOR TUMANI DADABAEV KOCHASI UY-2a</t>
         </is>
       </c>
       <c r="Q188" s="2" t="n">
-        <v>998909023912</v>
+        <v>998994179333</v>
       </c>
       <c r="R188" s="2" t="inlineStr">
         <is>
-          <t>2 Отдел Продаж</t>
+          <t>1 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B189" s="3" t="n">
-        <v>45716</v>
+        <v>45721</v>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E189" s="2" t="n">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="F189" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G189" s="2" t="n">
-        <v>28.02</v>
+        <v>40.8</v>
       </c>
       <c r="H189" s="4" t="n">
-        <v>144204000</v>
+        <v>269280000</v>
       </c>
       <c r="I189" s="4" t="n">
-        <v>6100000</v>
+        <v>6600000</v>
       </c>
       <c r="J189" s="5" t="n">
-        <v>1</v>
+        <v>0.28</v>
       </c>
       <c r="K189" s="4" t="n">
-        <v>144204000</v>
+        <v>75398400</v>
       </c>
       <c r="L189" s="2" t="inlineStr">
         <is>
-          <t>ABDULLAYEV XABIBULLA KUDRAT OGLI</t>
+          <t>ASLIYEV FARRUX FARHOD OGLI</t>
         </is>
       </c>
       <c r="M189" s="2" t="inlineStr">
         <is>
-          <t>AB3432571</t>
+          <t>AD3179764</t>
         </is>
       </c>
       <c r="N189" s="2" t="n">
-        <v>31406910222484</v>
+        <v>30510922950068</v>
       </c>
       <c r="O189" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR OLMAZOR TUMANI IIB</t>
+          <t>IIV 60120 02.05.2023</t>
         </is>
       </c>
       <c r="P189" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR OLMAZOR TUMANI DADABAEV KOCHASI UY-2a</t>
+          <t>SIRDARYO VILOYATI SIRDARYO TUMANI ZIYOKORLAR MFY SHAFFOF KOCHASI 43 UY</t>
         </is>
       </c>
       <c r="Q189" s="2" t="n">
-        <v>998994179333</v>
+        <v>998916242626</v>
       </c>
       <c r="R189" s="2" t="inlineStr">
         <is>
@@ -13438,30 +13438,30 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B190" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Б</t>
         </is>
       </c>
       <c r="D190" s="2" t="n">
         <v>8</v>
       </c>
       <c r="E190" s="2" t="n">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="F190" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G190" s="2" t="n">
-        <v>40.8</v>
+        <v>41.79</v>
       </c>
       <c r="H190" s="4" t="n">
-        <v>269280000</v>
+        <v>275814000</v>
       </c>
       <c r="I190" s="4" t="n">
         <v>6600000</v>
@@ -13470,7 +13470,7 @@
         <v>0.28</v>
       </c>
       <c r="K190" s="4" t="n">
-        <v>75398400</v>
+        <v>77227920</v>
       </c>
       <c r="L190" s="2" t="inlineStr">
         <is>
@@ -13506,341 +13506,341 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B191" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E191" s="2" t="n">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="F191" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G191" s="2" t="n">
+        <v>56.21</v>
+      </c>
+      <c r="H191" s="4" t="n">
+        <v>302000029</v>
+      </c>
+      <c r="I191" s="4" t="n">
+        <v>5372710</v>
+      </c>
+      <c r="J191" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G191" s="2" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="H191" s="4" t="n">
-        <v>275814000</v>
-      </c>
-      <c r="I191" s="4" t="n">
-        <v>6600000</v>
-      </c>
-      <c r="J191" s="5" t="n">
-        <v>0.28</v>
-      </c>
       <c r="K191" s="4" t="n">
-        <v>77227920</v>
+        <v>302000029</v>
       </c>
       <c r="L191" s="2" t="inlineStr">
         <is>
-          <t>ASLIYEV FARRUX FARHOD OGLI</t>
+          <t>JUMAYEV OBID JURAQULOVICH</t>
         </is>
       </c>
       <c r="M191" s="2" t="inlineStr">
         <is>
-          <t>AD3179764</t>
+          <t>AD9851223</t>
         </is>
       </c>
       <c r="N191" s="2" t="n">
-        <v>30510922950068</v>
+        <v>30810912750031</v>
       </c>
       <c r="O191" s="2" t="inlineStr">
         <is>
-          <t>IIV 60120 02.05.2023</t>
+          <t>IIV 10414 17.12.2024</t>
         </is>
       </c>
       <c r="P191" s="2" t="inlineStr">
         <is>
-          <t>SIRDARYO VILOYATI SIRDARYO TUMANI ZIYOKORLAR MFY SHAFFOF KOCHASI 43 UY</t>
-        </is>
-      </c>
-      <c r="Q191" s="2" t="n">
-        <v>998916242626</v>
+          <t>QASHQADARYO VILOYATI CHIROQCHI TUMANI MIRZATUP QFY PAST SARIQAMISH QISHLOG`I 76-UY</t>
+        </is>
+      </c>
+      <c r="Q191" s="2" t="inlineStr">
+        <is>
+          <t>998505000197/998944977992</t>
+        </is>
       </c>
       <c r="R191" s="2" t="inlineStr">
         <is>
-          <t>1 Отдел Продаж</t>
+          <t>2 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B192" s="3" t="n">
-        <v>45721</v>
+        <v>45733</v>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E192" s="2" t="n">
-        <v>64</v>
+        <v>413</v>
       </c>
       <c r="F192" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G192" s="2" t="n">
-        <v>56.21</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="H192" s="4" t="n">
-        <v>302000029</v>
+        <v>451360000</v>
       </c>
       <c r="I192" s="4" t="n">
-        <v>5372710</v>
+        <v>6500000</v>
       </c>
       <c r="J192" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K192" s="4" t="n">
-        <v>302000029</v>
+        <v>225680000</v>
       </c>
       <c r="L192" s="2" t="inlineStr">
         <is>
-          <t>JUMAYEV OBID JURAQULOVICH</t>
+          <t>STAMKULOVA SAULE DOLDAYEVNA</t>
         </is>
       </c>
       <c r="M192" s="2" t="inlineStr">
         <is>
-          <t>AD9851223</t>
+          <t>AC0486061</t>
         </is>
       </c>
       <c r="N192" s="2" t="n">
-        <v>30810912750031</v>
+        <v>40201640470017</v>
       </c>
       <c r="O192" s="2" t="inlineStr">
         <is>
-          <t>IIV 10414 17.12.2024</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB  18.11.2018</t>
         </is>
       </c>
       <c r="P192" s="2" t="inlineStr">
         <is>
-          <t>QASHQADARYO VILOYATI CHIROQCHI TUMANI MIRZATUP QFY PAST SARIQAMISH QISHLOG`I 76-UY</t>
-        </is>
-      </c>
-      <c r="Q192" s="2" t="inlineStr">
-        <is>
-          <t>998505000197/998944977992</t>
-        </is>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR RUDAKI KOCHASI</t>
+        </is>
+      </c>
+      <c r="Q192" s="2" t="n">
+        <v>998917767737</v>
       </c>
       <c r="R192" s="2" t="inlineStr">
         <is>
-          <t>2 Отдел Продаж</t>
+          <t>Руоводство</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B193" s="3" t="n">
-        <v>45733</v>
+        <v>45721</v>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E193" s="2" t="n">
-        <v>413</v>
+        <v>15</v>
       </c>
       <c r="F193" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G193" s="2" t="n">
-        <v>74.06999999999999</v>
+        <v>56.21</v>
       </c>
       <c r="H193" s="4" t="n">
-        <v>451360000</v>
+        <v>410333000</v>
       </c>
       <c r="I193" s="4" t="n">
-        <v>6500000</v>
+        <v>7300000</v>
       </c>
       <c r="J193" s="5" t="n">
         <v>0.5</v>
       </c>
       <c r="K193" s="4" t="n">
-        <v>225680000</v>
+        <v>205166500</v>
       </c>
       <c r="L193" s="2" t="inlineStr">
         <is>
-          <t>STAMKULOVA SAULE DOLDAYEVNA</t>
+          <t>ABDURAXIMOV NAVRUZBEK BEKNAZAR O`G`LI</t>
         </is>
       </c>
       <c r="M193" s="2" t="inlineStr">
         <is>
-          <t>AC0486061</t>
+          <t>AE1591083</t>
         </is>
       </c>
       <c r="N193" s="2" t="n">
-        <v>40201640470017</v>
+        <v>32003985640017</v>
       </c>
       <c r="O193" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB  18.11.2018</t>
+          <t>IIV 26284 12.02.2025</t>
         </is>
       </c>
       <c r="P193" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR RUDAKI KOCHASI</t>
-        </is>
-      </c>
-      <c r="Q193" s="2" t="n">
-        <v>998917767737</v>
+          <t>QASHQADARYO VILOYATI CHIROQCHI TUMANI MIRZATUP QFY PAST SARIQAMISH QISHLOG`I 68-UY</t>
+        </is>
+      </c>
+      <c r="Q193" s="2" t="inlineStr">
+        <is>
+          <t>998948750102/998978781000</t>
+        </is>
       </c>
       <c r="R193" s="2" t="inlineStr">
         <is>
-          <t>Руоводство</t>
+          <t>2 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B194" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D194" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>452</v>
+      </c>
+      <c r="F194" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E194" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="F194" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="G194" s="2" t="n">
-        <v>56.21</v>
+        <v>76.95</v>
       </c>
       <c r="H194" s="4" t="n">
-        <v>410333000</v>
+        <v>381679440</v>
       </c>
       <c r="I194" s="4" t="n">
-        <v>7300000</v>
+        <v>5264544</v>
       </c>
       <c r="J194" s="5" t="n">
-        <v>0.5</v>
+        <v>0.28</v>
       </c>
       <c r="K194" s="4" t="n">
-        <v>205166500</v>
+        <v>106106884</v>
       </c>
       <c r="L194" s="2" t="inlineStr">
         <is>
-          <t>ABDURAXIMOV NAVRUZBEK BEKNAZAR O`G`LI</t>
+          <t>ERGASHEV  NODIRJON JASURBEKOVICH</t>
         </is>
       </c>
       <c r="M194" s="2" t="inlineStr">
         <is>
-          <t>AE1591083</t>
+          <t>AD1100367</t>
         </is>
       </c>
       <c r="N194" s="2" t="n">
-        <v>32003985640017</v>
+        <v>52001056150027</v>
       </c>
       <c r="O194" s="2" t="inlineStr">
         <is>
-          <t>IIV 26284 12.02.2025</t>
+          <t>IIV18403  02/02/2021</t>
         </is>
       </c>
       <c r="P194" s="2" t="inlineStr">
         <is>
-          <t>QASHQADARYO VILOYATI CHIROQCHI TUMANI MIRZATUP QFY PAST SARIQAMISH QISHLOG`I 68-UY</t>
-        </is>
-      </c>
-      <c r="Q194" s="2" t="inlineStr">
-        <is>
-          <t>998948750102/998978781000</t>
-        </is>
+          <t>SAMARQAND VILOYATI  TAYLAQ TUMANI  QUNDUZAK QISHLOGI 64-UY</t>
+        </is>
+      </c>
+      <c r="Q194" s="2" t="n">
+        <v>998933479739</v>
       </c>
       <c r="R194" s="2" t="inlineStr">
         <is>
-          <t>2 Отдел Продаж</t>
+          <t>Руоводство</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B195" s="3" t="n">
-        <v>45721</v>
+        <v>45730</v>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E195" s="2" t="n">
-        <v>452</v>
+        <v>340</v>
       </c>
       <c r="F195" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G195" s="2" t="n">
-        <v>76.95</v>
+        <v>66.03</v>
       </c>
       <c r="H195" s="4" t="n">
-        <v>381679440</v>
+        <v>429195000</v>
       </c>
       <c r="I195" s="4" t="n">
-        <v>5264544</v>
+        <v>6500000</v>
       </c>
       <c r="J195" s="5" t="n">
-        <v>0.28</v>
+        <v>0.5</v>
       </c>
       <c r="K195" s="4" t="n">
-        <v>106106884</v>
+        <v>214597500</v>
       </c>
       <c r="L195" s="2" t="inlineStr">
         <is>
-          <t>ERGASHEV  NODIRJON JASURBEKOVICH</t>
+          <t>KIDIRBAYEV AZIZBEK GABITOVICH</t>
         </is>
       </c>
       <c r="M195" s="2" t="inlineStr">
         <is>
-          <t>AD1100367</t>
+          <t>AD1283118</t>
         </is>
       </c>
       <c r="N195" s="2" t="n">
-        <v>52001056150027</v>
+        <v>30510880520051</v>
       </c>
       <c r="O195" s="2" t="inlineStr">
         <is>
-          <t>IIV18403  02/02/2021</t>
+          <t>IIV27419  20/04/2022</t>
         </is>
       </c>
       <c r="P195" s="2" t="inlineStr">
         <is>
-          <t>SAMARQAND VILOYATI  TAYLAQ TUMANI  QUNDUZAK QISHLOGI 64-UY</t>
+          <t>YUQORICHIRCHIQ TUMAN SAKSON OTA MFY MARKAZI CHAMAN -2 KOCHASI UY-2</t>
         </is>
       </c>
       <c r="Q195" s="2" t="n">
-        <v>998933479739</v>
+        <v>998917767737</v>
       </c>
       <c r="R195" s="2" t="inlineStr">
         <is>
@@ -13850,107 +13850,107 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B196" s="3" t="n">
-        <v>45730</v>
+        <v>45733</v>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E196" s="2" t="n">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="F196" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G196" s="2" t="n">
-        <v>66.03</v>
+        <v>56.21</v>
       </c>
       <c r="H196" s="4" t="n">
-        <v>429195000</v>
+        <v>281050000</v>
       </c>
       <c r="I196" s="4" t="n">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="J196" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K196" s="4" t="n">
-        <v>214597500</v>
+        <v>281050000</v>
       </c>
       <c r="L196" s="2" t="inlineStr">
         <is>
-          <t>KIDIRBAYEV AZIZBEK GABITOVICH</t>
+          <t>XOLIQOVA ZEBO AMRULLAYEVNA</t>
         </is>
       </c>
       <c r="M196" s="2" t="inlineStr">
         <is>
-          <t>AD1283118</t>
+          <t>AE1774063</t>
         </is>
       </c>
       <c r="N196" s="2" t="n">
-        <v>30510880520051</v>
+        <v>42505782560271</v>
       </c>
       <c r="O196" s="2" t="inlineStr">
         <is>
-          <t>IIV27419  20/04/2022</t>
+          <t>IIV 10208 27.02.2025</t>
         </is>
       </c>
       <c r="P196" s="2" t="inlineStr">
         <is>
-          <t>YUQORICHIRCHIQ TUMAN SAKSON OTA MFY MARKAZI CHAMAN -2 KOCHASI UY-2</t>
+          <t>TOSHKENT SHAHAR UCHTEPA TUMANI VATAN MFY SHIRIN KUCHASI 24/52/40</t>
         </is>
       </c>
       <c r="Q196" s="2" t="n">
-        <v>998917767737</v>
+        <v>998338069696</v>
       </c>
       <c r="R196" s="2" t="inlineStr">
         <is>
-          <t>Руоводство</t>
+          <t>1 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B197" s="3" t="n">
         <v>45733</v>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Б</t>
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E197" s="2" t="n">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="F197" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G197" s="2" t="n">
-        <v>56.21</v>
+        <v>68.25</v>
       </c>
       <c r="H197" s="4" t="n">
-        <v>281050000</v>
+        <v>354900000</v>
       </c>
       <c r="I197" s="4" t="n">
-        <v>5000000</v>
+        <v>5200000</v>
       </c>
       <c r="J197" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K197" s="4" t="n">
-        <v>281050000</v>
+        <v>354900000</v>
       </c>
       <c r="L197" s="2" t="inlineStr">
         <is>
@@ -13986,65 +13986,65 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B198" s="3" t="n">
         <v>45733</v>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E198" s="2" t="n">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="F198" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G198" s="2" t="n">
-        <v>68.25</v>
+        <v>40.8</v>
       </c>
       <c r="H198" s="4" t="n">
-        <v>354900000</v>
+        <v>275400000</v>
       </c>
       <c r="I198" s="4" t="n">
-        <v>5200000</v>
+        <v>6750000</v>
       </c>
       <c r="J198" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K198" s="4" t="n">
-        <v>354900000</v>
+        <v>137700000</v>
       </c>
       <c r="L198" s="2" t="inlineStr">
         <is>
-          <t>XOLIQOVA ZEBO AMRULLAYEVNA</t>
+          <t>RUZIBAYEVA MUKADDAS ABDUSAATOVNA</t>
         </is>
       </c>
       <c r="M198" s="2" t="inlineStr">
         <is>
-          <t>AE1774063</t>
+          <t>AD7674358</t>
         </is>
       </c>
       <c r="N198" s="2" t="n">
-        <v>42505782560271</v>
+        <v>41305690470018</v>
       </c>
       <c r="O198" s="2" t="inlineStr">
         <is>
-          <t>IIV 10208 27.02.2025</t>
+          <t>IIV 27419 29.06.2024</t>
         </is>
       </c>
       <c r="P198" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR UCHTEPA TUMANI VATAN MFY SHIRIN KUCHASI 24/52/40</t>
+          <t>CHIRCHIQ SHAHAR  3 KICHIQ NOHIYA 29 UY 12 XONADON</t>
         </is>
       </c>
       <c r="Q198" s="2" t="n">
-        <v>998338069696</v>
+        <v>998917779212</v>
       </c>
       <c r="R198" s="2" t="inlineStr">
         <is>
@@ -14054,175 +14054,175 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>206</v>
-      </c>
-      <c r="B199" s="3" t="n">
+        <v>207</v>
+      </c>
+      <c r="B199" s="7" t="n">
         <v>45733</v>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E199" s="2" t="n">
-        <v>46</v>
+        <v>325</v>
       </c>
       <c r="F199" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G199" s="2" t="n">
-        <v>40.8</v>
+        <v>69.38</v>
       </c>
       <c r="H199" s="4" t="n">
-        <v>275400000</v>
+        <v>485660000</v>
       </c>
       <c r="I199" s="4" t="n">
-        <v>6750000</v>
+        <v>7000000</v>
       </c>
       <c r="J199" s="5" t="n">
         <v>0.5</v>
       </c>
       <c r="K199" s="4" t="n">
-        <v>137700000</v>
+        <v>242830000</v>
       </c>
       <c r="L199" s="2" t="inlineStr">
         <is>
-          <t>RUZIBAYEVA MUKADDAS ABDUSAATOVNA</t>
+          <t>RUSTAMBEKOV MUZAFFAR RUSTAMBEK OGLI</t>
         </is>
       </c>
       <c r="M199" s="2" t="inlineStr">
         <is>
-          <t>AD7674358</t>
+          <t>AD3712377</t>
         </is>
       </c>
       <c r="N199" s="2" t="n">
-        <v>41305690470018</v>
+        <v>30907760560045</v>
       </c>
       <c r="O199" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419 29.06.2024</t>
+          <t>IIV 27248 20.06.2023</t>
         </is>
       </c>
       <c r="P199" s="2" t="inlineStr">
         <is>
-          <t>CHIRCHIQ SHAHAR  3 KICHIQ NOHIYA 29 UY 12 XONADON</t>
+          <t>TOSHKENT VILOYATI QIBRAY TUMANI ISTIKBOL MFYTINCHLIK KUCHASI 85 UY</t>
         </is>
       </c>
       <c r="Q199" s="2" t="n">
-        <v>998917779212</v>
+        <v>998976161541</v>
       </c>
       <c r="R199" s="2" t="inlineStr">
         <is>
-          <t>1 Отдел Продаж</t>
+          <t>Руоводство</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>207</v>
-      </c>
-      <c r="B200" s="7" t="n">
-        <v>45733</v>
+        <v>208</v>
+      </c>
+      <c r="B200" s="3" t="n">
+        <v>45779</v>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E200" s="2" t="n">
-        <v>325</v>
+        <v>60</v>
       </c>
       <c r="F200" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G200" s="2" t="n">
-        <v>69.38</v>
+        <v>40.8</v>
       </c>
       <c r="H200" s="4" t="n">
-        <v>485660000</v>
+        <v>261120000</v>
       </c>
       <c r="I200" s="4" t="n">
-        <v>7000000</v>
+        <v>6400000</v>
       </c>
       <c r="J200" s="5" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K200" s="4" t="n">
-        <v>242830000</v>
+        <v>78336000</v>
       </c>
       <c r="L200" s="2" t="inlineStr">
         <is>
-          <t>RUSTAMBEKOV MUZAFFAR RUSTAMBEK OGLI</t>
+          <t>YUNUSOV AYDER ENVEROVICH</t>
         </is>
       </c>
       <c r="M200" s="2" t="inlineStr">
         <is>
-          <t>AD3712377</t>
+          <t>AD0510771</t>
         </is>
       </c>
       <c r="N200" s="2" t="n">
-        <v>30907760560045</v>
+        <v>30506910840013</v>
       </c>
       <c r="O200" s="2" t="inlineStr">
         <is>
-          <t>IIV 27248 20.06.2023</t>
+          <t>IIV27419 19/07/2021</t>
         </is>
       </c>
       <c r="P200" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI QIBRAY TUMANI ISTIKBOL MFYTINCHLIK KUCHASI 85 UY</t>
+          <t>CHIRCHIQ SHAHAR ASKOCHENSKO-24</t>
         </is>
       </c>
       <c r="Q200" s="2" t="n">
-        <v>998976161541</v>
+        <v>998337070070</v>
       </c>
       <c r="R200" s="2" t="inlineStr">
         <is>
-          <t>Руоводство</t>
+          <t>1 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B201" s="3" t="n">
         <v>45779</v>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Б</t>
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E201" s="2" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="F201" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G201" s="2" t="n">
-        <v>40.8</v>
+        <v>28.08</v>
       </c>
       <c r="H201" s="4" t="n">
-        <v>261120000</v>
+        <v>150114000</v>
       </c>
       <c r="I201" s="4" t="n">
-        <v>6400000</v>
+        <v>6350000</v>
       </c>
       <c r="J201" s="5" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K201" s="4" t="n">
-        <v>78336000</v>
+        <v>75057000</v>
       </c>
       <c r="L201" s="2" t="inlineStr">
         <is>
@@ -14258,65 +14258,65 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B202" s="3" t="n">
-        <v>45779</v>
+        <v>45738</v>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E202" s="2" t="n">
-        <v>130</v>
+        <v>405</v>
       </c>
       <c r="F202" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G202" s="2" t="n">
-        <v>28.08</v>
+        <v>55.56</v>
       </c>
       <c r="H202" s="4" t="n">
-        <v>150114000</v>
+        <v>360431500</v>
       </c>
       <c r="I202" s="4" t="n">
-        <v>6350000</v>
+        <v>7150000</v>
       </c>
       <c r="J202" s="5" t="n">
         <v>0.5</v>
       </c>
       <c r="K202" s="4" t="n">
-        <v>75057000</v>
+        <v>180215750</v>
       </c>
       <c r="L202" s="2" t="inlineStr">
         <is>
-          <t>YUNUSOV AYDER ENVEROVICH</t>
+          <t>XOLIQOV ASKAR AGZAMOVICH</t>
         </is>
       </c>
       <c r="M202" s="2" t="inlineStr">
         <is>
-          <t>AD0510771</t>
+          <t>AD8047582</t>
         </is>
       </c>
       <c r="N202" s="2" t="n">
-        <v>30506910840013</v>
+        <v>32108890560048</v>
       </c>
       <c r="O202" s="2" t="inlineStr">
         <is>
-          <t>IIV27419 19/07/2021</t>
+          <t>IIV 27248 30.07.2024</t>
         </is>
       </c>
       <c r="P202" s="2" t="inlineStr">
         <is>
-          <t>CHIRCHIQ SHAHAR ASKOCHENSKO-24</t>
+          <t>TOSHKENT VILOYATI QIBRAY TUMANI OTKIR MFY BOHOR KUCHASI 3 UY</t>
         </is>
       </c>
       <c r="Q202" s="2" t="n">
-        <v>998337070070</v>
+        <v>998998346889</v>
       </c>
       <c r="R202" s="2" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B203" s="3" t="n">
         <v>45738</v>
@@ -14340,25 +14340,25 @@
         <v>5</v>
       </c>
       <c r="E203" s="2" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F203" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G203" s="2" t="n">
-        <v>55.56</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="H203" s="4" t="n">
-        <v>360431500</v>
+        <v>513856000</v>
       </c>
       <c r="I203" s="4" t="n">
-        <v>7150000</v>
+        <v>7400000</v>
       </c>
       <c r="J203" s="5" t="n">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
       <c r="K203" s="4" t="n">
-        <v>180215750</v>
+        <v>210680960</v>
       </c>
       <c r="L203" s="2" t="inlineStr">
         <is>
@@ -14394,65 +14394,65 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B204" s="3" t="n">
-        <v>45738</v>
+        <v>45739</v>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E204" s="2" t="n">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="F204" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G204" s="2" t="n">
-        <v>74.06999999999999</v>
+        <v>41.75</v>
       </c>
       <c r="H204" s="4" t="n">
-        <v>513856000</v>
+        <v>242150000</v>
       </c>
       <c r="I204" s="4" t="n">
-        <v>7400000</v>
+        <v>5800000</v>
       </c>
       <c r="J204" s="5" t="n">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="K204" s="4" t="n">
-        <v>210680960</v>
+        <v>121075000</v>
       </c>
       <c r="L204" s="2" t="inlineStr">
         <is>
-          <t>XOLIQOV ASKAR AGZAMOVICH</t>
+          <t>MANABOVA SARVINOZ SOBIR QIZI</t>
         </is>
       </c>
       <c r="M204" s="2" t="inlineStr">
         <is>
-          <t>AD8047582</t>
+          <t>AD1457365</t>
         </is>
       </c>
       <c r="N204" s="2" t="n">
-        <v>32108890560048</v>
+        <v>40506966860017</v>
       </c>
       <c r="O204" s="2" t="inlineStr">
         <is>
-          <t>IIV 27248 30.07.2024</t>
+          <t>IIV 27419 14.06.2022</t>
         </is>
       </c>
       <c r="P204" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI QIBRAY TUMANI OTKIR MFY BOHOR KUCHASI 3 UY</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR XAYDAR MAHSUDOV 240</t>
         </is>
       </c>
       <c r="Q204" s="2" t="n">
-        <v>998998346889</v>
+        <v>998900029303</v>
       </c>
       <c r="R204" s="2" t="inlineStr">
         <is>
@@ -14462,65 +14462,65 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B205" s="3" t="n">
         <v>45739</v>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E205" s="2" t="n">
-        <v>369</v>
+        <v>432</v>
       </c>
       <c r="F205" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G205" s="2" t="n">
-        <v>41.75</v>
+        <v>40.8</v>
       </c>
       <c r="H205" s="4" t="n">
-        <v>242150000</v>
+        <v>252960000</v>
       </c>
       <c r="I205" s="4" t="n">
-        <v>5800000</v>
+        <v>6200000</v>
       </c>
       <c r="J205" s="5" t="n">
         <v>0.5</v>
       </c>
       <c r="K205" s="4" t="n">
-        <v>121075000</v>
+        <v>126480000</v>
       </c>
       <c r="L205" s="2" t="inlineStr">
         <is>
-          <t>MANABOVA SARVINOZ SOBIR QIZI</t>
+          <t>TULEGANOVA MUSHARRAFXON XAMIDJONOVNA</t>
         </is>
       </c>
       <c r="M205" s="2" t="inlineStr">
         <is>
-          <t>AD1457365</t>
+          <t>AB0407754</t>
         </is>
       </c>
       <c r="N205" s="2" t="n">
-        <v>40506966860017</v>
+        <v>41504740270011</v>
       </c>
       <c r="O205" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419 14.06.2022</t>
+          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI IIB</t>
         </is>
       </c>
       <c r="P205" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR XAYDAR MAHSUDOV 240</t>
+          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI OQITUVCHI 12A</t>
         </is>
       </c>
       <c r="Q205" s="2" t="n">
-        <v>998900029303</v>
+        <v>998977077566</v>
       </c>
       <c r="R205" s="2" t="inlineStr">
         <is>
@@ -14529,136 +14529,136 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
-        <v>213</v>
+      <c r="A206" s="1" t="n">
+        <v>214</v>
       </c>
       <c r="B206" s="3" t="n">
-        <v>45739</v>
+        <v>45740</v>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
+          <t>Г</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>290</v>
+      </c>
+      <c r="F206" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G206" s="2" t="n">
+        <v>75.98</v>
+      </c>
+      <c r="H206" s="4" t="n">
+        <v>486272000</v>
+      </c>
+      <c r="I206" s="4" t="n">
+        <v>6400000</v>
+      </c>
+      <c r="J206" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K206" s="4" t="n">
+        <v>145881600</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>RIXSITILLAYEV ABROR ALIYOR OGLI</t>
+        </is>
+      </c>
+      <c r="M206" s="2" t="inlineStr">
+        <is>
+          <t>AD1590961</t>
+        </is>
+      </c>
+      <c r="N206" s="2" t="n">
+        <v>32802966860017</v>
+      </c>
+      <c r="O206" s="2" t="inlineStr">
+        <is>
+          <t>IIV 27419 27.07.2022</t>
+        </is>
+      </c>
+      <c r="P206" s="2" t="inlineStr">
+        <is>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR MIRZO GOLIB MFY MUHANDISLAR 3 UY</t>
+        </is>
+      </c>
+      <c r="Q206" s="2" t="inlineStr">
+        <is>
+          <t>998992222196 998997984255</t>
+        </is>
+      </c>
+      <c r="R206" s="2" t="inlineStr">
+        <is>
+          <t>1 Отдел Продаж</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B207" s="3" t="n">
+        <v>45741</v>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
           <t>Е</t>
         </is>
       </c>
-      <c r="D206" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E206" s="2" t="n">
-        <v>432</v>
-      </c>
-      <c r="F206" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G206" s="2" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="H206" s="4" t="n">
-        <v>252960000</v>
-      </c>
-      <c r="I206" s="4" t="n">
-        <v>6200000</v>
-      </c>
-      <c r="J206" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K206" s="4" t="n">
-        <v>126480000</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>TULEGANOVA MUSHARRAFXON XAMIDJONOVNA</t>
-        </is>
-      </c>
-      <c r="M206" s="2" t="inlineStr">
-        <is>
-          <t>AB0407754</t>
-        </is>
-      </c>
-      <c r="N206" s="2" t="n">
-        <v>41504740270011</v>
-      </c>
-      <c r="O206" s="2" t="inlineStr">
-        <is>
-          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI IIB</t>
-        </is>
-      </c>
-      <c r="P206" s="2" t="inlineStr">
-        <is>
-          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI OQITUVCHI 12A</t>
-        </is>
-      </c>
-      <c r="Q206" s="2" t="n">
-        <v>998977077566</v>
-      </c>
-      <c r="R206" s="2" t="inlineStr">
-        <is>
-          <t>1 Отдел Продаж</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B207" s="3" t="n">
-        <v>45740</v>
-      </c>
-      <c r="C207" s="2" t="inlineStr">
-        <is>
-          <t>Г</t>
-        </is>
-      </c>
       <c r="D207" s="2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E207" s="2" t="n">
-        <v>290</v>
+        <v>393</v>
       </c>
       <c r="F207" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G207" s="2" t="n">
-        <v>75.98</v>
+        <v>56.21</v>
       </c>
       <c r="H207" s="4" t="n">
-        <v>486272000</v>
+        <v>430006500</v>
       </c>
       <c r="I207" s="4" t="n">
-        <v>6400000</v>
+        <v>7650000</v>
       </c>
       <c r="J207" s="5" t="n">
         <v>0.3</v>
       </c>
       <c r="K207" s="4" t="n">
-        <v>145881600</v>
+        <v>129001950</v>
       </c>
       <c r="L207" s="2" t="inlineStr">
         <is>
-          <t>RIXSITILLAYEV ABROR ALIYOR OGLI</t>
+          <t>BEGIMOVA DILBAR TALIPBAEVNA</t>
         </is>
       </c>
       <c r="M207" s="2" t="inlineStr">
         <is>
-          <t>AD1590961</t>
+          <t>AC2328553</t>
         </is>
       </c>
       <c r="N207" s="2" t="n">
-        <v>32802966860017</v>
+        <v>42306750520013</v>
       </c>
       <c r="O207" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419 27.07.2022</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
         </is>
       </c>
       <c r="P207" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR MIRZO GOLIB MFY MUHANDISLAR 3 UY</t>
-        </is>
-      </c>
-      <c r="Q207" s="2" t="inlineStr">
-        <is>
-          <t>998992222196 998997984255</t>
-        </is>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR AMIR TEMUR KOCHSSI  11 UY 99 XONADON</t>
+        </is>
+      </c>
+      <c r="Q207" s="2" t="n">
+        <v>978721262</v>
       </c>
       <c r="R207" s="2" t="inlineStr">
         <is>
@@ -14668,65 +14668,65 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B208" s="3" t="n">
-        <v>45741</v>
+        <v>45744</v>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>Б</t>
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E208" s="2" t="n">
-        <v>393</v>
+        <v>91</v>
       </c>
       <c r="F208" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G208" s="2" t="n">
-        <v>56.21</v>
+        <v>55.1</v>
       </c>
       <c r="H208" s="4" t="n">
-        <v>430006500</v>
+        <v>429780000</v>
       </c>
       <c r="I208" s="4" t="n">
-        <v>7650000</v>
+        <v>7800000</v>
       </c>
       <c r="J208" s="5" t="n">
         <v>0.3</v>
       </c>
       <c r="K208" s="4" t="n">
-        <v>129001950</v>
+        <v>128934000</v>
       </c>
       <c r="L208" s="2" t="inlineStr">
         <is>
-          <t>BEGIMOVA DILBAR TALIPBAEVNA</t>
+          <t>DJUMABAYEV DAVLATBAY XALILLAYEVICH</t>
         </is>
       </c>
       <c r="M208" s="2" t="inlineStr">
         <is>
-          <t>AC2328553</t>
+          <t>AD4758109</t>
         </is>
       </c>
       <c r="N208" s="2" t="n">
-        <v>42306750520013</v>
+        <v>32101690221629</v>
       </c>
       <c r="O208" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
+          <t>IIV 60006 03.10.2023</t>
         </is>
       </c>
       <c r="P208" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR AMIR TEMUR KOCHSSI  11 UY 99 XONADON</t>
+          <t>TOSHKENT SGAHAR CHILONZOR TUMANI SOGALLI OTA 83 UY 13XONADON</t>
         </is>
       </c>
       <c r="Q208" s="2" t="n">
-        <v>978721262</v>
+        <v>998908087720</v>
       </c>
       <c r="R208" s="2" t="inlineStr">
         <is>
@@ -14736,10 +14736,10 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B209" s="3" t="n">
-        <v>45744</v>
+        <v>45047</v>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
@@ -14747,190 +14747,190 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E209" s="2" t="n">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="F209" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G209" s="2" t="n">
-        <v>55.1</v>
+        <v>28.02</v>
       </c>
       <c r="H209" s="4" t="n">
-        <v>429780000</v>
+        <v>143022000</v>
       </c>
       <c r="I209" s="4" t="n">
-        <v>7800000</v>
+        <v>6050000</v>
       </c>
       <c r="J209" s="5" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K209" s="4" t="n">
-        <v>128934000</v>
+        <v>0</v>
       </c>
       <c r="L209" s="2" t="inlineStr">
         <is>
-          <t>DJUMABAYEV DAVLATBAY XALILLAYEVICH</t>
+          <t>NISHANOV AZIZ YASHINOVICH</t>
         </is>
       </c>
       <c r="M209" s="2" t="inlineStr">
         <is>
-          <t>AD4758109</t>
+          <t>AD1571420</t>
         </is>
       </c>
       <c r="N209" s="2" t="n">
-        <v>32101690221629</v>
+        <v>30103976890015</v>
       </c>
       <c r="O209" s="2" t="inlineStr">
         <is>
-          <t>IIV 60006 03.10.2023</t>
+          <t>IIV 30401 20.07.2022</t>
         </is>
       </c>
       <c r="P209" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SGAHAR CHILONZOR TUMANI SOGALLI OTA 83 UY 13XONADON</t>
+          <t>FARGONA VILOYATI FARHONA SHAHAR SAKKOKIY KUCHSI 10 UY</t>
         </is>
       </c>
       <c r="Q209" s="2" t="n">
-        <v>998908087720</v>
+        <v>998982768888</v>
       </c>
       <c r="R209" s="2" t="inlineStr">
         <is>
-          <t>1 Отдел Продаж</t>
+          <t>Руоводство</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B210" s="3" t="n">
-        <v>45047</v>
+        <v>45748</v>
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E210" s="2" t="n">
-        <v>131</v>
+        <v>355</v>
       </c>
       <c r="F210" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G210" s="2" t="n">
-        <v>28.02</v>
+        <v>69.38</v>
       </c>
       <c r="H210" s="4" t="n">
-        <v>143022000</v>
+        <v>457908000</v>
       </c>
       <c r="I210" s="4" t="n">
-        <v>6050000</v>
+        <v>6600000</v>
       </c>
       <c r="J210" s="5" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K210" s="4" t="n">
-        <v>0</v>
+        <v>137372400</v>
       </c>
       <c r="L210" s="2" t="inlineStr">
         <is>
-          <t>NISHANOV AZIZ YASHINOVICH</t>
+          <t>SHARIPOV UMID LATIPOVICH</t>
         </is>
       </c>
       <c r="M210" s="2" t="inlineStr">
         <is>
-          <t>AD1571420</t>
+          <t>AB9473185</t>
         </is>
       </c>
       <c r="N210" s="2" t="n">
-        <v>30103976890015</v>
+        <v>305088602700700</v>
       </c>
       <c r="O210" s="2" t="inlineStr">
         <is>
-          <t>IIV 30401 20.07.2022</t>
+          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI IIB</t>
         </is>
       </c>
       <c r="P210" s="2" t="inlineStr">
         <is>
-          <t>FARGONA VILOYATI FARHONA SHAHAR SAKKOKIY KUCHSI 10 UY</t>
+          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI QORASUV 3 5 UY 21 XONADON</t>
         </is>
       </c>
       <c r="Q210" s="2" t="n">
-        <v>998982768888</v>
+        <v>998909975645</v>
       </c>
       <c r="R210" s="2" t="inlineStr">
         <is>
-          <t>Руоводство</t>
+          <t>1 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B211" s="3" t="n">
         <v>45748</v>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Б</t>
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E211" s="2" t="n">
-        <v>355</v>
+        <v>104</v>
       </c>
       <c r="F211" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G211" s="2" t="n">
-        <v>69.38</v>
+        <v>41.79</v>
       </c>
       <c r="H211" s="4" t="n">
-        <v>457908000</v>
+        <v>309246000</v>
       </c>
       <c r="I211" s="4" t="n">
-        <v>6600000</v>
+        <v>7400000</v>
       </c>
       <c r="J211" s="5" t="n">
         <v>0.3</v>
       </c>
       <c r="K211" s="4" t="n">
-        <v>137372400</v>
+        <v>92773800</v>
       </c>
       <c r="L211" s="2" t="inlineStr">
         <is>
-          <t>SHARIPOV UMID LATIPOVICH</t>
+          <t>DJUMABAYEVA SALOMAT KAMILJANOVNA</t>
         </is>
       </c>
       <c r="M211" s="2" t="inlineStr">
         <is>
-          <t>AB9473185</t>
+          <t>AD3220320</t>
         </is>
       </c>
       <c r="N211" s="2" t="n">
-        <v>305088602700700</v>
+        <v>40203820170056</v>
       </c>
       <c r="O211" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI IIB</t>
+          <t>IIV 26266 05.05.2023</t>
         </is>
       </c>
       <c r="P211" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI QORASUV 3 5 UY 21 XONADON</t>
+          <t>TOSHKENT SHAHAR UNUSOBOD TUMANI TIKLANISH 5 TOR KUCHASI 20UY</t>
         </is>
       </c>
       <c r="Q211" s="2" t="n">
-        <v>998909975645</v>
+        <v>998900058535</v>
       </c>
       <c r="R211" s="2" t="inlineStr">
         <is>
@@ -14940,30 +14940,30 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B212" s="3" t="n">
-        <v>45748</v>
+        <v>45765</v>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E212" s="2" t="n">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="F212" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G212" s="2" t="n">
-        <v>41.79</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="H212" s="4" t="n">
-        <v>309246000</v>
+        <v>513856000</v>
       </c>
       <c r="I212" s="4" t="n">
         <v>7400000</v>
@@ -14972,33 +14972,33 @@
         <v>0.3</v>
       </c>
       <c r="K212" s="4" t="n">
-        <v>92773800</v>
+        <v>154156800</v>
       </c>
       <c r="L212" s="2" t="inlineStr">
         <is>
-          <t>DJUMABAYEVA SALOMAT KAMILJANOVNA</t>
+          <t>YULDASHEV ODILJON SAYDALI OGLI</t>
         </is>
       </c>
       <c r="M212" s="2" t="inlineStr">
         <is>
-          <t>AD3220320</t>
+          <t>AD0744942</t>
         </is>
       </c>
       <c r="N212" s="2" t="n">
-        <v>40203820170056</v>
+        <v>30407976860019</v>
       </c>
       <c r="O212" s="2" t="inlineStr">
         <is>
-          <t>IIV 26266 05.05.2023</t>
+          <t>IIV 27419</t>
         </is>
       </c>
       <c r="P212" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR UNUSOBOD TUMANI TIKLANISH 5 TOR KUCHASI 20UY</t>
+          <t>TOSHKENT VILOYATI CHIRCHIK SHAHRI SHUHRAT KUCHASI 2A UY</t>
         </is>
       </c>
       <c r="Q212" s="2" t="n">
-        <v>998900058535</v>
+        <v>998903332834</v>
       </c>
       <c r="R212" s="2" t="inlineStr">
         <is>
@@ -15008,21 +15008,21 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B213" s="3" t="n">
-        <v>45765</v>
+        <v>45750</v>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E213" s="2" t="n">
-        <v>30</v>
+        <v>441</v>
       </c>
       <c r="F213" s="2" t="n">
         <v>2</v>
@@ -15031,42 +15031,42 @@
         <v>74.06999999999999</v>
       </c>
       <c r="H213" s="4" t="n">
-        <v>513856000</v>
+        <v>444416000</v>
       </c>
       <c r="I213" s="4" t="n">
-        <v>7400000</v>
+        <v>6400000</v>
       </c>
       <c r="J213" s="5" t="n">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="K213" s="4" t="n">
-        <v>154156800</v>
+        <v>100438016</v>
       </c>
       <c r="L213" s="2" t="inlineStr">
         <is>
-          <t>YULDASHEV ODILJON SAYDALI OGLI</t>
+          <t>OLLOBERGANOV SHOKIR RAVSHANBEK OGLI</t>
         </is>
       </c>
       <c r="M213" s="2" t="inlineStr">
         <is>
-          <t>AD0744942</t>
+          <t>AD9003800</t>
         </is>
       </c>
       <c r="N213" s="2" t="n">
-        <v>30407976860019</v>
+        <v>30112976860018</v>
       </c>
       <c r="O213" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419</t>
+          <t>IIV 35204 14.10.2024</t>
         </is>
       </c>
       <c r="P213" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIK SHAHRI SHUHRAT KUCHASI 2A UY</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR  1 KICHIQ NOXIYA 12UY 54 XONADON</t>
         </is>
       </c>
       <c r="Q213" s="2" t="n">
-        <v>998903332834</v>
+        <v>998937120097</v>
       </c>
       <c r="R213" s="2" t="inlineStr">
         <is>
@@ -15075,66 +15075,66 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
-        <v>221</v>
+      <c r="A214" s="1" t="n">
+        <v>222</v>
       </c>
       <c r="B214" s="3" t="n">
         <v>45750</v>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>Г</t>
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E214" s="2" t="n">
-        <v>441</v>
+        <v>282</v>
       </c>
       <c r="F214" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G214" s="2" t="n">
-        <v>74.06999999999999</v>
+        <v>40.04</v>
       </c>
       <c r="H214" s="4" t="n">
-        <v>444416000</v>
+        <v>260260000</v>
       </c>
       <c r="I214" s="4" t="n">
-        <v>6400000</v>
+        <v>6500000</v>
       </c>
       <c r="J214" s="5" t="n">
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
       <c r="K214" s="4" t="n">
-        <v>100438016</v>
+        <v>91091000</v>
       </c>
       <c r="L214" s="2" t="inlineStr">
         <is>
-          <t>OLLOBERGANOV SHOKIR RAVSHANBEK OGLI</t>
+          <t>JALILOV SHOHRUX SHUKUR OGLI</t>
         </is>
       </c>
       <c r="M214" s="2" t="inlineStr">
         <is>
-          <t>AD9003800</t>
+          <t>AD2897527</t>
         </is>
       </c>
       <c r="N214" s="2" t="n">
-        <v>30112976860018</v>
+        <v>30907943890015</v>
       </c>
       <c r="O214" s="2" t="inlineStr">
         <is>
-          <t>IIV 35204 14.10.2024</t>
+          <t>IIV 18206 29.03.2023</t>
         </is>
       </c>
       <c r="P214" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR  1 KICHIQ NOXIYA 12UY 54 XONADON</t>
+          <t>SAMARKAND VILOYATI BULUNGUR TUMANI OLMOZOR MFY 38UY</t>
         </is>
       </c>
       <c r="Q214" s="2" t="n">
-        <v>998937120097</v>
+        <v>998952120794</v>
       </c>
       <c r="R214" s="2" t="inlineStr">
         <is>
@@ -15143,66 +15143,66 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>222</v>
+      <c r="A215" s="2" t="n">
+        <v>223</v>
       </c>
       <c r="B215" s="3" t="n">
-        <v>45750</v>
+        <v>45751</v>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>Г</t>
+          <t>Б</t>
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E215" s="2" t="n">
-        <v>282</v>
+        <v>124</v>
       </c>
       <c r="F215" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G215" s="2" t="n">
-        <v>40.04</v>
+        <v>28.02</v>
       </c>
       <c r="H215" s="4" t="n">
-        <v>260260000</v>
+        <v>153660000</v>
       </c>
       <c r="I215" s="4" t="n">
         <v>6500000</v>
       </c>
       <c r="J215" s="5" t="n">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="K215" s="4" t="n">
-        <v>91091000</v>
+        <v>153660000</v>
       </c>
       <c r="L215" s="2" t="inlineStr">
         <is>
-          <t>JALILOV SHOHRUX SHUKUR OGLI</t>
+          <t>ABDULLAYEVA FERUZA SHUXRAT QIZI</t>
         </is>
       </c>
       <c r="M215" s="2" t="inlineStr">
         <is>
-          <t>AD2897527</t>
+          <t>AB9787934</t>
         </is>
       </c>
       <c r="N215" s="2" t="n">
-        <v>30907943890015</v>
+        <v>41508950230069</v>
       </c>
       <c r="O215" s="2" t="inlineStr">
         <is>
-          <t>IIV 18206 29.03.2023</t>
+          <t>TOSHKENT SHAHAR SERGALI TUMANI IIB</t>
         </is>
       </c>
       <c r="P215" s="2" t="inlineStr">
         <is>
-          <t>SAMARKAND VILOYATI BULUNGUR TUMANI OLMOZOR MFY 38UY</t>
+          <t>TOSHKENT SHAHAR SERGALI TUMANI YOLDOSH 1 52 UY 1 XONADON</t>
         </is>
       </c>
       <c r="Q215" s="2" t="n">
-        <v>998952120794</v>
+        <v>998990556296</v>
       </c>
       <c r="R215" s="2" t="inlineStr">
         <is>
@@ -15212,66 +15212,64 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B216" s="3" t="n">
-        <v>45751</v>
+        <v>45752</v>
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E216" s="2" t="n">
-        <v>124</v>
+        <v>456</v>
       </c>
       <c r="F216" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G216" s="2" t="n">
-        <v>28.02</v>
+        <v>56.21</v>
       </c>
       <c r="H216" s="4" t="n">
-        <v>153660000</v>
+        <v>309155000</v>
       </c>
       <c r="I216" s="4" t="n">
-        <v>6500000</v>
+        <v>5500000</v>
       </c>
       <c r="J216" s="5" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K216" s="4" t="n">
-        <v>153660000</v>
+        <v>216408500</v>
       </c>
       <c r="L216" s="2" t="inlineStr">
         <is>
-          <t>ABDULLAYEVA FERUZA SHUXRAT QIZI</t>
+          <t>KULIKOVA GUZAL FARITOVNA</t>
         </is>
       </c>
       <c r="M216" s="2" t="inlineStr">
         <is>
-          <t>AB9787934</t>
+          <t>AD1213603</t>
         </is>
       </c>
       <c r="N216" s="2" t="n">
-        <v>41508950230069</v>
+        <v>42609966860051</v>
       </c>
       <c r="O216" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR SERGALI TUMANI IIB</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
         </is>
       </c>
       <c r="P216" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR SERGALI TUMANI YOLDOSH 1 52 UY 1 XONADON</t>
-        </is>
-      </c>
-      <c r="Q216" s="2" t="n">
-        <v>998990556296</v>
-      </c>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR 2 MIKRORAYON 9 DOM 48 KVARTIRA</t>
+        </is>
+      </c>
+      <c r="Q216" s="2" t="n"/>
       <c r="R216" s="2" t="inlineStr">
         <is>
           <t>1 Отдел Продаж</t>
@@ -15279,65 +15277,67 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
-        <v>224</v>
+      <c r="A217" s="1" t="n">
+        <v>225</v>
       </c>
       <c r="B217" s="3" t="n">
-        <v>45752</v>
+        <v>45759</v>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>Г</t>
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E217" s="2" t="n">
-        <v>456</v>
+        <v>296</v>
       </c>
       <c r="F217" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G217" s="2" t="n">
-        <v>56.21</v>
+        <v>75.98</v>
       </c>
       <c r="H217" s="4" t="n">
-        <v>309155000</v>
+        <v>414091000</v>
       </c>
       <c r="I217" s="4" t="n">
-        <v>5500000</v>
+        <v>5450000</v>
       </c>
       <c r="J217" s="5" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="K217" s="4" t="n">
-        <v>216408500</v>
+        <v>414091000</v>
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>KULIKOVA GUZAL FARITOVNA</t>
+          <t>KAZAXBAYEV SHUHRAT REJEPOVICH</t>
         </is>
       </c>
       <c r="M217" s="2" t="inlineStr">
         <is>
-          <t>AD1213603</t>
+          <t>AD0066864</t>
         </is>
       </c>
       <c r="N217" s="2" t="n">
-        <v>42609966860051</v>
+        <v>31105823471014</v>
       </c>
       <c r="O217" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
+          <t>IIV 26273</t>
         </is>
       </c>
       <c r="P217" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR 2 MIKRORAYON 9 DOM 48 KVARTIRA</t>
-        </is>
-      </c>
-      <c r="Q217" s="2" t="n"/>
+          <t>TOSHKENT SHAHAR MUROBOD TUMANI FARGONA YULI KICHASI 2 MUYURISH 80 UY</t>
+        </is>
+      </c>
+      <c r="Q217" s="2" t="n">
+        <v>998977721820</v>
+      </c>
       <c r="R217" s="2" t="inlineStr">
         <is>
           <t>1 Отдел Продаж</t>
@@ -15345,66 +15345,68 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>225</v>
+      <c r="A218" s="2" t="n">
+        <v>226</v>
       </c>
       <c r="B218" s="3" t="n">
-        <v>45759</v>
+        <v>45824</v>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>Г</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E218" s="2" t="n">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="F218" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G218" s="2" t="n">
-        <v>75.98</v>
+        <v>40.8</v>
       </c>
       <c r="H218" s="4" t="n">
-        <v>414091000</v>
+        <v>255000000</v>
       </c>
       <c r="I218" s="4" t="n">
-        <v>5450000</v>
+        <v>6250000</v>
       </c>
       <c r="J218" s="5" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="K218" s="4" t="n">
-        <v>414091000</v>
+        <v>244545000</v>
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>KAZAXBAYEV SHUHRAT REJEPOVICH</t>
+          <t>XABIBULLAYEV SAMANDAR XABIBULLAYEVICH</t>
         </is>
       </c>
       <c r="M218" s="2" t="inlineStr">
         <is>
-          <t>AD0066864</t>
+          <t>AD3929658</t>
         </is>
       </c>
       <c r="N218" s="2" t="n">
-        <v>31105823471014</v>
+        <v>30906853110060</v>
       </c>
       <c r="O218" s="2" t="inlineStr">
         <is>
-          <t>IIV 26273</t>
+          <t>IIV27419</t>
         </is>
       </c>
       <c r="P218" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR MUROBOD TUMANI FARGONA YULI KICHASI 2 MUYURISH 80 UY</t>
-        </is>
-      </c>
-      <c r="Q218" s="2" t="n">
-        <v>998977721820</v>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR RUDAKI 8/14</t>
+        </is>
+      </c>
+      <c r="Q218" s="2" t="inlineStr">
+        <is>
+          <t>998998540931 998977028531</t>
+        </is>
       </c>
       <c r="R218" s="2" t="inlineStr">
         <is>
@@ -15414,66 +15416,66 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B219" s="3" t="n">
-        <v>45824</v>
+        <v>45773</v>
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>В</t>
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E219" s="2" t="n">
-        <v>425</v>
+        <v>230</v>
       </c>
       <c r="F219" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G219" s="2" t="n">
-        <v>40.8</v>
+        <v>56.56</v>
       </c>
       <c r="H219" s="4" t="n">
-        <v>255000000</v>
+        <v>327117500</v>
       </c>
       <c r="I219" s="4" t="n">
-        <v>6250000</v>
+        <v>5750000</v>
       </c>
       <c r="J219" s="5" t="n">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="K219" s="4" t="n">
-        <v>244545000</v>
+        <v>163558750</v>
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>XABIBULLAYEV SAMANDAR XABIBULLAYEVICH</t>
+          <t>UTKINA SVETLANA SERGEYEVNA</t>
         </is>
       </c>
       <c r="M219" s="2" t="inlineStr">
         <is>
-          <t>AD3929658</t>
+          <t>AD5237646</t>
         </is>
       </c>
       <c r="N219" s="2" t="n">
-        <v>30906853110060</v>
+        <v>42607810200022</v>
       </c>
       <c r="O219" s="2" t="inlineStr">
         <is>
-          <t>IIV27419</t>
+          <t>IIV 60009 27.11.2023</t>
         </is>
       </c>
       <c r="P219" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR RUDAKI 8/14</t>
+          <t>TOSHKENT SHAHAR MUROBOD TUMANI AFROSIYOB KUCHASI 23/1 64 UY</t>
         </is>
       </c>
       <c r="Q219" s="2" t="inlineStr">
         <is>
-          <t>998998540931 998977028531</t>
+          <t>998909778700 998909262112</t>
         </is>
       </c>
       <c r="R219" s="2" t="inlineStr">
@@ -15484,67 +15486,65 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B220" s="3" t="n">
-        <v>45773</v>
+        <v>45777</v>
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E220" s="2" t="n">
-        <v>230</v>
+        <v>72</v>
       </c>
       <c r="F220" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G220" s="2" t="n">
-        <v>56.56</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="H220" s="4" t="n">
-        <v>327117500</v>
+        <v>423584000</v>
       </c>
       <c r="I220" s="4" t="n">
-        <v>5750000</v>
+        <v>6100000</v>
       </c>
       <c r="J220" s="5" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K220" s="4" t="n">
-        <v>163558750</v>
+        <v>127075200</v>
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>UTKINA SVETLANA SERGEYEVNA</t>
+          <t>SHERMATOV ILYOSJON SALIMJONOVICH</t>
         </is>
       </c>
       <c r="M220" s="2" t="inlineStr">
         <is>
-          <t>AD5237646</t>
+          <t>AE2008739</t>
         </is>
       </c>
       <c r="N220" s="2" t="n">
-        <v>42607810200022</v>
+        <v>30107786930011</v>
       </c>
       <c r="O220" s="2" t="inlineStr">
         <is>
-          <t>IIV 60009 27.11.2023</t>
+          <t>IIV 27419 19.03.2025</t>
         </is>
       </c>
       <c r="P220" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR MUROBOD TUMANI AFROSIYOB KUCHASI 23/1 64 UY</t>
-        </is>
-      </c>
-      <c r="Q220" s="2" t="inlineStr">
-        <is>
-          <t>998909778700 998909262112</t>
-        </is>
+          <t>TOSHKENT VILOYATI CHIRCHIK SHAHRI KIMYOGARLAR MFY GOLIBLAR KUCHASI 16 UY</t>
+        </is>
+      </c>
+      <c r="Q220" s="2" t="n">
+        <v>998914642130</v>
       </c>
       <c r="R220" s="2" t="inlineStr">
         <is>
@@ -15554,65 +15554,65 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B221" s="3" t="n">
-        <v>45777</v>
+        <v>45778</v>
       </c>
       <c r="C221" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>В</t>
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E221" s="2" t="n">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="F221" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G221" s="2" t="n">
-        <v>74.06999999999999</v>
+        <v>40.04</v>
       </c>
       <c r="H221" s="4" t="n">
-        <v>423584000</v>
+        <v>234234000</v>
       </c>
       <c r="I221" s="4" t="n">
-        <v>6100000</v>
+        <v>5850000</v>
       </c>
       <c r="J221" s="5" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K221" s="4" t="n">
-        <v>127075200</v>
+        <v>234234000</v>
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>SHERMATOV ILYOSJON SALIMJONOVICH</t>
+          <t>MATYAKUBOVA SHAXLO SAPARBAYEVNA</t>
         </is>
       </c>
       <c r="M221" s="2" t="inlineStr">
         <is>
-          <t>AE2008739</t>
+          <t>AB3231286</t>
         </is>
       </c>
       <c r="N221" s="2" t="n">
-        <v>30107786930011</v>
+        <v>40204873090049</v>
       </c>
       <c r="O221" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419 19.03.2025</t>
+          <t>XORAZM VILOYATI QOSHKOPIR TUMANI IIB 24.02.2016</t>
         </is>
       </c>
       <c r="P221" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIK SHAHRI KIMYOGARLAR MFY GOLIBLAR KUCHASI 16 UY</t>
+          <t>XORAZM VILOYATI QOSHKOPIR TUMANI N. KUBRO 66 UY</t>
         </is>
       </c>
       <c r="Q221" s="2" t="n">
-        <v>998914642130</v>
+        <v>998938648844</v>
       </c>
       <c r="R221" s="2" t="inlineStr">
         <is>
@@ -15622,65 +15622,65 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B222" s="3" t="n">
-        <v>45778</v>
+        <v>45799</v>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>Б</t>
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E222" s="2" t="n">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="F222" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G222" s="2" t="n">
-        <v>40.04</v>
+        <v>28.08</v>
       </c>
       <c r="H222" s="4" t="n">
-        <v>234234000</v>
+        <v>156024000</v>
       </c>
       <c r="I222" s="4" t="n">
-        <v>5850000</v>
+        <v>6600000</v>
       </c>
       <c r="J222" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K222" s="4" t="n">
-        <v>234234000</v>
+        <v>156024000</v>
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>MATYAKUBOVA SHAXLO SAPARBAYEVNA</t>
+          <t>LI VERONIKA VITALEVNA</t>
         </is>
       </c>
       <c r="M222" s="2" t="inlineStr">
         <is>
-          <t>AB3231286</t>
+          <t>AD4121003</t>
         </is>
       </c>
       <c r="N222" s="2" t="n">
-        <v>40204873090049</v>
+        <v>41806861630038</v>
       </c>
       <c r="O222" s="2" t="inlineStr">
         <is>
-          <t>XORAZM VILOYATI QOSHKOPIR TUMANI IIB 24.02.2016</t>
+          <t>IIV 26291 31.07.2023</t>
         </is>
       </c>
       <c r="P222" s="2" t="inlineStr">
         <is>
-          <t>XORAZM VILOYATI QOSHKOPIR TUMANI N. KUBRO 66 UY</t>
+          <t>TOSHKENT VILOYATI CHIRCHIK SHAHAR 10 KICHIK NOXYA 18 UY 20 XONADON</t>
         </is>
       </c>
       <c r="Q222" s="2" t="n">
-        <v>998938648844</v>
+        <v>998974782313</v>
       </c>
       <c r="R222" s="2" t="inlineStr">
         <is>
@@ -15689,66 +15689,66 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
-        <v>230</v>
+      <c r="A223" s="1" t="n">
+        <v>231</v>
       </c>
       <c r="B223" s="3" t="n">
-        <v>45799</v>
+        <v>45782</v>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>Г</t>
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E223" s="2" t="n">
-        <v>123</v>
+        <v>268</v>
       </c>
       <c r="F223" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G223" s="2" t="n">
-        <v>28.08</v>
+        <v>56.56</v>
       </c>
       <c r="H223" s="4" t="n">
-        <v>156024000</v>
+        <v>415297000</v>
       </c>
       <c r="I223" s="4" t="n">
-        <v>6600000</v>
+        <v>7300000</v>
       </c>
       <c r="J223" s="5" t="n">
-        <v>1</v>
+        <v>0.31</v>
       </c>
       <c r="K223" s="4" t="n">
-        <v>156024000</v>
+        <v>129987961</v>
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>LI VERONIKA VITALEVNA</t>
+          <t>DJMUXADZE INNA IVANOVNA</t>
         </is>
       </c>
       <c r="M223" s="2" t="inlineStr">
         <is>
-          <t>AD4121003</t>
+          <t>AE1294834</t>
         </is>
       </c>
       <c r="N223" s="2" t="n">
-        <v>41806861630038</v>
+        <v>40104776860029</v>
       </c>
       <c r="O223" s="2" t="inlineStr">
         <is>
-          <t>IIV 26291 31.07.2023</t>
+          <t>IIV60120 BUXORO SHAHRI 21.01.2025</t>
         </is>
       </c>
       <c r="P223" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIK SHAHAR 10 KICHIK NOXYA 18 UY 20 XONADON</t>
+          <t>TOSHKENT VILOYATI CHIRCHIK SHAHRI ZAKOVAT KUCHASI 13DOM 6 UY</t>
         </is>
       </c>
       <c r="Q223" s="2" t="n">
-        <v>998974782313</v>
+        <v>998935729356</v>
       </c>
       <c r="R223" s="2" t="inlineStr">
         <is>
@@ -15757,66 +15757,66 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>231</v>
+      <c r="A224" s="2" t="n">
+        <v>232</v>
       </c>
       <c r="B224" s="3" t="n">
         <v>45782</v>
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t>Г</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E224" s="2" t="n">
-        <v>268</v>
+        <v>448</v>
       </c>
       <c r="F224" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G224" s="2" t="n">
-        <v>56.56</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="H224" s="4" t="n">
-        <v>415297000</v>
+        <v>437472000</v>
       </c>
       <c r="I224" s="4" t="n">
-        <v>7300000</v>
+        <v>6300000</v>
       </c>
       <c r="J224" s="5" t="n">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="K224" s="4" t="n">
-        <v>129987961</v>
+        <v>100181088</v>
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>DJMUXADZE INNA IVANOVNA</t>
+          <t>URAZALIYEV XUSNIDDIN XUSANOVICH</t>
         </is>
       </c>
       <c r="M224" s="2" t="inlineStr">
         <is>
-          <t>AE1294834</t>
+          <t>AD2264289</t>
         </is>
       </c>
       <c r="N224" s="2" t="n">
-        <v>40104776860029</v>
+        <v>30907892880057</v>
       </c>
       <c r="O224" s="2" t="inlineStr">
         <is>
-          <t>IIV60120 BUXORO SHAHRI 21.01.2025</t>
+          <t>IIV 24216 28.12.2022</t>
         </is>
       </c>
       <c r="P224" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIK SHAHRI ZAKOVAT KUCHASI 13DOM 6 UY</t>
+          <t>SIRDARYO VILOYATI SAYXUNOBOD TUMANI OBODON MFY XAMID OLIMJON KUCHASI 33 UY</t>
         </is>
       </c>
       <c r="Q224" s="2" t="n">
-        <v>998935729356</v>
+        <v>998993323404</v>
       </c>
       <c r="R224" s="2" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B225" s="3" t="n">
         <v>45782</v>
@@ -15837,10 +15837,10 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E225" s="2" t="n">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="F225" s="2" t="n">
         <v>2</v>
@@ -15855,36 +15855,36 @@
         <v>6300000</v>
       </c>
       <c r="J225" s="5" t="n">
-        <v>0.23</v>
+        <v>0.5</v>
       </c>
       <c r="K225" s="4" t="n">
-        <v>100181088</v>
+        <v>218736000</v>
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>URAZALIYEV XUSNIDDIN XUSANOVICH</t>
+          <t>BAXRIDDINOV ABROR HAKIM OGLI</t>
         </is>
       </c>
       <c r="M225" s="2" t="inlineStr">
         <is>
-          <t>AD2264289</t>
+          <t>AC0640153</t>
         </is>
       </c>
       <c r="N225" s="2" t="n">
-        <v>30907892880057</v>
+        <v>32909932600098</v>
       </c>
       <c r="O225" s="2" t="inlineStr">
         <is>
-          <t>IIV 24216 28.12.2022</t>
+          <t>QASGHQADARYO VILOYATI QAMASHI TUMANI IIB 06.08.2018</t>
         </is>
       </c>
       <c r="P225" s="2" t="inlineStr">
         <is>
-          <t>SIRDARYO VILOYATI SAYXUNOBOD TUMANI OBODON MFY XAMID OLIMJON KUCHASI 33 UY</t>
+          <t>QASGHQADARYO VILOYATI QAMASHI TUMANI URTADARA KUCHASI 30 UY</t>
         </is>
       </c>
       <c r="Q225" s="2" t="n">
-        <v>998993323404</v>
+        <v>998885855508</v>
       </c>
       <c r="R225" s="2" t="inlineStr">
         <is>
@@ -15894,65 +15894,65 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B226" s="3" t="n">
-        <v>45782</v>
+        <v>45787</v>
       </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>В</t>
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E226" s="2" t="n">
-        <v>434</v>
+        <v>220</v>
       </c>
       <c r="F226" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G226" s="2" t="n">
-        <v>74.06999999999999</v>
+        <v>75.98</v>
       </c>
       <c r="H226" s="4" t="n">
-        <v>437472000</v>
+        <v>493870000</v>
       </c>
       <c r="I226" s="4" t="n">
-        <v>6300000</v>
+        <v>6500000</v>
       </c>
       <c r="J226" s="5" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K226" s="4" t="n">
-        <v>218736000</v>
+        <v>148161000</v>
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>BAXRIDDINOV ABROR HAKIM OGLI</t>
+          <t>TURDIYEV TIMUR QAHRAMON OGLI</t>
         </is>
       </c>
       <c r="M226" s="2" t="inlineStr">
         <is>
-          <t>AC0640153</t>
+          <t>AB7317381</t>
         </is>
       </c>
       <c r="N226" s="2" t="n">
-        <v>32909932600098</v>
+        <v>51507016860030</v>
       </c>
       <c r="O226" s="2" t="inlineStr">
         <is>
-          <t>QASGHQADARYO VILOYATI QAMASHI TUMANI IIB 06.08.2018</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
         </is>
       </c>
       <c r="P226" s="2" t="inlineStr">
         <is>
-          <t>QASGHQADARYO VILOYATI QAMASHI TUMANI URTADARA KUCHASI 30 UY</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR AMIR TEMUR KOCHASI 124 UY 13 XONADON</t>
         </is>
       </c>
       <c r="Q226" s="2" t="n">
-        <v>998885855508</v>
+        <v>998900391604</v>
       </c>
       <c r="R226" s="2" t="inlineStr">
         <is>
@@ -15962,175 +15962,172 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B227" s="3" t="n">
-        <v>45787</v>
+        <v>45821</v>
       </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E227" s="2" t="n">
-        <v>220</v>
+        <v>451</v>
       </c>
       <c r="F227" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G227" s="2" t="n">
-        <v>75.98</v>
+        <v>52.83</v>
       </c>
       <c r="H227" s="4" t="n">
-        <v>493870000</v>
+        <v>316800000</v>
       </c>
       <c r="I227" s="4" t="n">
-        <v>6500000</v>
+        <v>6400000</v>
       </c>
       <c r="J227" s="5" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K227" s="4" t="n">
-        <v>148161000</v>
+        <v>316800000</v>
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>TURDIYEV TIMUR QAHRAMON OGLI</t>
+          <t>ERGASHEV  NODIRJON JASURBEKOVICH</t>
         </is>
       </c>
       <c r="M227" s="2" t="inlineStr">
         <is>
-          <t>AB7317381</t>
+          <t>AD1100367</t>
         </is>
       </c>
       <c r="N227" s="2" t="n">
-        <v>51507016860030</v>
+        <v>52001056150027</v>
       </c>
       <c r="O227" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
+          <t>IIV18403  02/02/2021</t>
         </is>
       </c>
       <c r="P227" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR AMIR TEMUR KOCHASI 124 UY 13 XONADON</t>
+          <t>SAMARQAND VILOYATI  TAYLAQ TUMANI  QUNDUZAK QISHLOGI 64-UY</t>
         </is>
       </c>
       <c r="Q227" s="2" t="n">
-        <v>998900391604</v>
+        <v>998933479739</v>
       </c>
       <c r="R227" s="2" t="inlineStr">
         <is>
-          <t>1 Отдел Продаж</t>
+          <t>Руоводство</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B228" s="3" t="n">
-        <v>45821</v>
+        <v>45788</v>
       </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E228" s="2" t="n">
-        <v>451</v>
+        <v>373</v>
       </c>
       <c r="F228" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G228" s="2" t="n">
-        <v>52.83</v>
+        <v>69.38</v>
       </c>
       <c r="H228" s="4" t="n">
-        <v>316800000</v>
+        <v>409342000</v>
       </c>
       <c r="I228" s="4" t="n">
-        <v>6400000</v>
+        <v>5900000</v>
       </c>
       <c r="J228" s="5" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K228" s="4" t="n">
-        <v>316800000</v>
+        <v>122802600</v>
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>ERGASHEV  NODIRJON JASURBEKOVICH</t>
+          <t>MOYDINOV KAMARIDDIN ZAKIROVICH</t>
         </is>
       </c>
       <c r="M228" s="2" t="inlineStr">
         <is>
-          <t>AD1100367</t>
+          <t>AD0452507</t>
         </is>
       </c>
       <c r="N228" s="2" t="n">
-        <v>52001056150027</v>
+        <v>30302646860019</v>
       </c>
       <c r="O228" s="2" t="inlineStr">
         <is>
-          <t>IIV18403  02/02/2021</t>
+          <t>IIV 27419</t>
         </is>
       </c>
       <c r="P228" s="2" t="inlineStr">
         <is>
-          <t>SAMARQAND VILOYATI  TAYLAQ TUMANI  QUNDUZAK QISHLOGI 64-UY</t>
+          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI BIY KUCHASI 310 UY 16 XONADON</t>
         </is>
       </c>
       <c r="Q228" s="2" t="n">
-        <v>998933479739</v>
+        <v>998901111109</v>
       </c>
       <c r="R228" s="2" t="inlineStr">
         <is>
-          <t>Руоводство</t>
+          <t>1 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="n">
-        <v>236</v>
+      <c r="A229" s="1" t="n">
+        <v>237</v>
       </c>
       <c r="B229" s="3" t="n">
         <v>45788</v>
       </c>
       <c r="C229" s="2" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>Г</t>
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E229" s="2" t="n">
-        <v>373</v>
-      </c>
-      <c r="F229" s="2" t="n">
-        <v>2</v>
+        <v>238</v>
       </c>
       <c r="G229" s="2" t="n">
-        <v>69.38</v>
+        <v>54.48</v>
       </c>
       <c r="H229" s="4" t="n">
-        <v>409342000</v>
+        <v>697344000</v>
       </c>
       <c r="I229" s="4" t="n">
-        <v>5900000</v>
+        <v>12800000</v>
       </c>
       <c r="J229" s="5" t="n">
         <v>0.3</v>
       </c>
       <c r="K229" s="4" t="n">
-        <v>122802600</v>
+        <v>209203200</v>
       </c>
       <c r="L229" s="2" t="inlineStr">
         <is>
@@ -16165,63 +16162,66 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>237</v>
+      <c r="A230" s="2" t="n">
+        <v>238</v>
       </c>
       <c r="B230" s="3" t="n">
-        <v>45788</v>
+        <v>45792</v>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>Г</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E230" s="2" t="n">
-        <v>238</v>
+        <v>76</v>
+      </c>
+      <c r="F230" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="G230" s="2" t="n">
-        <v>54.48</v>
+        <v>49.5</v>
       </c>
       <c r="H230" s="4" t="n">
-        <v>697344000</v>
+        <v>289575000</v>
       </c>
       <c r="I230" s="4" t="n">
-        <v>12800000</v>
+        <v>5850000</v>
       </c>
       <c r="J230" s="5" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K230" s="4" t="n">
-        <v>209203200</v>
+        <v>144787500</v>
       </c>
       <c r="L230" s="2" t="inlineStr">
         <is>
-          <t>MOYDINOV KAMARIDDIN ZAKIROVICH</t>
+          <t>HUSANBOYEV RAVSHANBEK RUSTAMJON OGLI</t>
         </is>
       </c>
       <c r="M230" s="2" t="inlineStr">
         <is>
-          <t>AD0452507</t>
+          <t>AD3734806</t>
         </is>
       </c>
       <c r="N230" s="2" t="n">
-        <v>30302646860019</v>
+        <v>31008950470012</v>
       </c>
       <c r="O230" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419</t>
+          <t>IIV 27419 22.06.2023</t>
         </is>
       </c>
       <c r="P230" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI BIY KUCHASI 310 UY 16 XONADON</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR MUKIMIY KOCHASI 38 UY 43 XONADON</t>
         </is>
       </c>
       <c r="Q230" s="2" t="n">
-        <v>998901111109</v>
+        <v>998974646816</v>
       </c>
       <c r="R230" s="2" t="inlineStr">
         <is>
@@ -16231,201 +16231,201 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B231" s="3" t="n">
-        <v>45792</v>
+        <v>45799</v>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E231" s="2" t="n">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c r="F231" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G231" s="2" t="n">
-        <v>49.5</v>
+        <v>65.38</v>
       </c>
       <c r="H231" s="4" t="n">
-        <v>289575000</v>
+        <v>457660000</v>
       </c>
       <c r="I231" s="4" t="n">
-        <v>5850000</v>
+        <v>7000000</v>
       </c>
       <c r="J231" s="5" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K231" s="4" t="n">
-        <v>144787500</v>
+        <v>137298000</v>
       </c>
       <c r="L231" s="2" t="inlineStr">
         <is>
-          <t>HUSANBOYEV RAVSHANBEK RUSTAMJON OGLI</t>
+          <t>ERGASHEVA MATLUBA TURSUNBAYEVNA</t>
         </is>
       </c>
       <c r="M231" s="2" t="inlineStr">
         <is>
-          <t>AD3734806</t>
+          <t>AD2922002</t>
         </is>
       </c>
       <c r="N231" s="2" t="n">
-        <v>31008950470012</v>
+        <v>41407620470047</v>
       </c>
       <c r="O231" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419 22.06.2023</t>
+          <t>IIV 27419 01.04.2023</t>
         </is>
       </c>
       <c r="P231" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR MUKIMIY KOCHASI 38 UY 43 XONADON</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR GULZOR MFY HAYOT GULI KUCHASI 35 UY</t>
         </is>
       </c>
       <c r="Q231" s="2" t="n">
-        <v>998974646816</v>
+        <v>998978160077</v>
       </c>
       <c r="R231" s="2" t="inlineStr">
         <is>
-          <t>1 Отдел Продаж</t>
+          <t>2 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B232" s="3" t="n">
-        <v>45799</v>
+        <v>45803</v>
       </c>
       <c r="C232" s="2" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>В</t>
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E232" s="2" t="n">
-        <v>353</v>
+        <v>214</v>
       </c>
       <c r="F232" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G232" s="2" t="n">
-        <v>65.38</v>
+        <v>75.98</v>
       </c>
       <c r="H232" s="4" t="n">
-        <v>457660000</v>
+        <v>500000066</v>
       </c>
       <c r="I232" s="4" t="n">
-        <v>7000000</v>
+        <v>6580680</v>
       </c>
       <c r="J232" s="5" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K232" s="4" t="n">
-        <v>137298000</v>
+        <v>500000066</v>
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>ERGASHEVA MATLUBA TURSUNBAYEVNA</t>
+          <t>NASIRIDINOV BAXROM RUZMATOVICH</t>
         </is>
       </c>
       <c r="M232" s="2" t="inlineStr">
         <is>
-          <t>AD2922002</t>
+          <t>AB1139325</t>
         </is>
       </c>
       <c r="N232" s="2" t="n">
-        <v>41407620470047</v>
+        <v>32909906780010</v>
       </c>
       <c r="O232" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419 01.04.2023</t>
+          <t>TOSHKENT VILOYATI QIBRAY TUMANI IIB</t>
         </is>
       </c>
       <c r="P232" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR GULZOR MFY HAYOT GULI KUCHASI 35 UY</t>
+          <t>TOSHKENT VILOYATI QIBRAY TUMANI GULZOR KUCHASI</t>
         </is>
       </c>
       <c r="Q232" s="2" t="n">
-        <v>998978160077</v>
+        <v>998977011429</v>
       </c>
       <c r="R232" s="2" t="inlineStr">
         <is>
-          <t>2 Отдел Продаж</t>
+          <t>Руоводство</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B233" s="3" t="n">
-        <v>45803</v>
+        <v>45823</v>
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>Д</t>
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E233" s="2" t="n">
-        <v>214</v>
+        <v>352</v>
       </c>
       <c r="F233" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G233" s="2" t="n">
-        <v>75.98</v>
+        <v>66.03</v>
       </c>
       <c r="H233" s="4" t="n">
-        <v>500000066</v>
+        <v>435798000</v>
       </c>
       <c r="I233" s="4" t="n">
-        <v>6580680</v>
+        <v>6600000</v>
       </c>
       <c r="J233" s="5" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="K233" s="4" t="n">
-        <v>500000066</v>
+        <v>252762840</v>
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>NASIRIDINOV BAXROM RUZMATOVICH</t>
+          <t>GAZIZOV KAMIL MARSOVICH</t>
         </is>
       </c>
       <c r="M233" s="2" t="inlineStr">
         <is>
-          <t>AB1139325</t>
+          <t>AB3384334</t>
         </is>
       </c>
       <c r="N233" s="2" t="n">
-        <v>32909906780010</v>
+        <v>327089507600182</v>
       </c>
       <c r="O233" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI QIBRAY TUMANI IIB</t>
+          <t>TOSHKENT VILOYATI QIBRAY IIB SALAR SHMB</t>
         </is>
       </c>
       <c r="P233" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI QIBRAY TUMANI GULZOR KUCHASI</t>
+          <t>TOSHKENT VILOYATI QIBRAY TUMANI GAFUR GULOM A/NAVOYI KOCHASI 460-UY</t>
         </is>
       </c>
       <c r="Q233" s="2" t="n">
-        <v>998977011429</v>
+        <v>998977502708</v>
       </c>
       <c r="R233" s="2" t="inlineStr">
         <is>
@@ -16435,133 +16435,133 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B234" s="3" t="n">
-        <v>45823</v>
+        <v>45818</v>
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>В</t>
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E234" s="2" t="n">
-        <v>352</v>
+        <v>216</v>
       </c>
       <c r="F234" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G234" s="2" t="n">
-        <v>66.03</v>
+        <v>40.04</v>
       </c>
       <c r="H234" s="4" t="n">
-        <v>435798000</v>
+        <v>252252000</v>
       </c>
       <c r="I234" s="4" t="n">
-        <v>6600000</v>
+        <v>6300000</v>
       </c>
       <c r="J234" s="5" t="n">
-        <v>0.58</v>
+        <v>0.7</v>
       </c>
       <c r="K234" s="4" t="n">
-        <v>252762840</v>
+        <v>176576400</v>
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>GAZIZOV KAMIL MARSOVICH</t>
+          <t>NURJAVOV AKRAM MUXAMMADIYEVICH</t>
         </is>
       </c>
       <c r="M234" s="2" t="inlineStr">
         <is>
-          <t>AB3384334</t>
+          <t>AB4704538</t>
         </is>
       </c>
       <c r="N234" s="2" t="n">
-        <v>327089507600182</v>
+        <v>30704761790019</v>
       </c>
       <c r="O234" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI QIBRAY IIB SALAR SHMB</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
         </is>
       </c>
       <c r="P234" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI QIBRAY TUMANI GAFUR GULOM A/NAVOYI KOCHASI 460-UY</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR 3 MIKRORAYON 70 UY 14 XONADON</t>
         </is>
       </c>
       <c r="Q234" s="2" t="n">
-        <v>998977502708</v>
+        <v>998330120076</v>
       </c>
       <c r="R234" s="2" t="inlineStr">
         <is>
-          <t>Руоводство</t>
+          <t>1 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B235" s="3" t="n">
-        <v>45818</v>
+        <v>45832</v>
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E235" s="2" t="n">
-        <v>216</v>
+        <v>71</v>
       </c>
       <c r="F235" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G235" s="2" t="n">
-        <v>40.04</v>
+        <v>56.21</v>
       </c>
       <c r="H235" s="4" t="n">
-        <v>252252000</v>
+        <v>323207500</v>
       </c>
       <c r="I235" s="4" t="n">
-        <v>6300000</v>
+        <v>5750000</v>
       </c>
       <c r="J235" s="5" t="n">
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
       <c r="K235" s="4" t="n">
-        <v>176576400</v>
+        <v>252037209</v>
       </c>
       <c r="L235" s="2" t="inlineStr">
         <is>
-          <t>NURJAVOV AKRAM MUXAMMADIYEVICH</t>
+          <t>ABDUGALYAMOV ROMAN ILYASOVICH</t>
         </is>
       </c>
       <c r="M235" s="2" t="inlineStr">
         <is>
-          <t>AB4704538</t>
+          <t>AE3116026</t>
         </is>
       </c>
       <c r="N235" s="2" t="n">
-        <v>30704761790019</v>
+        <v>32308780270077</v>
       </c>
       <c r="O235" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB</t>
+          <t>IIV 27419</t>
         </is>
       </c>
       <c r="P235" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR 3 MIKRORAYON 70 UY 14 XONADON</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR 8 KICHIK NOXYA 57A UY 37 XONADON</t>
         </is>
       </c>
       <c r="Q235" s="2" t="n">
-        <v>998330120076</v>
+        <v>998903561167</v>
       </c>
       <c r="R235" s="2" t="inlineStr">
         <is>
@@ -16571,65 +16571,65 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B236" s="3" t="n">
-        <v>45832</v>
+        <v>45840</v>
       </c>
       <c r="C236" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E236" s="2" t="n">
-        <v>71</v>
+        <v>445</v>
       </c>
       <c r="F236" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G236" s="2" t="n">
-        <v>56.21</v>
+        <v>76.95</v>
       </c>
       <c r="H236" s="4" t="n">
-        <v>323207500</v>
+        <v>478500000</v>
       </c>
       <c r="I236" s="4" t="n">
-        <v>5750000</v>
+        <v>6600000</v>
       </c>
       <c r="J236" s="5" t="n">
-        <v>0.78</v>
+        <v>0.3</v>
       </c>
       <c r="K236" s="4" t="n">
-        <v>252037209</v>
+        <v>143550000</v>
       </c>
       <c r="L236" s="2" t="inlineStr">
         <is>
-          <t>ABDUGALYAMOV ROMAN ILYASOVICH</t>
+          <t>ISROILOVA DILFUZA NUGMATULLAEVNA</t>
         </is>
       </c>
       <c r="M236" s="2" t="inlineStr">
         <is>
-          <t>AE3116026</t>
+          <t>AD4153031</t>
         </is>
       </c>
       <c r="N236" s="2" t="n">
-        <v>32308780270077</v>
+        <v>43009760560031</v>
       </c>
       <c r="O236" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419</t>
+          <t>IIV 27248 03.08.2023</t>
         </is>
       </c>
       <c r="P236" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR 8 KICHIK NOXYA 57A UY 37 XONADON</t>
+          <t>TOSHKENT VILOYATI QIBRAY TUMANI KOPRIK BOSHI MFY BOBUR KUCHASI 71 UY</t>
         </is>
       </c>
       <c r="Q236" s="2" t="n">
-        <v>998903561167</v>
+        <v>998935973387</v>
       </c>
       <c r="R236" s="2" t="inlineStr">
         <is>
@@ -16638,66 +16638,66 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
-        <v>244</v>
+      <c r="A237" s="1" t="n">
+        <v>245</v>
       </c>
       <c r="B237" s="3" t="n">
-        <v>45840</v>
+        <v>45838</v>
       </c>
       <c r="C237" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>Г</t>
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E237" s="2" t="n">
-        <v>445</v>
+        <v>267</v>
       </c>
       <c r="F237" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G237" s="2" t="n">
-        <v>76.95</v>
+        <v>47.56</v>
       </c>
       <c r="H237" s="4" t="n">
-        <v>478500000</v>
+        <v>344810000</v>
       </c>
       <c r="I237" s="4" t="n">
-        <v>6600000</v>
+        <v>7250000</v>
       </c>
       <c r="J237" s="5" t="n">
         <v>0.3</v>
       </c>
       <c r="K237" s="4" t="n">
-        <v>143550000</v>
+        <v>103443000</v>
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>ISROILOVA DILFUZA NUGMATULLAEVNA</t>
+          <t>SUYUNOVA GULNARA IZETOVNA</t>
         </is>
       </c>
       <c r="M237" s="2" t="inlineStr">
         <is>
-          <t>AD4153031</t>
+          <t>AD9337235</t>
         </is>
       </c>
       <c r="N237" s="2" t="n">
-        <v>43009760560031</v>
+        <v>40710600500010</v>
       </c>
       <c r="O237" s="2" t="inlineStr">
         <is>
-          <t>IIV 27248 03.08.2023</t>
+          <t>IIV27419   09.11.2024</t>
         </is>
       </c>
       <c r="P237" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI QIBRAY TUMANI KOPRIK BOSHI MFY BOBUR KUCHASI 71 UY</t>
+          <t>TOSHKENT VILOYATI BOSTONLIQ TUMANI AZADBASH MFY PAXTA KUCHASI 3 UY 15 XONADON</t>
         </is>
       </c>
       <c r="Q237" s="2" t="n">
-        <v>998935973387</v>
+        <v>998509970157</v>
       </c>
       <c r="R237" s="2" t="inlineStr">
         <is>
@@ -16706,66 +16706,66 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>245</v>
+      <c r="A238" s="2" t="n">
+        <v>246</v>
       </c>
       <c r="B238" s="3" t="n">
-        <v>45838</v>
+        <v>45847</v>
       </c>
       <c r="C238" s="2" t="inlineStr">
         <is>
-          <t>Г</t>
+          <t>Б</t>
         </is>
       </c>
       <c r="D238" s="2" t="n">
         <v>6</v>
       </c>
       <c r="E238" s="2" t="n">
-        <v>267</v>
+        <v>117</v>
       </c>
       <c r="F238" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G238" s="2" t="n">
-        <v>47.56</v>
+        <v>28.02</v>
       </c>
       <c r="H238" s="4" t="n">
-        <v>344810000</v>
+        <v>160701000</v>
       </c>
       <c r="I238" s="4" t="n">
-        <v>7250000</v>
+        <v>6850000</v>
       </c>
       <c r="J238" s="5" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K238" s="4" t="n">
-        <v>103443000</v>
+        <v>160701000</v>
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>SUYUNOVA GULNARA IZETOVNA</t>
+          <t>IBRAGIMOVA DIYORAXON ULUGBEK QIZI</t>
         </is>
       </c>
       <c r="M238" s="2" t="inlineStr">
         <is>
-          <t>AD9337235</t>
+          <t>AC1755496</t>
         </is>
       </c>
       <c r="N238" s="2" t="n">
-        <v>40710600500010</v>
+        <v>62211006900045</v>
       </c>
       <c r="O238" s="2" t="inlineStr">
         <is>
-          <t>IIV27419   09.11.2024</t>
+          <t>OLTIARIQ TUMANI IIB</t>
         </is>
       </c>
       <c r="P238" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI BOSTONLIQ TUMANI AZADBASH MFY PAXTA KUCHASI 3 UY 15 XONADON</t>
+          <t>FARGONA VILOYATI OLTIARIQ TUMANI OLTIARIQ KOCHASI 148 UY</t>
         </is>
       </c>
       <c r="Q238" s="2" t="n">
-        <v>998509970157</v>
+        <v>998507971571</v>
       </c>
       <c r="R238" s="2" t="inlineStr">
         <is>
@@ -16775,65 +16775,65 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B239" s="3" t="n">
         <v>45847</v>
       </c>
       <c r="C239" s="2" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E239" s="2" t="n">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="F239" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G239" s="2" t="n">
-        <v>28.02</v>
+        <v>52.83</v>
       </c>
       <c r="H239" s="4" t="n">
-        <v>160701000</v>
+        <v>309055500</v>
       </c>
       <c r="I239" s="4" t="n">
-        <v>6850000</v>
+        <v>5850000</v>
       </c>
       <c r="J239" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K239" s="4" t="n">
-        <v>160701000</v>
+        <v>309055500</v>
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>IBRAGIMOVA DIYORAXON ULUGBEK QIZI</t>
+          <t>PALNOV ALIK PETROVICH</t>
         </is>
       </c>
       <c r="M239" s="2" t="inlineStr">
         <is>
-          <t>AC1755496</t>
+          <t>AD4265924</t>
         </is>
       </c>
       <c r="N239" s="2" t="n">
-        <v>62211006900045</v>
+        <v>30901890191380</v>
       </c>
       <c r="O239" s="2" t="inlineStr">
         <is>
-          <t>OLTIARIQ TUMANI IIB</t>
+          <t>IIV 26266 11.08.2023</t>
         </is>
       </c>
       <c r="P239" s="2" t="inlineStr">
         <is>
-          <t>FARGONA VILOYATI OLTIARIQ TUMANI OLTIARIQ KOCHASI 148 UY</t>
+          <t>TOSHKENT SHAHAR YUNUSOBOD TUMANI 10 KVARTAL 15A UY 25 XONADON</t>
         </is>
       </c>
       <c r="Q239" s="2" t="n">
-        <v>998507971571</v>
+        <v>998770114334</v>
       </c>
       <c r="R239" s="2" t="inlineStr">
         <is>
@@ -16842,66 +16842,66 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="n">
-        <v>247</v>
+      <c r="A240" s="1" t="n">
+        <v>248</v>
       </c>
       <c r="B240" s="3" t="n">
-        <v>45847</v>
+        <v>45856</v>
       </c>
       <c r="C240" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Г</t>
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E240" s="2" t="n">
-        <v>69</v>
+        <v>274</v>
       </c>
       <c r="F240" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G240" s="2" t="n">
-        <v>52.83</v>
+        <v>56.56</v>
       </c>
       <c r="H240" s="4" t="n">
-        <v>309055500</v>
+        <v>418544000</v>
       </c>
       <c r="I240" s="4" t="n">
-        <v>5850000</v>
+        <v>7400000</v>
       </c>
       <c r="J240" s="5" t="n">
-        <v>1</v>
+        <v>0.28</v>
       </c>
       <c r="K240" s="4" t="n">
-        <v>309055500</v>
+        <v>117610864</v>
       </c>
       <c r="L240" s="2" t="inlineStr">
         <is>
-          <t>PALNOV ALIK PETROVICH</t>
+          <t>TURABOVA ZARINA ERGASHBOY QIZI</t>
         </is>
       </c>
       <c r="M240" s="2" t="inlineStr">
         <is>
-          <t>AD4265924</t>
+          <t>AC0049790</t>
         </is>
       </c>
       <c r="N240" s="2" t="n">
-        <v>30901890191380</v>
+        <v>42304930500097</v>
       </c>
       <c r="O240" s="2" t="inlineStr">
         <is>
-          <t>IIV 26266 11.08.2023</t>
+          <t>TOSHKENT VILOYATI BOSTONLIQ TUMANI IIB</t>
         </is>
       </c>
       <c r="P240" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR YUNUSOBOD TUMANI 10 KVARTAL 15A UY 25 XONADON</t>
+          <t>TOSHKENT VILOYATI BOSTONLIQ TUMANI GAZALKENT SHAHRI ZARBROQ 13/3</t>
         </is>
       </c>
       <c r="Q240" s="2" t="n">
-        <v>998770114334</v>
+        <v>998977174077</v>
       </c>
       <c r="R240" s="2" t="inlineStr">
         <is>
@@ -16910,66 +16910,68 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>248</v>
+      <c r="A241" s="2" t="n">
+        <v>249</v>
       </c>
       <c r="B241" s="3" t="n">
         <v>45856</v>
       </c>
       <c r="C241" s="2" t="inlineStr">
         <is>
-          <t>Г</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E241" s="2" t="n">
-        <v>274</v>
+        <v>437</v>
       </c>
       <c r="F241" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G241" s="2" t="n">
-        <v>56.56</v>
+        <v>52.83</v>
       </c>
       <c r="H241" s="4" t="n">
-        <v>418544000</v>
+        <v>369810000</v>
       </c>
       <c r="I241" s="4" t="n">
-        <v>7400000</v>
+        <v>7000000</v>
       </c>
       <c r="J241" s="5" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
       <c r="K241" s="4" t="n">
-        <v>117610864</v>
+        <v>75811050</v>
       </c>
       <c r="L241" s="2" t="inlineStr">
         <is>
-          <t>TURABOVA ZARINA ERGASHBOY QIZI</t>
+          <t>RAHIMBERDIYEV ASADBEK SANAT OGLI</t>
         </is>
       </c>
       <c r="M241" s="2" t="inlineStr">
         <is>
-          <t>AC0049790</t>
+          <t>AD0252831</t>
         </is>
       </c>
       <c r="N241" s="2" t="n">
-        <v>42304930500097</v>
+        <v>50101057150018</v>
       </c>
       <c r="O241" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI BOSTONLIQ TUMANI IIB</t>
+          <t>IIV 33223 23.03.2021</t>
         </is>
       </c>
       <c r="P241" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI BOSTONLIQ TUMANI GAZALKENT SHAHRI ZARBROQ 13/3</t>
-        </is>
-      </c>
-      <c r="Q241" s="2" t="n">
-        <v>998977174077</v>
+          <t>XORAZIM VILOYATI XONQA TUMANI OLAJA QISHLOGI OYDIN HAYOT MAHALLA 62 UY</t>
+        </is>
+      </c>
+      <c r="Q241" s="2" t="inlineStr">
+        <is>
+          <t>79099128398 +998882347984</t>
+        </is>
       </c>
       <c r="R241" s="2" t="inlineStr">
         <is>
@@ -16979,7 +16981,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B242" s="3" t="n">
         <v>45856</v>
@@ -16993,16 +16995,16 @@
         <v>9</v>
       </c>
       <c r="E242" s="2" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F242" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G242" s="2" t="n">
-        <v>52.83</v>
+        <v>76.95</v>
       </c>
       <c r="H242" s="4" t="n">
-        <v>369810000</v>
+        <v>538650000</v>
       </c>
       <c r="I242" s="4" t="n">
         <v>7000000</v>
@@ -17011,7 +17013,7 @@
         <v>0.21</v>
       </c>
       <c r="K242" s="4" t="n">
-        <v>75811050</v>
+        <v>110423250</v>
       </c>
       <c r="L242" s="2" t="inlineStr">
         <is>
@@ -17049,67 +17051,65 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B243" s="3" t="n">
-        <v>45856</v>
+        <v>45854</v>
       </c>
       <c r="C243" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>А</t>
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E243" s="2" t="n">
-        <v>438</v>
+        <v>18</v>
       </c>
       <c r="F243" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G243" s="2" t="n">
-        <v>76.95</v>
+        <v>40.8</v>
       </c>
       <c r="H243" s="4" t="n">
-        <v>538650000</v>
+        <v>326400000</v>
       </c>
       <c r="I243" s="4" t="n">
-        <v>7000000</v>
+        <v>8000000</v>
       </c>
       <c r="J243" s="5" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
       <c r="K243" s="4" t="n">
-        <v>110423250</v>
+        <v>97920000</v>
       </c>
       <c r="L243" s="2" t="inlineStr">
         <is>
-          <t>RAHIMBERDIYEV ASADBEK SANAT OGLI</t>
+          <t>SALOYDINOV AZMIDDIN SHARIDDIN OGLI</t>
         </is>
       </c>
       <c r="M243" s="2" t="inlineStr">
         <is>
-          <t>AD0252831</t>
+          <t>AE1110800</t>
         </is>
       </c>
       <c r="N243" s="2" t="n">
-        <v>50101057150018</v>
+        <v>32303910560026</v>
       </c>
       <c r="O243" s="2" t="inlineStr">
         <is>
-          <t>IIV 33223 23.03.2021</t>
+          <t>IIV 27419 09.01.2025</t>
         </is>
       </c>
       <c r="P243" s="2" t="inlineStr">
         <is>
-          <t>XORAZIM VILOYATI XONQA TUMANI OLAJA QISHLOGI OYDIN HAYOT MAHALLA 62 UY</t>
-        </is>
-      </c>
-      <c r="Q243" s="2" t="inlineStr">
-        <is>
-          <t>79099128398 +998882347984</t>
-        </is>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR  50 YILIGI SHOX KOCHASI 61 UY 64 XONADON</t>
+        </is>
+      </c>
+      <c r="Q243" s="2" t="n">
+        <v>998978757073</v>
       </c>
       <c r="R243" s="2" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B244" s="3" t="n">
         <v>45854</v>
@@ -17130,10 +17130,10 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E244" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F244" s="2" t="n">
         <v>1</v>
@@ -17142,16 +17142,16 @@
         <v>40.8</v>
       </c>
       <c r="H244" s="4" t="n">
-        <v>326400000</v>
+        <v>318240000</v>
       </c>
       <c r="I244" s="4" t="n">
-        <v>8000000</v>
+        <v>7800000</v>
       </c>
       <c r="J244" s="5" t="n">
         <v>0.3</v>
       </c>
       <c r="K244" s="4" t="n">
-        <v>97920000</v>
+        <v>95472000</v>
       </c>
       <c r="L244" s="2" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B245" s="3" t="n">
         <v>45854</v>
@@ -17198,10 +17198,10 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E245" s="2" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F245" s="2" t="n">
         <v>1</v>
@@ -17210,16 +17210,16 @@
         <v>40.8</v>
       </c>
       <c r="H245" s="4" t="n">
-        <v>318240000</v>
+        <v>310080000</v>
       </c>
       <c r="I245" s="4" t="n">
-        <v>7800000</v>
+        <v>7600000</v>
       </c>
       <c r="J245" s="5" t="n">
         <v>0.3</v>
       </c>
       <c r="K245" s="4" t="n">
-        <v>95472000</v>
+        <v>93024000</v>
       </c>
       <c r="L245" s="2" t="inlineStr">
         <is>
@@ -17255,65 +17255,67 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B246" s="3" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="C246" s="2" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E246" s="2" t="n">
-        <v>32</v>
+        <v>388</v>
       </c>
       <c r="F246" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G246" s="2" t="n">
-        <v>40.8</v>
+        <v>52.83</v>
       </c>
       <c r="H246" s="4" t="n">
-        <v>310080000</v>
+        <v>443772000</v>
       </c>
       <c r="I246" s="4" t="n">
-        <v>7600000</v>
+        <v>8400000</v>
       </c>
       <c r="J246" s="5" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="K246" s="4" t="n">
-        <v>93024000</v>
+        <v>310640400</v>
       </c>
       <c r="L246" s="2" t="inlineStr">
         <is>
-          <t>SALOYDINOV AZMIDDIN SHARIDDIN OGLI</t>
+          <t>XAYITOV JAHONGIR QILICH OGLI</t>
         </is>
       </c>
       <c r="M246" s="2" t="inlineStr">
         <is>
-          <t>AE1110800</t>
+          <t>AD9915887</t>
         </is>
       </c>
       <c r="N246" s="2" t="n">
-        <v>32303910560026</v>
+        <v>31112986860025</v>
       </c>
       <c r="O246" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419 09.01.2025</t>
+          <t>IIV 27419</t>
         </is>
       </c>
       <c r="P246" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR  50 YILIGI SHOX KOCHASI 61 UY 64 XONADON</t>
-        </is>
-      </c>
-      <c r="Q246" s="2" t="n">
-        <v>998978757073</v>
+          <t>CHIRCHIQ SHAHAR TRANSVORMATOR 10/35</t>
+        </is>
+      </c>
+      <c r="Q246" s="2" t="inlineStr">
+        <is>
+          <t>998996521111   998995912330</t>
+        </is>
       </c>
       <c r="R246" s="2" t="inlineStr">
         <is>
@@ -17323,135 +17325,133 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B247" s="3" t="n">
-        <v>45855</v>
+        <v>45875</v>
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>Е</t>
+          <t>В</t>
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E247" s="2" t="n">
-        <v>388</v>
+        <v>190</v>
       </c>
       <c r="F247" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G247" s="2" t="n">
-        <v>52.83</v>
+        <v>75.98</v>
       </c>
       <c r="H247" s="4" t="n">
-        <v>443772000</v>
+        <v>573649000</v>
       </c>
       <c r="I247" s="4" t="n">
-        <v>8400000</v>
+        <v>7550000</v>
       </c>
       <c r="J247" s="5" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K247" s="4" t="n">
-        <v>310640400</v>
+        <v>286824500</v>
       </c>
       <c r="L247" s="2" t="inlineStr">
         <is>
-          <t>XAYITOV JAHONGIR QILICH OGLI</t>
+          <t>XAITBAYEV AKMAL ERKINOVICH</t>
         </is>
       </c>
       <c r="M247" s="2" t="inlineStr">
         <is>
-          <t>AD9915887</t>
+          <t>AD1925909</t>
         </is>
       </c>
       <c r="N247" s="2" t="n">
-        <v>31112986860025</v>
+        <v>32707850470032</v>
       </c>
       <c r="O247" s="2" t="inlineStr">
         <is>
-          <t>IIV 27419</t>
+          <t>IIV 60003 26.10.2022</t>
         </is>
       </c>
       <c r="P247" s="2" t="inlineStr">
         <is>
-          <t>CHIRCHIQ SHAHAR TRANSVORMATOR 10/35</t>
-        </is>
-      </c>
-      <c r="Q247" s="2" t="inlineStr">
-        <is>
-          <t>998996521111   998995912330</t>
-        </is>
+          <t>TOSHKENT SHAHAR, MIRZO ULUG'BEK TUMANI, SHUKUR BURXONOV MFY, BUYUK IPAK YO'LI KO'CHASI, 214-UY, 9-XONADON.</t>
+        </is>
+      </c>
+      <c r="Q247" s="2" t="n">
+        <v>998998788001</v>
       </c>
       <c r="R247" s="2" t="inlineStr">
         <is>
-          <t>1 Отдел Продаж</t>
+          <t>2 Отдел Продаж</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B248" s="3" t="n">
-        <v>45875</v>
+        <v>45876</v>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E248" s="2" t="n">
-        <v>190</v>
+        <v>418</v>
       </c>
       <c r="F248" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G248" s="2" t="n">
-        <v>75.98</v>
+        <v>40.8</v>
       </c>
       <c r="H248" s="4" t="n">
-        <v>573649000</v>
+        <v>291720000</v>
       </c>
       <c r="I248" s="4" t="n">
-        <v>7550000</v>
+        <v>7150000</v>
       </c>
       <c r="J248" s="5" t="n">
         <v>0.5</v>
       </c>
       <c r="K248" s="4" t="n">
-        <v>286824500</v>
+        <v>145860000</v>
       </c>
       <c r="L248" s="2" t="inlineStr">
         <is>
-          <t>XAITBAYEV AKMAL ERKINOVICH</t>
+          <t>ABISHOV BEKBOL YERMEKBAYEVICH</t>
         </is>
       </c>
       <c r="M248" s="2" t="inlineStr">
         <is>
-          <t>AD1925909</t>
+          <t>AD7684333</t>
         </is>
       </c>
       <c r="N248" s="2" t="n">
-        <v>32707850470032</v>
+        <v>30501900500058</v>
       </c>
       <c r="O248" s="2" t="inlineStr">
         <is>
-          <t>IIV 60003 26.10.2022</t>
+          <t>IIV 27224 01.07.2024</t>
         </is>
       </c>
       <c r="P248" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT SHAHAR, MIRZO ULUG'BEK TUMANI, SHUKUR BURXONOV MFY, BUYUK IPAK YO'LI KO'CHASI, 214-UY, 9-XONADON.</t>
+          <t>TOSHKENT VILOYATI, BO'STONLIQ TUMANI, QARABAY QISHLOG'I, NURAFSHON KO'CHASI 16-UY.</t>
         </is>
       </c>
       <c r="Q248" s="2" t="n">
-        <v>998998788001</v>
+        <v>998937119067</v>
       </c>
       <c r="R248" s="2" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B249" s="3" t="n">
         <v>45876</v>
@@ -17472,54 +17472,54 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E249" s="2" t="n">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F249" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G249" s="2" t="n">
-        <v>40.8</v>
+        <v>52.83</v>
       </c>
       <c r="H249" s="4" t="n">
-        <v>291720000</v>
+        <v>396225000</v>
       </c>
       <c r="I249" s="4" t="n">
-        <v>7150000</v>
+        <v>7500000</v>
       </c>
       <c r="J249" s="5" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K249" s="4" t="n">
-        <v>145860000</v>
+        <v>118867500</v>
       </c>
       <c r="L249" s="2" t="inlineStr">
         <is>
-          <t>ABISHOV BEKBOL YERMEKBAYEVICH</t>
+          <t>TADJIBOYEV G`AYRAT AMINBAYEVICH</t>
         </is>
       </c>
       <c r="M249" s="2" t="inlineStr">
         <is>
-          <t>AD7684333</t>
+          <t>AD1372925</t>
         </is>
       </c>
       <c r="N249" s="2" t="n">
-        <v>30501900500058</v>
+        <v>32912863330026</v>
       </c>
       <c r="O249" s="2" t="inlineStr">
         <is>
-          <t>IIV 27224 01.07.2024</t>
+          <t>IIV 35204 20.05.2022</t>
         </is>
       </c>
       <c r="P249" s="2" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI, BO'STONLIQ TUMANI, QARABAY QISHLOG'I, NURAFSHON KO'CHASI 16-UY.</t>
+          <t>QORAQALPOG`ISTON RESPUBLIKASI AMUDARYO TUMANI MANG`IT SHAHRI TOSHYOP O.F.Y  22-XONADON</t>
         </is>
       </c>
       <c r="Q249" s="2" t="n">
-        <v>998937119067</v>
+        <v>998978577737</v>
       </c>
       <c r="R249" s="2" t="inlineStr">
         <is>
@@ -17529,281 +17529,909 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B250" s="3" t="n">
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="C250" s="2" t="inlineStr">
         <is>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>335</v>
+      </c>
+      <c r="F250" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G250" s="2" t="n">
+        <v>65.38</v>
+      </c>
+      <c r="H250" s="4" t="n">
+        <v>441000065</v>
+      </c>
+      <c r="I250" s="4" t="n">
+        <v>6745183</v>
+      </c>
+      <c r="J250" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K250" s="4" t="n">
+        <v>441000065</v>
+      </c>
+      <c r="L250" s="2" t="inlineStr">
+        <is>
+          <t>ABDURAXMANOVA RA`NO YAXSHIBOYEVNA</t>
+        </is>
+      </c>
+      <c r="M250" s="2" t="inlineStr">
+        <is>
+          <t>AB2834838</t>
+        </is>
+      </c>
+      <c r="N250" s="2" t="n">
+        <v>41906623890015</v>
+      </c>
+      <c r="O250" s="2" t="inlineStr">
+        <is>
+          <t>SAMARQAND VILOYATI BULUNG`UR TUMANI IIB 01.02.2016</t>
+        </is>
+      </c>
+      <c r="P250" s="2" t="inlineStr">
+        <is>
+          <t>SAMARQAND VILOYATI BULUNG`UR TUMANI AMIR TEMUR MAXALLASI SOBIR RAXIMOV KO`CHASI 8-UY 2-XONADON</t>
+        </is>
+      </c>
+      <c r="Q250" s="2" t="n">
+        <v>998933551105</v>
+      </c>
+      <c r="R250" s="2" t="inlineStr">
+        <is>
+          <t>2 Отдел Продаж</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="B251" s="0" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="C251" s="0" t="inlineStr">
+        <is>
           <t>Е</t>
         </is>
       </c>
-      <c r="D250" s="2" t="n">
+      <c r="D251" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E251" s="0" t="n">
+        <v>458</v>
+      </c>
+      <c r="F251" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G251" s="0" t="n">
+        <v>52.83</v>
+      </c>
+      <c r="H251" s="0" t="n">
+        <v>338112000</v>
+      </c>
+      <c r="I251" s="0" t="n">
+        <v>6200000</v>
+      </c>
+      <c r="J251" s="0" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K251" s="0" t="n">
+        <v>118000000</v>
+      </c>
+      <c r="L251" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RAXIMOVA XILOLA FAXRITDINOVNA </t>
+        </is>
+      </c>
+      <c r="M251" s="0" t="inlineStr">
+        <is>
+          <t>AD2948530</t>
+        </is>
+      </c>
+      <c r="N251" s="0" t="inlineStr">
+        <is>
+          <t>40901900270480</t>
+        </is>
+      </c>
+      <c r="O251" s="0" t="inlineStr">
+        <is>
+          <t>IV60003</t>
+        </is>
+      </c>
+      <c r="P251" s="0" t="inlineStr">
+        <is>
+          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI TTZ-4 12/44</t>
+        </is>
+      </c>
+      <c r="Q251" s="0" t="inlineStr">
+        <is>
+          <t>+998977671867  +998715023505</t>
+        </is>
+      </c>
+      <c r="R251" s="0" t="inlineStr">
+        <is>
+          <t>AZIZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="B252" s="0" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="C252" s="0" t="inlineStr">
+        <is>
+          <t>Е</t>
+        </is>
+      </c>
+      <c r="D252" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E250" s="2" t="n">
+      <c r="E252" s="0" t="n">
         <v>411</v>
       </c>
-      <c r="F250" s="2" t="n">
+      <c r="F252" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G250" s="2" t="n">
+      <c r="G252" s="0" t="n">
         <v>40.8</v>
       </c>
-      <c r="H250" s="4" t="n">
-        <v>306000000</v>
-      </c>
-      <c r="I250" s="4" t="n">
-        <v>7500000</v>
-      </c>
-      <c r="J250" s="5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K250" s="4" t="n">
-        <v>91800000</v>
-      </c>
-      <c r="L250" s="2" t="inlineStr">
-        <is>
-          <t>BATIROVA GULCHEHRA KURBANSAYEVNA</t>
-        </is>
-      </c>
-      <c r="M250" s="2" t="inlineStr">
-        <is>
-          <t>AD9910320</t>
-        </is>
-      </c>
-      <c r="N250" s="2" t="n">
-        <v>42907743330033</v>
-      </c>
-      <c r="O250" s="2" t="inlineStr">
-        <is>
-          <t>IIV 35204 23.12.2024</t>
-        </is>
-      </c>
-      <c r="P250" s="2" t="inlineStr">
-        <is>
-          <t>QORAQALPOG`ISTON RESPUBLIKASI AMUDARYO TUMANI BOZYOP O.F.Y UVAYSIY 22-XONADON</t>
-        </is>
-      </c>
-      <c r="Q250" s="2" t="n">
-        <v>998978577737</v>
-      </c>
-      <c r="R250" s="2" t="inlineStr">
-        <is>
-          <t>2 Отдел Продаж</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
-        <v>260</v>
-      </c>
-      <c r="B251" s="3" t="n">
-        <v>45876</v>
-      </c>
-      <c r="C251" s="2" t="inlineStr">
+      <c r="H252" s="0" t="n">
+        <v>299880000</v>
+      </c>
+      <c r="I252" s="0" t="n">
+        <v>7350000</v>
+      </c>
+      <c r="J252" s="0" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K252" s="0" t="n">
+        <v>149940000</v>
+      </c>
+      <c r="L252" s="0" t="inlineStr">
+        <is>
+          <t>BERDIYEV JAXONGIR TOSHPULATOVICH</t>
+        </is>
+      </c>
+      <c r="M252" s="0" t="inlineStr">
+        <is>
+          <t>AD2898317</t>
+        </is>
+      </c>
+      <c r="N252" s="0" t="inlineStr">
+        <is>
+          <t>30301786580023</t>
+        </is>
+      </c>
+      <c r="O252" s="0" t="inlineStr">
+        <is>
+          <t>IIV 60013</t>
+        </is>
+      </c>
+      <c r="P252" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOSHKENT VILOYATI, YASHNOBOD TUMANI, AVIASOZLAR-2, BESHARIQ MAHALLASI, 40-UY, 13-XONADON. </t>
+        </is>
+      </c>
+      <c r="Q252" s="0" t="inlineStr">
+        <is>
+          <t>+998 97 775 02 78</t>
+        </is>
+      </c>
+      <c r="R252" s="0" t="inlineStr">
+        <is>
+          <t>DILFUZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="B253" s="0" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="C253" s="0" t="inlineStr">
+        <is>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="D253" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E253" s="0" t="n">
+        <v>368</v>
+      </c>
+      <c r="F253" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G253" s="0" t="n">
+        <v>54.78</v>
+      </c>
+      <c r="H253" s="0" t="n">
+        <v>361548000</v>
+      </c>
+      <c r="I253" s="0" t="n">
+        <v>6600000</v>
+      </c>
+      <c r="J253" s="0" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K253" s="0" t="n">
+        <v>90387000</v>
+      </c>
+      <c r="L253" s="0" t="inlineStr">
+        <is>
+          <t>ANOROV SHERZOD SHAVKATJON OGLI</t>
+        </is>
+      </c>
+      <c r="M253" s="0" t="inlineStr">
+        <is>
+          <t>AD0570436</t>
+        </is>
+      </c>
+      <c r="N253" s="0" t="inlineStr">
+        <is>
+          <t>50608056060079</t>
+        </is>
+      </c>
+      <c r="O253" s="0" t="inlineStr">
+        <is>
+          <t>IIV 27419 16.08.2021</t>
+        </is>
+      </c>
+      <c r="P253" s="0" t="inlineStr">
+        <is>
+          <t>TOSHKENT VILOYATI CHIRCHIQ 8 KICHIK NOXIYA 27 UY 25 XONADON</t>
+        </is>
+      </c>
+      <c r="Q253" s="0" t="inlineStr">
+        <is>
+          <t>+998888870416</t>
+        </is>
+      </c>
+      <c r="R253" s="0" t="inlineStr">
+        <is>
+          <t>AZIZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="B254" s="0" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="C254" s="0" t="inlineStr">
+        <is>
+          <t>А</t>
+        </is>
+      </c>
+      <c r="D254" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E254" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="F254" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G254" s="0" t="n">
+        <v>52.83</v>
+      </c>
+      <c r="H254" s="0" t="n">
+        <v>359244000</v>
+      </c>
+      <c r="I254" s="0" t="n">
+        <v>6800000</v>
+      </c>
+      <c r="J254" s="0" t="inlineStr"/>
+      <c r="K254" s="0" t="n">
+        <v>107773200</v>
+      </c>
+      <c r="L254" s="0" t="inlineStr">
+        <is>
+          <t>ABDURAIMOVA DILDORA BOZOROVNA</t>
+        </is>
+      </c>
+      <c r="M254" s="0" t="inlineStr">
+        <is>
+          <t>AE3858856</t>
+        </is>
+      </c>
+      <c r="N254" s="0" t="inlineStr">
+        <is>
+          <t>41701926230012</t>
+        </is>
+      </c>
+      <c r="O254" s="0" t="inlineStr">
+        <is>
+          <t>IIV 27419 20.08.2025</t>
+        </is>
+      </c>
+      <c r="P254" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHIRCHIQ SHAHAR 2-MIKRORAYON 1-UY 32-XONADON </t>
+        </is>
+      </c>
+      <c r="Q254" s="0" t="inlineStr">
+        <is>
+          <t>+998949273887</t>
+        </is>
+      </c>
+      <c r="R254" s="0" t="inlineStr">
+        <is>
+          <t>AZIZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="B255" s="0" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="C255" s="0" t="inlineStr">
+        <is>
+          <t>Б</t>
+        </is>
+      </c>
+      <c r="D255" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E255" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="F255" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G255" s="0" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="H255" s="0" t="n">
+        <v>315514500</v>
+      </c>
+      <c r="I255" s="0" t="n">
+        <v>7400000</v>
+      </c>
+      <c r="J255" s="0" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K255" s="0" t="n">
+        <v>175000000</v>
+      </c>
+      <c r="L255" s="0" t="inlineStr">
+        <is>
+          <t>SAYPIDINOV NURIDIN KAMOLIDDINOVICH</t>
+        </is>
+      </c>
+      <c r="M255" s="0" t="inlineStr">
+        <is>
+          <t>AD 1203831</t>
+        </is>
+      </c>
+      <c r="N255" s="0" t="inlineStr">
+        <is>
+          <t>30311860270137</t>
+        </is>
+      </c>
+      <c r="O255" s="0" t="inlineStr">
+        <is>
+          <t>IIV 26296 28.03.2022</t>
+        </is>
+      </c>
+      <c r="P255" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI M.U. SHAHARCHASI TAMA KUCHASI 13 UY </t>
+        </is>
+      </c>
+      <c r="Q255" s="0" t="inlineStr">
+        <is>
+          <t>+998977824909</t>
+        </is>
+      </c>
+      <c r="R255" s="0" t="inlineStr">
+        <is>
+          <t>AZIZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="B256" s="0" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="C256" s="0" t="inlineStr">
+        <is>
+          <t>Б</t>
+        </is>
+      </c>
+      <c r="D256" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E256" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="F256" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G256" s="0" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="H256" s="0" t="n">
+        <v>317604000</v>
+      </c>
+      <c r="I256" s="0" t="n">
+        <v>7600000</v>
+      </c>
+      <c r="J256" s="0" t="inlineStr"/>
+      <c r="K256" s="0" t="n">
+        <v>63520800</v>
+      </c>
+      <c r="L256" s="0" t="inlineStr">
+        <is>
+          <t>SAYPIDINOV NURIDIN KAMOLIDDINOVICH</t>
+        </is>
+      </c>
+      <c r="M256" s="0" t="inlineStr">
+        <is>
+          <t>AD1203861</t>
+        </is>
+      </c>
+      <c r="N256" s="0" t="inlineStr">
+        <is>
+          <t>30311860270137</t>
+        </is>
+      </c>
+      <c r="O256" s="0" t="inlineStr">
+        <is>
+          <t>IIV 26296 28.03.2022</t>
+        </is>
+      </c>
+      <c r="P256" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI M.U. SHAHARCHASI TAMA KUCHASI 13 UY </t>
+        </is>
+      </c>
+      <c r="Q256" s="0" t="inlineStr">
+        <is>
+          <t>+998977824909</t>
+        </is>
+      </c>
+      <c r="R256" s="0" t="inlineStr">
+        <is>
+          <t>AZIZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="B257" s="0" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="C257" s="0" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="D257" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E257" s="0" t="n">
+        <v>204</v>
+      </c>
+      <c r="F257" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G257" s="0" t="n">
+        <v>40.04</v>
+      </c>
+      <c r="H257" s="0" t="n">
+        <v>296296000</v>
+      </c>
+      <c r="I257" s="0" t="n">
+        <v>7400000</v>
+      </c>
+      <c r="J257" s="0" t="inlineStr"/>
+      <c r="K257" s="0" t="n">
+        <v>59259200</v>
+      </c>
+      <c r="L257" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">XAKIMOV AKBARJON BAXTIYOROVICH </t>
+        </is>
+      </c>
+      <c r="M257" s="0" t="inlineStr">
+        <is>
+          <t>AE1769674</t>
+        </is>
+      </c>
+      <c r="N257" s="0" t="inlineStr">
+        <is>
+          <t>30111903930017</t>
+        </is>
+      </c>
+      <c r="O257" s="0" t="inlineStr">
+        <is>
+          <t>IIV27419 27/02/2025</t>
+        </is>
+      </c>
+      <c r="P257" s="0" t="inlineStr">
+        <is>
+          <t>CHIRCHIQ SHAHAR 10/2/22</t>
+        </is>
+      </c>
+      <c r="Q257" s="0" t="inlineStr">
+        <is>
+          <t>+99890033029</t>
+        </is>
+      </c>
+      <c r="R257" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AZIZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="B258" s="0" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="C258" s="0" t="inlineStr">
+        <is>
+          <t>Г</t>
+        </is>
+      </c>
+      <c r="D258" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E258" s="0" t="n">
+        <v>258</v>
+      </c>
+      <c r="F258" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G258" s="0" t="n">
+        <v>40.04</v>
+      </c>
+      <c r="H258" s="0" t="n">
+        <v>312312000</v>
+      </c>
+      <c r="I258" s="0" t="n">
+        <v>7800000</v>
+      </c>
+      <c r="J258" s="0" t="inlineStr"/>
+      <c r="K258" s="0" t="n">
+        <v>62462400</v>
+      </c>
+      <c r="L258" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HAKIMOVA FOTIMA ABDULLAYEVNA </t>
+        </is>
+      </c>
+      <c r="M258" s="0" t="inlineStr">
+        <is>
+          <t>AD1825802</t>
+        </is>
+      </c>
+      <c r="N258" s="0" t="inlineStr">
+        <is>
+          <t>40410673930058</t>
+        </is>
+      </c>
+      <c r="O258" s="0" t="inlineStr">
+        <is>
+          <t>IIV27419 03/10/2022</t>
+        </is>
+      </c>
+      <c r="P258" s="0" t="inlineStr">
+        <is>
+          <t>CHIRCHIQ SHAHAR 10/2/22</t>
+        </is>
+      </c>
+      <c r="Q258" s="0" t="inlineStr">
+        <is>
+          <t>+998943545130</t>
+        </is>
+      </c>
+      <c r="R258" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AZIZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="B259" s="0" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="C259" s="0" t="inlineStr">
+        <is>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="D259" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E259" s="0" t="n">
+        <v>376</v>
+      </c>
+      <c r="F259" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G259" s="0" t="n">
+        <v>66.03</v>
+      </c>
+      <c r="H259" s="0" t="n">
+        <v>406084500</v>
+      </c>
+      <c r="I259" s="0" t="n">
+        <v>6150000</v>
+      </c>
+      <c r="J259" s="0" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K259" s="0" t="n">
+        <v>203042250</v>
+      </c>
+      <c r="L259" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBODULLAYEV ARORBEK AKRAVOVICH </t>
+        </is>
+      </c>
+      <c r="M259" s="0" t="inlineStr">
+        <is>
+          <t>AC1972084</t>
+        </is>
+      </c>
+      <c r="N259" s="0" t="inlineStr">
+        <is>
+          <t>5060503608025</t>
+        </is>
+      </c>
+      <c r="O259" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SAMARQAND VILOYATI PAYARIQ TUMANI IIB </t>
+        </is>
+      </c>
+      <c r="P259" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SAMARQAND VILOYATI PAYARIQ TUMANI  ALLAYORQUDUQ </t>
+        </is>
+      </c>
+      <c r="Q259" s="0" t="inlineStr">
+        <is>
+          <t>+998932273706    +998902122202</t>
+        </is>
+      </c>
+      <c r="R259" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АЗИЗ </t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="B260" s="0" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="C260" s="0" t="inlineStr">
         <is>
           <t>Е</t>
         </is>
       </c>
-      <c r="D251" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E251" s="2" t="n">
-        <v>416</v>
-      </c>
-      <c r="F251" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G251" s="2" t="n">
-        <v>52.83</v>
-      </c>
-      <c r="H251" s="4" t="n">
-        <v>396225000</v>
-      </c>
-      <c r="I251" s="4" t="n">
-        <v>7500000</v>
-      </c>
-      <c r="J251" s="5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K251" s="4" t="n">
-        <v>118867500</v>
-      </c>
-      <c r="L251" s="2" t="inlineStr">
-        <is>
-          <t>TADJIBOYEV G`AYRAT AMINBAYEVICH</t>
-        </is>
-      </c>
-      <c r="M251" s="2" t="inlineStr">
-        <is>
-          <t>AD1372925</t>
-        </is>
-      </c>
-      <c r="N251" s="2" t="n">
-        <v>32912863330026</v>
-      </c>
-      <c r="O251" s="2" t="inlineStr">
-        <is>
-          <t>IIV 35204 20.05.2022</t>
-        </is>
-      </c>
-      <c r="P251" s="2" t="inlineStr">
-        <is>
-          <t>QORAQALPOG`ISTON RESPUBLIKASI AMUDARYO TUMANI MANG`IT SHAHRI TOSHYOP O.F.Y  22-XONADON</t>
-        </is>
-      </c>
-      <c r="Q251" s="2" t="n">
-        <v>998978577737</v>
-      </c>
-      <c r="R251" s="2" t="inlineStr">
-        <is>
-          <t>2 Отдел Продаж</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
-        <v>261</v>
-      </c>
-      <c r="B252" s="3" t="n">
-        <v>45877</v>
-      </c>
-      <c r="C252" s="2" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="D252" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E252" s="2" t="n">
-        <v>335</v>
-      </c>
-      <c r="F252" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G252" s="2" t="n">
-        <v>65.38</v>
-      </c>
-      <c r="H252" s="4" t="n">
-        <v>441000065</v>
-      </c>
-      <c r="I252" s="4" t="n">
-        <v>6745183</v>
-      </c>
-      <c r="J252" s="5" t="n">
+      <c r="D260" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E260" s="0" t="n">
+        <v>454</v>
+      </c>
+      <c r="F260" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K252" s="4" t="n">
-        <v>441000065</v>
-      </c>
-      <c r="L252" s="2" t="inlineStr">
-        <is>
-          <t>ABDURAXMANOVA RA`NO YAXSHIBOYEVNA</t>
-        </is>
-      </c>
-      <c r="M252" s="2" t="inlineStr">
-        <is>
-          <t>AB2834838</t>
-        </is>
-      </c>
-      <c r="N252" s="2" t="n">
-        <v>41906623890015</v>
-      </c>
-      <c r="O252" s="2" t="inlineStr">
-        <is>
-          <t>SAMARQAND VILOYATI BULUNG`UR TUMANI IIB 01.02.2016</t>
-        </is>
-      </c>
-      <c r="P252" s="2" t="inlineStr">
-        <is>
-          <t>SAMARQAND VILOYATI BULUNG`UR TUMANI AMIR TEMUR MAXALLASI SOBIR RAXIMOV KO`CHASI 8-UY 2-XONADON</t>
-        </is>
-      </c>
-      <c r="Q252" s="2" t="n">
-        <v>998933551105</v>
-      </c>
-      <c r="R252" s="2" t="inlineStr">
-        <is>
-          <t>2 Отдел Продаж</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>262</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>2025-08-20</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
+      <c r="G260" s="0" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="H260" s="0" t="n">
+        <v>355584000</v>
+      </c>
+      <c r="I260" s="0" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="J260" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K260" s="0" t="n">
+        <v>106675200</v>
+      </c>
+      <c r="L260" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SINGATULINA IRINA VASILEVNA </t>
+        </is>
+      </c>
+      <c r="M260" s="0" t="inlineStr">
+        <is>
+          <t>AD7468392</t>
+        </is>
+      </c>
+      <c r="N260" s="0" t="inlineStr">
+        <is>
+          <t>40206620181231</t>
+        </is>
+      </c>
+      <c r="O260" s="0" t="inlineStr">
+        <is>
+          <t>IIV26264 12/06/2024</t>
+        </is>
+      </c>
+      <c r="P260" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOSHKENT SHAHAR BEKTEMIR TUMANI OLTIN TOPGAN KOCHASI 15-UY 3-XONADON </t>
+        </is>
+      </c>
+      <c r="Q260" s="0" t="inlineStr">
+        <is>
+          <t>+998335029757</t>
+        </is>
+      </c>
+      <c r="R260" s="0" t="inlineStr">
+        <is>
+          <t>AZIZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="B261" s="0" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="C261" s="0" t="inlineStr">
         <is>
           <t>Е</t>
         </is>
       </c>
-      <c r="D253" t="n">
+      <c r="D261" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E253" t="n">
-        <v>458</v>
-      </c>
-      <c r="F253" t="n">
-        <v>2</v>
-      </c>
-      <c r="G253" t="n">
-        <v>52.83</v>
-      </c>
-      <c r="H253" t="n">
-        <v>338112000</v>
-      </c>
-      <c r="I253" t="n">
-        <v>6200000</v>
-      </c>
-      <c r="J253" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="K253" t="n">
-        <v>118000000</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RAXIMOVA XILOLA FAXRITDINOVNA </t>
-        </is>
-      </c>
-      <c r="M253" t="inlineStr">
-        <is>
-          <t>AD2948530</t>
-        </is>
-      </c>
-      <c r="N253" t="inlineStr">
-        <is>
-          <t>40901900270480</t>
-        </is>
-      </c>
-      <c r="O253" t="inlineStr">
-        <is>
-          <t>IV60003</t>
-        </is>
-      </c>
-      <c r="P253" t="inlineStr">
-        <is>
-          <t>TOSHKENT SHAHAR MIRZO ULUGBEK TUMANI TTZ-4 12/44</t>
-        </is>
-      </c>
-      <c r="Q253" t="inlineStr">
-        <is>
-          <t>+998977671867  +998715023505</t>
-        </is>
-      </c>
-      <c r="R253" t="inlineStr">
+      <c r="E261" s="0" t="n">
+        <v>455</v>
+      </c>
+      <c r="F261" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G261" s="0" t="n">
+        <v>74.06999999999999</v>
+      </c>
+      <c r="H261" s="0" t="n">
+        <v>474048000</v>
+      </c>
+      <c r="I261" s="0" t="n">
+        <v>6400000</v>
+      </c>
+      <c r="J261" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K261" s="0" t="n">
+        <v>142214400</v>
+      </c>
+      <c r="L261" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SINGATULINA IRINA VASILEVNA </t>
+        </is>
+      </c>
+      <c r="M261" s="0" t="inlineStr">
+        <is>
+          <t>AD7468392</t>
+        </is>
+      </c>
+      <c r="N261" s="0" t="inlineStr">
+        <is>
+          <t>40206620181231</t>
+        </is>
+      </c>
+      <c r="O261" s="0" t="inlineStr">
+        <is>
+          <t>IIV26264 12/06/2024</t>
+        </is>
+      </c>
+      <c r="P261" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOSHKENT SHAHAR BEKTEMIR TUMANI OLTIN TOPGAN KOCHASI 15-UY 3-XONADON </t>
+        </is>
+      </c>
+      <c r="Q261" s="0" t="inlineStr">
+        <is>
+          <t>+998335029757</t>
+        </is>
+      </c>
+      <c r="R261" s="0" t="inlineStr">
         <is>
           <t>AZIZ</t>
         </is>

--- a/static/Жилые_Комплексы/ЖК_Рассвет/contract_registry.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Рассвет/contract_registry.xlsx
@@ -342,7 +342,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R261"/>
+  <dimension ref="A1:R262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18437,6 +18437,84 @@
         </is>
       </c>
     </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>А</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>6</v>
+      </c>
+      <c r="E262" t="n">
+        <v>39</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1</v>
+      </c>
+      <c r="G262" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="H262" t="n">
+        <v>299880000</v>
+      </c>
+      <c r="I262" t="n">
+        <v>7350000</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K262" t="n">
+        <v>149940000</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>KARAKASHEVA TANZILA ABIBAKIROVNA</t>
+        </is>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>AE3560132</t>
+        </is>
+      </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>40104640790012</t>
+        </is>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOSHKENT VILOYATI BOSTONLIQ TUMANI IIB </t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOSHKENT VILOYATI BOSTONLIQ TUMANI AZADBASH MFY KURGON KADRIYAT KUCHASI 53 UY </t>
+        </is>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>+998994631157</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>Набиева Фарида</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="$C$1:$C$259"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/static/Жилые_Комплексы/ЖК_Рассвет/contract_registry.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Рассвет/contract_registry.xlsx
@@ -342,7 +342,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R262"/>
+  <dimension ref="A1:R269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18438,78 +18438,624 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="inlineStr">
+      <c r="A262" s="0" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B262" s="0" t="inlineStr">
         <is>
           <t>2025-09-30</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
+      <c r="C262" s="0" t="inlineStr">
         <is>
           <t>А</t>
         </is>
       </c>
-      <c r="D262" t="n">
+      <c r="D262" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E262" t="n">
+      <c r="E262" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="F262" t="n">
+      <c r="F262" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G262" t="n">
+      <c r="G262" s="0" t="n">
         <v>40.8</v>
       </c>
-      <c r="H262" t="n">
+      <c r="H262" s="0" t="n">
         <v>299880000</v>
       </c>
-      <c r="I262" t="n">
+      <c r="I262" s="0" t="n">
         <v>7350000</v>
       </c>
-      <c r="J262" t="inlineStr">
+      <c r="J262" s="0" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="K262" t="n">
+      <c r="K262" s="0" t="n">
         <v>149940000</v>
       </c>
-      <c r="L262" t="inlineStr">
+      <c r="L262" s="0" t="inlineStr">
         <is>
           <t>KARAKASHEVA TANZILA ABIBAKIROVNA</t>
         </is>
       </c>
-      <c r="M262" t="inlineStr">
+      <c r="M262" s="0" t="inlineStr">
         <is>
           <t>AE3560132</t>
         </is>
       </c>
-      <c r="N262" t="inlineStr">
+      <c r="N262" s="0" t="inlineStr">
         <is>
           <t>40104640790012</t>
         </is>
       </c>
-      <c r="O262" t="inlineStr">
+      <c r="O262" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">TOSHKENT VILOYATI BOSTONLIQ TUMANI IIB </t>
         </is>
       </c>
-      <c r="P262" t="inlineStr">
+      <c r="P262" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">TOSHKENT VILOYATI BOSTONLIQ TUMANI AZADBASH MFY KURGON KADRIYAT KUCHASI 53 UY </t>
         </is>
       </c>
-      <c r="Q262" t="inlineStr">
+      <c r="Q262" s="0" t="inlineStr">
         <is>
           <t>+998994631157</t>
         </is>
       </c>
-      <c r="R262" t="inlineStr">
+      <c r="R262" s="0" t="inlineStr">
+        <is>
+          <t>Набиева Фарида</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="B263" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="C263" s="0" t="inlineStr">
+        <is>
+          <t>Е</t>
+        </is>
+      </c>
+      <c r="D263" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E263" s="0" t="n">
+        <v>444</v>
+      </c>
+      <c r="F263" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G263" s="0" t="n">
+        <v>52.83</v>
+      </c>
+      <c r="H263" s="0" t="n">
+        <v>332829000</v>
+      </c>
+      <c r="I263" s="0" t="n">
+        <v>6300000</v>
+      </c>
+      <c r="J263" s="0" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K263" s="0" t="n">
+        <v>232980300</v>
+      </c>
+      <c r="L263" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AN MARINA ARKADEVNA </t>
+        </is>
+      </c>
+      <c r="M263" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AE3913104</t>
+        </is>
+      </c>
+      <c r="N263" s="0" t="inlineStr">
+        <is>
+          <t>40702883480028</t>
+        </is>
+      </c>
+      <c r="O263" s="0" t="inlineStr">
+        <is>
+          <t>IIM35250</t>
+        </is>
+      </c>
+      <c r="P263" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ДУСТЛИК КУЧАСИ 5-УЙ 16-ХОНАДОН </t>
+        </is>
+      </c>
+      <c r="Q263" s="0" t="inlineStr">
+        <is>
+          <t>+998910990788     +81087681928</t>
+        </is>
+      </c>
+      <c r="R263" s="0" t="inlineStr">
+        <is>
+          <t>Izat Nishanov</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="0" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="B264" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="C264" s="0" t="inlineStr">
+        <is>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="D264" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E264" s="0" t="n">
+        <v>367</v>
+      </c>
+      <c r="F264" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G264" s="0" t="n">
+        <v>69.38</v>
+      </c>
+      <c r="H264" s="0" t="n">
+        <v>440563000</v>
+      </c>
+      <c r="I264" s="0" t="n">
+        <v>6350000</v>
+      </c>
+      <c r="J264" s="0" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K264" s="0" t="n">
+        <v>220281500</v>
+      </c>
+      <c r="L264" s="0" t="inlineStr">
+        <is>
+          <t>DJURAYEV SARDOR ABDRAXIM OGLI</t>
+        </is>
+      </c>
+      <c r="M264" s="0" t="inlineStr">
+        <is>
+          <t>AE2874297</t>
+        </is>
+      </c>
+      <c r="N264" s="0" t="inlineStr">
+        <is>
+          <t>30611950470028</t>
+        </is>
+      </c>
+      <c r="O264" s="0" t="inlineStr">
+        <is>
+          <t>IIV 60120 02.06.2025</t>
+        </is>
+      </c>
+      <c r="P264" s="0" t="inlineStr">
+        <is>
+          <t>TOSHKENT VILOYATI CHIRCHIK SHAHAR HAYOT GULI MFY AMANGELDI KOCHASI 24 UY</t>
+        </is>
+      </c>
+      <c r="Q264" s="0" t="inlineStr">
+        <is>
+          <t>+998917766999</t>
+        </is>
+      </c>
+      <c r="R264" s="0" t="inlineStr">
+        <is>
+          <t>AZIZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="0" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="B265" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="C265" s="0" t="inlineStr">
+        <is>
+          <t>А</t>
+        </is>
+      </c>
+      <c r="D265" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E265" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="F265" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G265" s="0" t="n">
+        <v>48.79</v>
+      </c>
+      <c r="H265" s="0" t="n">
+        <v>322014000</v>
+      </c>
+      <c r="I265" s="0" t="n">
+        <v>6600000</v>
+      </c>
+      <c r="J265" s="0" t="inlineStr">
+        <is>
+          <t>Гибридная 40 + 30</t>
+        </is>
+      </c>
+      <c r="K265" s="0" t="n">
+        <v>128805600</v>
+      </c>
+      <c r="L265" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJAMILOV RUSLAN BAXODIROVICH </t>
+        </is>
+      </c>
+      <c r="M265" s="0" t="inlineStr">
+        <is>
+          <t>AB7043240</t>
+        </is>
+      </c>
+      <c r="N265" s="0" t="inlineStr">
+        <is>
+          <t>514060168600296</t>
+        </is>
+      </c>
+      <c r="O265" s="0" t="inlineStr">
+        <is>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB 26.06.2017</t>
+        </is>
+      </c>
+      <c r="P265" s="0" t="inlineStr">
+        <is>
+          <t>TOSHKENT VILOYAT CHIRCHIQ SHAHAR ISTIQBOL 49/23</t>
+        </is>
+      </c>
+      <c r="Q265" s="0" t="inlineStr">
+        <is>
+          <t>+998917775437    +998504554513</t>
+        </is>
+      </c>
+      <c r="R265" s="0" t="inlineStr">
+        <is>
+          <t>FARIDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="B266" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="C266" s="0" t="inlineStr">
+        <is>
+          <t>Е</t>
+        </is>
+      </c>
+      <c r="D266" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E266" s="0" t="n">
+        <v>394</v>
+      </c>
+      <c r="F266" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G266" s="0" t="n">
+        <v>48.79</v>
+      </c>
+      <c r="H266" s="0" t="n">
+        <v>400078000</v>
+      </c>
+      <c r="I266" s="0" t="n">
+        <v>7950000</v>
+      </c>
+      <c r="J266" s="0" t="inlineStr">
+        <is>
+          <t>Гибридная 50 + 30</t>
+        </is>
+      </c>
+      <c r="K266" s="0" t="n">
+        <v>200000000</v>
+      </c>
+      <c r="L266" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KOSDAULETOVA ASHIRKUL SADIKOVNA </t>
+        </is>
+      </c>
+      <c r="M266" s="0" t="inlineStr">
+        <is>
+          <t>AD1614919</t>
+        </is>
+      </c>
+      <c r="N266" s="0" t="inlineStr">
+        <is>
+          <t>42011486860019</t>
+        </is>
+      </c>
+      <c r="O266" s="0" t="inlineStr">
+        <is>
+          <t>IIV27419 03.08.2022</t>
+        </is>
+      </c>
+      <c r="P266" s="0" t="inlineStr">
+        <is>
+          <t>TOSHKENT VILOYATI CHIRCHIK SHAHAR 10 KICHIK NOXIYA 29 UY 11 XONADON</t>
+        </is>
+      </c>
+      <c r="Q266" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7120162   909158983 </t>
+        </is>
+      </c>
+      <c r="R266" s="0" t="inlineStr">
+        <is>
+          <t>Набиева Фарида</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="B267" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="C267" s="0" t="inlineStr">
+        <is>
+          <t>В</t>
+        </is>
+      </c>
+      <c r="D267" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E267" s="0" t="n">
+        <v>209</v>
+      </c>
+      <c r="F267" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G267" s="0" t="n">
+        <v>103.84</v>
+      </c>
+      <c r="H267" s="0" t="n">
+        <v>747648000</v>
+      </c>
+      <c r="I267" s="0" t="n">
+        <v>7200000</v>
+      </c>
+      <c r="J267" s="0" t="inlineStr">
+        <is>
+          <t>Гибридная 30 + 30</t>
+        </is>
+      </c>
+      <c r="K267" s="0" t="n">
+        <v>224294400</v>
+      </c>
+      <c r="L267" s="0" t="inlineStr">
+        <is>
+          <t>ABDUSADIKOV ABDUKARIM YAYLOVICH</t>
+        </is>
+      </c>
+      <c r="M267" s="0" t="inlineStr">
+        <is>
+          <t>AB3812736</t>
+        </is>
+      </c>
+      <c r="N267" s="0" t="inlineStr">
+        <is>
+          <t>31108560470016</t>
+        </is>
+      </c>
+      <c r="O267" s="0" t="inlineStr">
+        <is>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB 04.05.2016</t>
+        </is>
+      </c>
+      <c r="P267" s="0" t="inlineStr">
+        <is>
+          <t>TOSHKENT VILOYATI CHIRCHIK SHAHAR 10 KICHIK NOXIYA 47 UY 67 XONADON</t>
+        </is>
+      </c>
+      <c r="Q267" s="0" t="inlineStr">
+        <is>
+          <t>509972558</t>
+        </is>
+      </c>
+      <c r="R267" s="0" t="inlineStr">
+        <is>
+          <t>Набиева Фарида</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="B268" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="C268" s="0" t="inlineStr">
+        <is>
+          <t>Б</t>
+        </is>
+      </c>
+      <c r="D268" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E268" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="F268" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G268" s="0" t="n">
+        <v>68.25</v>
+      </c>
+      <c r="H268" s="0" t="n">
+        <v>528937500</v>
+      </c>
+      <c r="I268" s="0" t="n">
+        <v>7750000</v>
+      </c>
+      <c r="J268" s="0" t="inlineStr">
+        <is>
+          <t>Гибридная 50 + 30</t>
+        </is>
+      </c>
+      <c r="K268" s="0" t="n">
+        <v>264468750</v>
+      </c>
+      <c r="L268" s="0" t="inlineStr">
+        <is>
+          <t>RAIMBAYEVA FATIMA FARXADOVNA</t>
+        </is>
+      </c>
+      <c r="M268" s="0" t="inlineStr">
+        <is>
+          <t>AC0586063</t>
+        </is>
+      </c>
+      <c r="N268" s="0" t="inlineStr">
+        <is>
+          <t>325050214314</t>
+        </is>
+      </c>
+      <c r="O268" s="0" t="inlineStr">
+        <is>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB 21.08.2020</t>
+        </is>
+      </c>
+      <c r="P268" s="0" t="inlineStr">
+        <is>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR NAVBAXOR MFY SARIYEV KUCHASI 5 UY</t>
+        </is>
+      </c>
+      <c r="Q268" s="0" t="inlineStr">
+        <is>
+          <t>509972558</t>
+        </is>
+      </c>
+      <c r="R268" s="0" t="inlineStr">
+        <is>
+          <t>Набиева Фарида</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Д</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>3</v>
+      </c>
+      <c r="E269" t="n">
+        <v>319</v>
+      </c>
+      <c r="F269" t="n">
+        <v>2</v>
+      </c>
+      <c r="G269" t="n">
+        <v>69.38</v>
+      </c>
+      <c r="H269" t="n">
+        <v>568916000</v>
+      </c>
+      <c r="I269" t="n">
+        <v>8200000</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>Гибридная 50 + 30</t>
+        </is>
+      </c>
+      <c r="K269" t="n">
+        <v>170674800</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>RAIMBAYEVA FERUZA NIGMATJANOVNA</t>
+        </is>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>AB5341404</t>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>654440418338</t>
+        </is>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB 21.08.2016</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>TOSHKENT VILOYATI CHIRCHIK SHAHAR MFY NAVBAXOR  SARIYEV KOCHASI  5 XONADON</t>
+        </is>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>509972558</t>
+        </is>
+      </c>
+      <c r="R269" t="inlineStr">
         <is>
           <t>Набиева Фарида</t>
         </is>

--- a/static/Жилые_Комплексы/ЖК_Рассвет/contract_registry.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Рассвет/contract_registry.xlsx
@@ -18830,7 +18830,7 @@
     <row r="267">
       <c r="A267" s="0" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B267" s="0" t="inlineStr">
@@ -18840,58 +18840,58 @@
       </c>
       <c r="C267" s="0" t="inlineStr">
         <is>
-          <t>В</t>
+          <t>Б</t>
         </is>
       </c>
       <c r="D267" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E267" s="0" t="n">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="F267" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G267" s="0" t="n">
-        <v>103.84</v>
+        <v>68.25</v>
       </c>
       <c r="H267" s="0" t="n">
-        <v>747648000</v>
+        <v>528937500</v>
       </c>
       <c r="I267" s="0" t="n">
-        <v>7200000</v>
+        <v>7750000</v>
       </c>
       <c r="J267" s="0" t="inlineStr">
         <is>
-          <t>Гибридная 30 + 30</t>
+          <t>Гибридная 50 + 30</t>
         </is>
       </c>
       <c r="K267" s="0" t="n">
-        <v>224294400</v>
+        <v>264468750</v>
       </c>
       <c r="L267" s="0" t="inlineStr">
         <is>
-          <t>ABDUSADIKOV ABDUKARIM YAYLOVICH</t>
+          <t>RAIMBAYEVA FATIMA FARXADOVNA</t>
         </is>
       </c>
       <c r="M267" s="0" t="inlineStr">
         <is>
-          <t>AB3812736</t>
+          <t>AC0586063</t>
         </is>
       </c>
       <c r="N267" s="0" t="inlineStr">
         <is>
-          <t>31108560470016</t>
+          <t>325050214314</t>
         </is>
       </c>
       <c r="O267" s="0" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB 04.05.2016</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB 21.08.2020</t>
         </is>
       </c>
       <c r="P267" s="0" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIK SHAHAR 10 KICHIK NOXIYA 47 UY 67 XONADON</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR NAVBAXOR MFY SARIYEV KUCHASI 5 UY</t>
         </is>
       </c>
       <c r="Q267" s="0" t="inlineStr">
@@ -18908,73 +18908,73 @@
     <row r="268">
       <c r="A268" s="0" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B268" s="0" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="C268" s="0" t="inlineStr">
         <is>
-          <t>Б</t>
+          <t>Е</t>
         </is>
       </c>
       <c r="D268" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E268" s="0" t="n">
-        <v>106</v>
+        <v>429</v>
       </c>
       <c r="F268" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G268" s="0" t="n">
-        <v>68.25</v>
+        <v>48.79</v>
       </c>
       <c r="H268" s="0" t="n">
-        <v>528937500</v>
+        <v>351288000</v>
       </c>
       <c r="I268" s="0" t="n">
-        <v>7750000</v>
+        <v>7200000</v>
       </c>
       <c r="J268" s="0" t="inlineStr">
         <is>
-          <t>Гибридная 50 + 30</t>
+          <t>Гибридная 30 + 30</t>
         </is>
       </c>
       <c r="K268" s="0" t="n">
-        <v>264468750</v>
+        <v>105386400</v>
       </c>
       <c r="L268" s="0" t="inlineStr">
         <is>
-          <t>RAIMBAYEVA FATIMA FARXADOVNA</t>
+          <t>BEKBAYEVA DILARA POLATOVNA</t>
         </is>
       </c>
       <c r="M268" s="0" t="inlineStr">
         <is>
-          <t>AC0586063</t>
+          <t>AC0805961</t>
         </is>
       </c>
       <c r="N268" s="0" t="inlineStr">
         <is>
-          <t>325050214314</t>
+          <t>41001793470075</t>
         </is>
       </c>
       <c r="O268" s="0" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB 21.08.2020</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB 21.08.2018</t>
         </is>
       </c>
       <c r="P268" s="0" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR NAVBAXOR MFY SARIYEV KUCHASI 5 UY</t>
+          <t>TOSHKENT VILOYATI CHIRCHIK SHAHAR 3 KICHIK NOXIYA 22 UY 43 XONADON</t>
         </is>
       </c>
       <c r="Q268" s="0" t="inlineStr">
         <is>
-          <t>509972558</t>
+          <t>972746310</t>
         </is>
       </c>
       <c r="R268" s="0" t="inlineStr">
@@ -18986,73 +18986,73 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Д</t>
+          <t>В</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E269" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="F269" t="n">
         <v>2</v>
       </c>
       <c r="G269" t="n">
-        <v>69.38</v>
+        <v>75.98</v>
       </c>
       <c r="H269" t="n">
-        <v>568916000</v>
+        <v>543257000</v>
       </c>
       <c r="I269" t="n">
-        <v>8200000</v>
+        <v>7150000</v>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Гибридная 50 + 30</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K269" t="n">
-        <v>170674800</v>
+        <v>162997100</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>RAIMBAYEVA FERUZA NIGMATJANOVNA</t>
+          <t>AN MARINA ARKADEVNA</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>AB5341404</t>
+          <t>AE3913104</t>
         </is>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>654440418338</t>
+          <t>40702883480028</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR IIB 21.08.2016</t>
+          <t>IIM35250</t>
         </is>
       </c>
       <c r="P269" t="inlineStr">
         <is>
-          <t>TOSHKENT VILOYATI CHIRCHIK SHAHAR MFY NAVBAXOR  SARIYEV KOCHASI  5 XONADON</t>
+          <t>TOSHKENT VILOYATI CHIRCHIQ SHAHAR XUMO MFY 8 KICHIK NOXYA 35 UY 31 XONADON</t>
         </is>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>509972558</t>
+          <t>900425545</t>
         </is>
       </c>
       <c r="R269" t="inlineStr">
